--- a/src/comb_results.xlsx
+++ b/src/comb_results.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Joao\surfsimples\src\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DB18AA7B-CA11-4679-B67A-A7E0C3292C7C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E2630EE5-ECC9-4FE9-87F9-F3CE067F97A0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1805" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1805" uniqueCount="29">
   <si>
     <t>VD</t>
   </si>
@@ -89,18 +89,6 @@
     <t>sem onda</t>
   </si>
   <si>
-    <t>marolinha</t>
-  </si>
-  <si>
-    <t>clássico</t>
-  </si>
-  <si>
-    <t>bom</t>
-  </si>
-  <si>
-    <t>vale o surf</t>
-  </si>
-  <si>
     <t>liso</t>
   </si>
   <si>
@@ -117,6 +105,24 @@
   </si>
   <si>
     <t>Terral</t>
+  </si>
+  <si>
+    <t>Fraco</t>
+  </si>
+  <si>
+    <t>Vale o surf</t>
+  </si>
+  <si>
+    <t>Gigante</t>
+  </si>
+  <si>
+    <t>Bom</t>
+  </si>
+  <si>
+    <t>Clássico</t>
+  </si>
+  <si>
+    <t>Marolinha</t>
   </si>
 </sst>
 </file>
@@ -463,7 +469,7 @@
   <dimension ref="A1:J361"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J10" sqref="J10"/>
+      <selection activeCell="F5" sqref="F5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -496,7 +502,7 @@
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="B2" s="1" t="s">
         <v>5</v>
@@ -508,12 +514,12 @@
         <v>7</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>8</v>
+        <v>23</v>
       </c>
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A3" s="1" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="B3" s="1" t="s">
         <v>5</v>
@@ -525,12 +531,12 @@
         <v>9</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>8</v>
+        <v>23</v>
       </c>
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A4" s="1" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="B4" s="1" t="s">
         <v>5</v>
@@ -542,12 +548,12 @@
         <v>10</v>
       </c>
       <c r="E4" s="1" t="s">
-        <v>8</v>
+        <v>23</v>
       </c>
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A5" s="1" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="B5" s="1" t="s">
         <v>5</v>
@@ -559,12 +565,12 @@
         <v>11</v>
       </c>
       <c r="E5" s="1" t="s">
-        <v>8</v>
+        <v>23</v>
       </c>
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A6" s="1" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="B6" s="1" t="s">
         <v>5</v>
@@ -576,12 +582,13 @@
         <v>12</v>
       </c>
       <c r="E6" s="1" t="s">
-        <v>8</v>
-      </c>
+        <v>23</v>
+      </c>
+      <c r="G6" s="3"/>
     </row>
     <row r="7" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A7" s="1" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="B7" s="1" t="s">
         <v>5</v>
@@ -593,12 +600,12 @@
         <v>13</v>
       </c>
       <c r="E7" s="1" t="s">
-        <v>8</v>
+        <v>23</v>
       </c>
     </row>
     <row r="8" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A8" s="1" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="B8" s="1" t="s">
         <v>5</v>
@@ -610,13 +617,13 @@
         <v>7</v>
       </c>
       <c r="E8" s="1" t="s">
-        <v>8</v>
+        <v>23</v>
       </c>
       <c r="H8" s="3"/>
     </row>
     <row r="9" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A9" s="1" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="B9" s="1" t="s">
         <v>5</v>
@@ -628,12 +635,12 @@
         <v>9</v>
       </c>
       <c r="E9" s="1" t="s">
-        <v>8</v>
+        <v>23</v>
       </c>
     </row>
     <row r="10" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A10" s="1" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="B10" s="1" t="s">
         <v>5</v>
@@ -645,13 +652,13 @@
         <v>10</v>
       </c>
       <c r="E10" s="1" t="s">
-        <v>8</v>
+        <v>23</v>
       </c>
       <c r="J10" s="3"/>
     </row>
     <row r="11" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A11" s="1" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="B11" s="1" t="s">
         <v>5</v>
@@ -663,12 +670,12 @@
         <v>11</v>
       </c>
       <c r="E11" s="1" t="s">
-        <v>8</v>
+        <v>23</v>
       </c>
     </row>
     <row r="12" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A12" s="1" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="B12" s="1" t="s">
         <v>5</v>
@@ -680,12 +687,12 @@
         <v>12</v>
       </c>
       <c r="E12" s="1" t="s">
-        <v>8</v>
+        <v>23</v>
       </c>
     </row>
     <row r="13" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A13" s="1" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="B13" s="1" t="s">
         <v>5</v>
@@ -697,12 +704,12 @@
         <v>13</v>
       </c>
       <c r="E13" s="1" t="s">
-        <v>8</v>
+        <v>23</v>
       </c>
     </row>
     <row r="14" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A14" s="1" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="B14" s="1" t="s">
         <v>5</v>
@@ -714,12 +721,12 @@
         <v>7</v>
       </c>
       <c r="E14" s="1" t="s">
-        <v>8</v>
+        <v>23</v>
       </c>
     </row>
     <row r="15" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A15" s="1" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="B15" s="1" t="s">
         <v>5</v>
@@ -731,12 +738,12 @@
         <v>9</v>
       </c>
       <c r="E15" s="1" t="s">
-        <v>8</v>
+        <v>23</v>
       </c>
     </row>
     <row r="16" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="B16" s="1" t="s">
         <v>5</v>
@@ -748,12 +755,12 @@
         <v>10</v>
       </c>
       <c r="E16" s="1" t="s">
-        <v>8</v>
+        <v>23</v>
       </c>
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A17" s="1" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="B17" s="1" t="s">
         <v>5</v>
@@ -765,12 +772,12 @@
         <v>11</v>
       </c>
       <c r="E17" s="1" t="s">
-        <v>8</v>
+        <v>23</v>
       </c>
     </row>
     <row r="18" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A18" s="1" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="B18" s="1" t="s">
         <v>5</v>
@@ -782,12 +789,12 @@
         <v>12</v>
       </c>
       <c r="E18" s="1" t="s">
-        <v>8</v>
+        <v>23</v>
       </c>
     </row>
     <row r="19" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A19" s="1" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="B19" s="1" t="s">
         <v>5</v>
@@ -799,12 +806,12 @@
         <v>13</v>
       </c>
       <c r="E19" s="1" t="s">
-        <v>8</v>
+        <v>23</v>
       </c>
     </row>
     <row r="20" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A20" s="1" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="B20" s="1" t="s">
         <v>5</v>
@@ -816,12 +823,12 @@
         <v>7</v>
       </c>
       <c r="E20" s="1" t="s">
-        <v>8</v>
+        <v>23</v>
       </c>
     </row>
     <row r="21" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A21" s="1" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="B21" s="1" t="s">
         <v>5</v>
@@ -833,12 +840,12 @@
         <v>9</v>
       </c>
       <c r="E21" s="1" t="s">
-        <v>8</v>
+        <v>23</v>
       </c>
     </row>
     <row r="22" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A22" s="1" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="B22" s="1" t="s">
         <v>5</v>
@@ -850,12 +857,12 @@
         <v>10</v>
       </c>
       <c r="E22" s="1" t="s">
-        <v>8</v>
+        <v>23</v>
       </c>
     </row>
     <row r="23" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A23" s="1" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="B23" s="1" t="s">
         <v>5</v>
@@ -867,12 +874,12 @@
         <v>11</v>
       </c>
       <c r="E23" s="1" t="s">
-        <v>8</v>
+        <v>23</v>
       </c>
     </row>
     <row r="24" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A24" s="1" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="B24" s="1" t="s">
         <v>5</v>
@@ -884,12 +891,12 @@
         <v>12</v>
       </c>
       <c r="E24" s="1" t="s">
-        <v>8</v>
+        <v>23</v>
       </c>
     </row>
     <row r="25" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A25" s="1" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="B25" s="1" t="s">
         <v>5</v>
@@ -901,12 +908,12 @@
         <v>13</v>
       </c>
       <c r="E25" s="1" t="s">
-        <v>8</v>
+        <v>23</v>
       </c>
     </row>
     <row r="26" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A26" s="1" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="B26" s="1" t="s">
         <v>8</v>
@@ -918,12 +925,12 @@
         <v>7</v>
       </c>
       <c r="E26" s="1" t="s">
-        <v>8</v>
+        <v>23</v>
       </c>
     </row>
     <row r="27" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A27" s="1" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="B27" s="1" t="s">
         <v>8</v>
@@ -935,12 +942,12 @@
         <v>9</v>
       </c>
       <c r="E27" s="1" t="s">
-        <v>9</v>
+        <v>25</v>
       </c>
     </row>
     <row r="28" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A28" s="1" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="B28" s="1" t="s">
         <v>8</v>
@@ -952,12 +959,12 @@
         <v>10</v>
       </c>
       <c r="E28" s="1" t="s">
-        <v>17</v>
+        <v>28</v>
       </c>
     </row>
     <row r="29" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A29" s="1" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="B29" s="1" t="s">
         <v>8</v>
@@ -969,12 +976,12 @@
         <v>11</v>
       </c>
       <c r="E29" s="1" t="s">
-        <v>17</v>
+        <v>28</v>
       </c>
     </row>
     <row r="30" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A30" s="1" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="B30" s="1" t="s">
         <v>8</v>
@@ -986,12 +993,12 @@
         <v>12</v>
       </c>
       <c r="E30" s="1" t="s">
-        <v>18</v>
+        <v>27</v>
       </c>
     </row>
     <row r="31" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A31" s="1" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="B31" s="1" t="s">
         <v>8</v>
@@ -1003,12 +1010,12 @@
         <v>13</v>
       </c>
       <c r="E31" s="1" t="s">
-        <v>19</v>
+        <v>26</v>
       </c>
     </row>
     <row r="32" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A32" s="1" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="B32" s="1" t="s">
         <v>8</v>
@@ -1020,12 +1027,12 @@
         <v>7</v>
       </c>
       <c r="E32" s="1" t="s">
-        <v>8</v>
+        <v>23</v>
       </c>
     </row>
     <row r="33" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A33" s="1" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="B33" s="1" t="s">
         <v>8</v>
@@ -1037,12 +1044,12 @@
         <v>9</v>
       </c>
       <c r="E33" s="1" t="s">
-        <v>18</v>
+        <v>27</v>
       </c>
     </row>
     <row r="34" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A34" s="1" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="B34" s="1" t="s">
         <v>8</v>
@@ -1054,12 +1061,12 @@
         <v>10</v>
       </c>
       <c r="E34" s="1" t="s">
-        <v>8</v>
+        <v>23</v>
       </c>
     </row>
     <row r="35" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A35" s="1" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="B35" s="1" t="s">
         <v>8</v>
@@ -1071,12 +1078,12 @@
         <v>11</v>
       </c>
       <c r="E35" s="1" t="s">
-        <v>17</v>
+        <v>28</v>
       </c>
     </row>
     <row r="36" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A36" s="1" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="B36" s="1" t="s">
         <v>8</v>
@@ -1088,12 +1095,12 @@
         <v>12</v>
       </c>
       <c r="E36" s="1" t="s">
-        <v>19</v>
+        <v>26</v>
       </c>
     </row>
     <row r="37" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A37" s="1" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="B37" s="1" t="s">
         <v>8</v>
@@ -1105,12 +1112,12 @@
         <v>13</v>
       </c>
       <c r="E37" s="1" t="s">
-        <v>20</v>
+        <v>24</v>
       </c>
     </row>
     <row r="38" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A38" s="1" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="B38" s="1" t="s">
         <v>8</v>
@@ -1122,12 +1129,12 @@
         <v>7</v>
       </c>
       <c r="E38" s="1" t="s">
-        <v>8</v>
+        <v>23</v>
       </c>
     </row>
     <row r="39" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A39" s="1" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="B39" s="1" t="s">
         <v>8</v>
@@ -1139,12 +1146,12 @@
         <v>9</v>
       </c>
       <c r="E39" s="1" t="s">
-        <v>9</v>
+        <v>25</v>
       </c>
     </row>
     <row r="40" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A40" s="1" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="B40" s="1" t="s">
         <v>8</v>
@@ -1156,12 +1163,12 @@
         <v>10</v>
       </c>
       <c r="E40" s="1" t="s">
-        <v>17</v>
+        <v>28</v>
       </c>
     </row>
     <row r="41" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A41" s="1" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="B41" s="1" t="s">
         <v>8</v>
@@ -1173,12 +1180,12 @@
         <v>11</v>
       </c>
       <c r="E41" s="1" t="s">
-        <v>20</v>
+        <v>24</v>
       </c>
     </row>
     <row r="42" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A42" s="1" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="B42" s="1" t="s">
         <v>8</v>
@@ -1190,12 +1197,12 @@
         <v>12</v>
       </c>
       <c r="E42" s="1" t="s">
-        <v>18</v>
+        <v>27</v>
       </c>
     </row>
     <row r="43" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A43" s="1" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="B43" s="1" t="s">
         <v>8</v>
@@ -1207,12 +1214,12 @@
         <v>13</v>
       </c>
       <c r="E43" s="1" t="s">
-        <v>19</v>
+        <v>26</v>
       </c>
     </row>
     <row r="44" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A44" s="1" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="B44" s="1" t="s">
         <v>8</v>
@@ -1224,12 +1231,12 @@
         <v>7</v>
       </c>
       <c r="E44" s="1" t="s">
-        <v>8</v>
+        <v>23</v>
       </c>
     </row>
     <row r="45" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A45" s="1" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="B45" s="1" t="s">
         <v>8</v>
@@ -1241,12 +1248,12 @@
         <v>9</v>
       </c>
       <c r="E45" s="1" t="s">
-        <v>8</v>
+        <v>23</v>
       </c>
     </row>
     <row r="46" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A46" s="1" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="B46" s="1" t="s">
         <v>8</v>
@@ -1258,12 +1265,12 @@
         <v>10</v>
       </c>
       <c r="E46" s="1" t="s">
-        <v>8</v>
+        <v>23</v>
       </c>
     </row>
     <row r="47" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A47" s="1" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="B47" s="1" t="s">
         <v>8</v>
@@ -1275,12 +1282,12 @@
         <v>11</v>
       </c>
       <c r="E47" s="1" t="s">
-        <v>8</v>
+        <v>23</v>
       </c>
     </row>
     <row r="48" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A48" s="1" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="B48" s="1" t="s">
         <v>8</v>
@@ -1292,12 +1299,12 @@
         <v>12</v>
       </c>
       <c r="E48" s="1" t="s">
-        <v>8</v>
+        <v>23</v>
       </c>
     </row>
     <row r="49" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A49" s="1" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="B49" s="1" t="s">
         <v>8</v>
@@ -1309,15 +1316,15 @@
         <v>13</v>
       </c>
       <c r="E49" s="1" t="s">
-        <v>8</v>
+        <v>23</v>
       </c>
     </row>
     <row r="50" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A50" s="1" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="B50" s="1" t="s">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="C50" s="1" t="s">
         <v>6</v>
@@ -1326,15 +1333,15 @@
         <v>7</v>
       </c>
       <c r="E50" s="1" t="s">
-        <v>8</v>
+        <v>23</v>
       </c>
     </row>
     <row r="51" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A51" s="1" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="B51" s="1" t="s">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="C51" s="1" t="s">
         <v>6</v>
@@ -1343,15 +1350,15 @@
         <v>9</v>
       </c>
       <c r="E51" s="1" t="s">
-        <v>9</v>
+        <v>25</v>
       </c>
     </row>
     <row r="52" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A52" s="1" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="B52" s="1" t="s">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="C52" s="1" t="s">
         <v>6</v>
@@ -1360,15 +1367,15 @@
         <v>10</v>
       </c>
       <c r="E52" s="1" t="s">
-        <v>17</v>
+        <v>28</v>
       </c>
     </row>
     <row r="53" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A53" s="1" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="B53" s="1" t="s">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="C53" s="1" t="s">
         <v>6</v>
@@ -1377,15 +1384,15 @@
         <v>11</v>
       </c>
       <c r="E53" s="1" t="s">
-        <v>17</v>
+        <v>28</v>
       </c>
     </row>
     <row r="54" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A54" s="1" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="B54" s="1" t="s">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="C54" s="1" t="s">
         <v>6</v>
@@ -1394,15 +1401,15 @@
         <v>12</v>
       </c>
       <c r="E54" s="1" t="s">
-        <v>18</v>
+        <v>27</v>
       </c>
     </row>
     <row r="55" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A55" s="1" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="B55" s="1" t="s">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="C55" s="1" t="s">
         <v>6</v>
@@ -1411,15 +1418,15 @@
         <v>13</v>
       </c>
       <c r="E55" s="1" t="s">
-        <v>19</v>
+        <v>26</v>
       </c>
     </row>
     <row r="56" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A56" s="1" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="B56" s="1" t="s">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="C56" s="1" t="s">
         <v>14</v>
@@ -1428,15 +1435,15 @@
         <v>7</v>
       </c>
       <c r="E56" s="1" t="s">
-        <v>8</v>
+        <v>23</v>
       </c>
     </row>
     <row r="57" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A57" s="1" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="B57" s="1" t="s">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="C57" s="1" t="s">
         <v>14</v>
@@ -1445,15 +1452,15 @@
         <v>9</v>
       </c>
       <c r="E57" s="1" t="s">
-        <v>18</v>
+        <v>27</v>
       </c>
     </row>
     <row r="58" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A58" s="1" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="B58" s="1" t="s">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="C58" s="1" t="s">
         <v>14</v>
@@ -1462,15 +1469,15 @@
         <v>10</v>
       </c>
       <c r="E58" s="1" t="s">
-        <v>8</v>
+        <v>23</v>
       </c>
     </row>
     <row r="59" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A59" s="1" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="B59" s="1" t="s">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="C59" s="1" t="s">
         <v>14</v>
@@ -1479,15 +1486,15 @@
         <v>11</v>
       </c>
       <c r="E59" s="1" t="s">
-        <v>17</v>
+        <v>28</v>
       </c>
     </row>
     <row r="60" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A60" s="1" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="B60" s="1" t="s">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="C60" s="1" t="s">
         <v>14</v>
@@ -1496,15 +1503,15 @@
         <v>12</v>
       </c>
       <c r="E60" s="1" t="s">
-        <v>19</v>
+        <v>26</v>
       </c>
     </row>
     <row r="61" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A61" s="1" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="B61" s="1" t="s">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="C61" s="1" t="s">
         <v>14</v>
@@ -1513,15 +1520,15 @@
         <v>13</v>
       </c>
       <c r="E61" s="1" t="s">
-        <v>20</v>
+        <v>24</v>
       </c>
     </row>
     <row r="62" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A62" s="1" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="B62" s="1" t="s">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="C62" s="1" t="s">
         <v>15</v>
@@ -1530,15 +1537,15 @@
         <v>7</v>
       </c>
       <c r="E62" s="1" t="s">
-        <v>8</v>
+        <v>23</v>
       </c>
     </row>
     <row r="63" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A63" s="1" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="B63" s="1" t="s">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="C63" s="1" t="s">
         <v>15</v>
@@ -1547,15 +1554,15 @@
         <v>9</v>
       </c>
       <c r="E63" s="1" t="s">
-        <v>9</v>
+        <v>25</v>
       </c>
     </row>
     <row r="64" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A64" s="1" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="B64" s="1" t="s">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="C64" s="1" t="s">
         <v>15</v>
@@ -1564,15 +1571,15 @@
         <v>10</v>
       </c>
       <c r="E64" s="1" t="s">
-        <v>17</v>
+        <v>28</v>
       </c>
     </row>
     <row r="65" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A65" s="1" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="B65" s="1" t="s">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="C65" s="1" t="s">
         <v>15</v>
@@ -1581,15 +1588,15 @@
         <v>11</v>
       </c>
       <c r="E65" s="1" t="s">
-        <v>20</v>
+        <v>24</v>
       </c>
     </row>
     <row r="66" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A66" s="1" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="B66" s="1" t="s">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="C66" s="1" t="s">
         <v>15</v>
@@ -1598,15 +1605,15 @@
         <v>12</v>
       </c>
       <c r="E66" s="1" t="s">
-        <v>18</v>
+        <v>27</v>
       </c>
     </row>
     <row r="67" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A67" s="1" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="B67" s="1" t="s">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="C67" s="1" t="s">
         <v>15</v>
@@ -1615,15 +1622,15 @@
         <v>13</v>
       </c>
       <c r="E67" s="1" t="s">
-        <v>19</v>
+        <v>26</v>
       </c>
     </row>
     <row r="68" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A68" s="1" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="B68" s="1" t="s">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="C68" s="1" t="s">
         <v>16</v>
@@ -1632,15 +1639,15 @@
         <v>7</v>
       </c>
       <c r="E68" s="1" t="s">
-        <v>8</v>
+        <v>23</v>
       </c>
     </row>
     <row r="69" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A69" s="1" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="B69" s="1" t="s">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="C69" s="1" t="s">
         <v>16</v>
@@ -1649,15 +1656,15 @@
         <v>9</v>
       </c>
       <c r="E69" s="1" t="s">
-        <v>8</v>
+        <v>23</v>
       </c>
     </row>
     <row r="70" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A70" s="1" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="B70" s="1" t="s">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="C70" s="1" t="s">
         <v>16</v>
@@ -1666,15 +1673,15 @@
         <v>10</v>
       </c>
       <c r="E70" s="1" t="s">
-        <v>8</v>
+        <v>23</v>
       </c>
     </row>
     <row r="71" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A71" s="1" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="B71" s="1" t="s">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="C71" s="1" t="s">
         <v>16</v>
@@ -1683,15 +1690,15 @@
         <v>11</v>
       </c>
       <c r="E71" s="1" t="s">
-        <v>8</v>
+        <v>23</v>
       </c>
     </row>
     <row r="72" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A72" s="1" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="B72" s="1" t="s">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="C72" s="1" t="s">
         <v>16</v>
@@ -1700,15 +1707,15 @@
         <v>12</v>
       </c>
       <c r="E72" s="1" t="s">
-        <v>8</v>
+        <v>23</v>
       </c>
     </row>
     <row r="73" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A73" s="1" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="B73" s="1" t="s">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="C73" s="1" t="s">
         <v>16</v>
@@ -1717,15 +1724,15 @@
         <v>13</v>
       </c>
       <c r="E73" s="1" t="s">
-        <v>8</v>
+        <v>23</v>
       </c>
     </row>
     <row r="74" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A74" s="1" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="B74" s="1" t="s">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="C74" s="1" t="s">
         <v>6</v>
@@ -1734,15 +1741,15 @@
         <v>7</v>
       </c>
       <c r="E74" s="1" t="s">
-        <v>8</v>
+        <v>23</v>
       </c>
     </row>
     <row r="75" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A75" s="1" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="B75" s="1" t="s">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="C75" s="1" t="s">
         <v>6</v>
@@ -1751,15 +1758,15 @@
         <v>9</v>
       </c>
       <c r="E75" s="1" t="s">
-        <v>8</v>
+        <v>23</v>
       </c>
     </row>
     <row r="76" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A76" s="1" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="B76" s="1" t="s">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="C76" s="1" t="s">
         <v>6</v>
@@ -1768,15 +1775,15 @@
         <v>10</v>
       </c>
       <c r="E76" s="1" t="s">
-        <v>8</v>
+        <v>23</v>
       </c>
     </row>
     <row r="77" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A77" s="1" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="B77" s="1" t="s">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="C77" s="1" t="s">
         <v>6</v>
@@ -1785,15 +1792,15 @@
         <v>11</v>
       </c>
       <c r="E77" s="1" t="s">
-        <v>8</v>
+        <v>23</v>
       </c>
     </row>
     <row r="78" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A78" s="1" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="B78" s="1" t="s">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="C78" s="1" t="s">
         <v>6</v>
@@ -1802,15 +1809,15 @@
         <v>12</v>
       </c>
       <c r="E78" s="1" t="s">
-        <v>20</v>
+        <v>24</v>
       </c>
     </row>
     <row r="79" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A79" s="1" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="B79" s="1" t="s">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="C79" s="1" t="s">
         <v>6</v>
@@ -1819,15 +1826,15 @@
         <v>13</v>
       </c>
       <c r="E79" s="1" t="s">
-        <v>20</v>
+        <v>24</v>
       </c>
     </row>
     <row r="80" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A80" s="1" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="B80" s="1" t="s">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="C80" s="1" t="s">
         <v>14</v>
@@ -1836,15 +1843,15 @@
         <v>7</v>
       </c>
       <c r="E80" s="1" t="s">
-        <v>8</v>
+        <v>23</v>
       </c>
     </row>
     <row r="81" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A81" s="1" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="B81" s="1" t="s">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="C81" s="1" t="s">
         <v>14</v>
@@ -1853,15 +1860,15 @@
         <v>9</v>
       </c>
       <c r="E81" s="1" t="s">
-        <v>8</v>
+        <v>23</v>
       </c>
     </row>
     <row r="82" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A82" s="1" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="B82" s="1" t="s">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="C82" s="1" t="s">
         <v>14</v>
@@ -1870,15 +1877,15 @@
         <v>10</v>
       </c>
       <c r="E82" s="1" t="s">
-        <v>8</v>
+        <v>23</v>
       </c>
     </row>
     <row r="83" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A83" s="1" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="B83" s="1" t="s">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="C83" s="1" t="s">
         <v>14</v>
@@ -1887,15 +1894,15 @@
         <v>11</v>
       </c>
       <c r="E83" s="1" t="s">
-        <v>8</v>
+        <v>23</v>
       </c>
     </row>
     <row r="84" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A84" s="1" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="B84" s="1" t="s">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="C84" s="1" t="s">
         <v>14</v>
@@ -1904,15 +1911,15 @@
         <v>12</v>
       </c>
       <c r="E84" s="1" t="s">
-        <v>20</v>
+        <v>24</v>
       </c>
     </row>
     <row r="85" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A85" s="1" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="B85" s="1" t="s">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="C85" s="1" t="s">
         <v>14</v>
@@ -1921,15 +1928,15 @@
         <v>13</v>
       </c>
       <c r="E85" s="1" t="s">
-        <v>17</v>
+        <v>28</v>
       </c>
     </row>
     <row r="86" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A86" s="1" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="B86" s="1" t="s">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="C86" s="1" t="s">
         <v>15</v>
@@ -1938,15 +1945,15 @@
         <v>7</v>
       </c>
       <c r="E86" s="1" t="s">
-        <v>8</v>
+        <v>23</v>
       </c>
     </row>
     <row r="87" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A87" s="1" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="B87" s="1" t="s">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="C87" s="1" t="s">
         <v>15</v>
@@ -1955,15 +1962,15 @@
         <v>9</v>
       </c>
       <c r="E87" s="1" t="s">
-        <v>8</v>
+        <v>23</v>
       </c>
     </row>
     <row r="88" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A88" s="1" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="B88" s="1" t="s">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="C88" s="1" t="s">
         <v>15</v>
@@ -1972,15 +1979,15 @@
         <v>10</v>
       </c>
       <c r="E88" s="1" t="s">
-        <v>8</v>
+        <v>23</v>
       </c>
     </row>
     <row r="89" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A89" s="1" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="B89" s="1" t="s">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="C89" s="1" t="s">
         <v>15</v>
@@ -1989,15 +1996,15 @@
         <v>11</v>
       </c>
       <c r="E89" s="1" t="s">
-        <v>17</v>
+        <v>28</v>
       </c>
     </row>
     <row r="90" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A90" s="1" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="B90" s="1" t="s">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="C90" s="1" t="s">
         <v>15</v>
@@ -2006,15 +2013,15 @@
         <v>12</v>
       </c>
       <c r="E90" s="1" t="s">
-        <v>20</v>
+        <v>24</v>
       </c>
     </row>
     <row r="91" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A91" s="1" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="B91" s="1" t="s">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="C91" s="1" t="s">
         <v>15</v>
@@ -2023,15 +2030,15 @@
         <v>13</v>
       </c>
       <c r="E91" s="1" t="s">
-        <v>20</v>
+        <v>24</v>
       </c>
     </row>
     <row r="92" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A92" s="1" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="B92" s="1" t="s">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="C92" s="1" t="s">
         <v>16</v>
@@ -2040,15 +2047,15 @@
         <v>7</v>
       </c>
       <c r="E92" s="1" t="s">
-        <v>8</v>
+        <v>23</v>
       </c>
     </row>
     <row r="93" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A93" s="1" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="B93" s="1" t="s">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="C93" s="1" t="s">
         <v>16</v>
@@ -2057,15 +2064,15 @@
         <v>9</v>
       </c>
       <c r="E93" s="1" t="s">
-        <v>8</v>
+        <v>23</v>
       </c>
     </row>
     <row r="94" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A94" s="1" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="B94" s="1" t="s">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="C94" s="1" t="s">
         <v>16</v>
@@ -2074,15 +2081,15 @@
         <v>10</v>
       </c>
       <c r="E94" s="1" t="s">
-        <v>8</v>
+        <v>23</v>
       </c>
     </row>
     <row r="95" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A95" s="1" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="B95" s="1" t="s">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="C95" s="1" t="s">
         <v>16</v>
@@ -2091,15 +2098,15 @@
         <v>11</v>
       </c>
       <c r="E95" s="1" t="s">
-        <v>8</v>
+        <v>23</v>
       </c>
     </row>
     <row r="96" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A96" s="1" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="B96" s="1" t="s">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="C96" s="1" t="s">
         <v>16</v>
@@ -2108,15 +2115,15 @@
         <v>12</v>
       </c>
       <c r="E96" s="1" t="s">
-        <v>8</v>
+        <v>23</v>
       </c>
     </row>
     <row r="97" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A97" s="1" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="B97" s="1" t="s">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="C97" s="1" t="s">
         <v>16</v>
@@ -2125,15 +2132,15 @@
         <v>13</v>
       </c>
       <c r="E97" s="1" t="s">
-        <v>8</v>
+        <v>23</v>
       </c>
     </row>
     <row r="98" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A98" s="1" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="B98" s="1" t="s">
-        <v>23</v>
+        <v>19</v>
       </c>
       <c r="C98" s="1" t="s">
         <v>6</v>
@@ -2142,15 +2149,15 @@
         <v>7</v>
       </c>
       <c r="E98" s="1" t="s">
-        <v>8</v>
+        <v>23</v>
       </c>
     </row>
     <row r="99" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A99" s="1" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="B99" s="1" t="s">
-        <v>23</v>
+        <v>19</v>
       </c>
       <c r="C99" s="1" t="s">
         <v>6</v>
@@ -2159,15 +2166,15 @@
         <v>9</v>
       </c>
       <c r="E99" s="1" t="s">
-        <v>8</v>
+        <v>23</v>
       </c>
     </row>
     <row r="100" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A100" s="1" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="B100" s="1" t="s">
-        <v>23</v>
+        <v>19</v>
       </c>
       <c r="C100" s="1" t="s">
         <v>6</v>
@@ -2176,15 +2183,15 @@
         <v>10</v>
       </c>
       <c r="E100" s="1" t="s">
-        <v>8</v>
+        <v>23</v>
       </c>
     </row>
     <row r="101" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A101" s="1" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="B101" s="1" t="s">
-        <v>23</v>
+        <v>19</v>
       </c>
       <c r="C101" s="1" t="s">
         <v>6</v>
@@ -2193,15 +2200,15 @@
         <v>11</v>
       </c>
       <c r="E101" s="1" t="s">
-        <v>8</v>
+        <v>23</v>
       </c>
     </row>
     <row r="102" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A102" s="1" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="B102" s="1" t="s">
-        <v>23</v>
+        <v>19</v>
       </c>
       <c r="C102" s="1" t="s">
         <v>6</v>
@@ -2210,15 +2217,15 @@
         <v>12</v>
       </c>
       <c r="E102" s="1" t="s">
-        <v>8</v>
+        <v>23</v>
       </c>
     </row>
     <row r="103" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A103" s="1" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="B103" s="1" t="s">
-        <v>23</v>
+        <v>19</v>
       </c>
       <c r="C103" s="1" t="s">
         <v>6</v>
@@ -2227,15 +2234,15 @@
         <v>13</v>
       </c>
       <c r="E103" s="1" t="s">
-        <v>8</v>
+        <v>23</v>
       </c>
     </row>
     <row r="104" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A104" s="1" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="B104" s="1" t="s">
-        <v>23</v>
+        <v>19</v>
       </c>
       <c r="C104" s="1" t="s">
         <v>14</v>
@@ -2244,15 +2251,15 @@
         <v>7</v>
       </c>
       <c r="E104" s="1" t="s">
-        <v>8</v>
+        <v>23</v>
       </c>
     </row>
     <row r="105" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A105" s="1" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="B105" s="1" t="s">
-        <v>23</v>
+        <v>19</v>
       </c>
       <c r="C105" s="1" t="s">
         <v>14</v>
@@ -2261,15 +2268,15 @@
         <v>9</v>
       </c>
       <c r="E105" s="1" t="s">
-        <v>8</v>
+        <v>23</v>
       </c>
     </row>
     <row r="106" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A106" s="1" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="B106" s="1" t="s">
-        <v>23</v>
+        <v>19</v>
       </c>
       <c r="C106" s="1" t="s">
         <v>14</v>
@@ -2278,15 +2285,15 @@
         <v>10</v>
       </c>
       <c r="E106" s="1" t="s">
-        <v>8</v>
+        <v>23</v>
       </c>
     </row>
     <row r="107" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A107" s="1" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="B107" s="1" t="s">
-        <v>23</v>
+        <v>19</v>
       </c>
       <c r="C107" s="1" t="s">
         <v>14</v>
@@ -2295,15 +2302,15 @@
         <v>11</v>
       </c>
       <c r="E107" s="1" t="s">
-        <v>8</v>
+        <v>23</v>
       </c>
     </row>
     <row r="108" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A108" s="1" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="B108" s="1" t="s">
-        <v>23</v>
+        <v>19</v>
       </c>
       <c r="C108" s="1" t="s">
         <v>14</v>
@@ -2312,15 +2319,15 @@
         <v>12</v>
       </c>
       <c r="E108" s="1" t="s">
-        <v>8</v>
+        <v>23</v>
       </c>
     </row>
     <row r="109" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A109" s="1" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="B109" s="1" t="s">
-        <v>23</v>
+        <v>19</v>
       </c>
       <c r="C109" s="1" t="s">
         <v>14</v>
@@ -2329,15 +2336,15 @@
         <v>13</v>
       </c>
       <c r="E109" s="1" t="s">
-        <v>8</v>
+        <v>23</v>
       </c>
     </row>
     <row r="110" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A110" s="1" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="B110" s="1" t="s">
-        <v>23</v>
+        <v>19</v>
       </c>
       <c r="C110" s="1" t="s">
         <v>15</v>
@@ -2346,15 +2353,15 @@
         <v>7</v>
       </c>
       <c r="E110" s="1" t="s">
-        <v>8</v>
+        <v>23</v>
       </c>
     </row>
     <row r="111" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A111" s="1" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="B111" s="1" t="s">
-        <v>23</v>
+        <v>19</v>
       </c>
       <c r="C111" s="1" t="s">
         <v>15</v>
@@ -2363,15 +2370,15 @@
         <v>9</v>
       </c>
       <c r="E111" s="1" t="s">
-        <v>8</v>
+        <v>23</v>
       </c>
     </row>
     <row r="112" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A112" s="1" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="B112" s="1" t="s">
-        <v>23</v>
+        <v>19</v>
       </c>
       <c r="C112" s="1" t="s">
         <v>15</v>
@@ -2380,15 +2387,15 @@
         <v>10</v>
       </c>
       <c r="E112" s="1" t="s">
-        <v>8</v>
+        <v>23</v>
       </c>
     </row>
     <row r="113" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A113" s="1" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="B113" s="1" t="s">
-        <v>23</v>
+        <v>19</v>
       </c>
       <c r="C113" s="1" t="s">
         <v>15</v>
@@ -2397,15 +2404,15 @@
         <v>11</v>
       </c>
       <c r="E113" s="1" t="s">
-        <v>8</v>
+        <v>23</v>
       </c>
     </row>
     <row r="114" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A114" s="1" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="B114" s="1" t="s">
-        <v>23</v>
+        <v>19</v>
       </c>
       <c r="C114" s="1" t="s">
         <v>15</v>
@@ -2414,15 +2421,15 @@
         <v>12</v>
       </c>
       <c r="E114" s="1" t="s">
-        <v>8</v>
+        <v>23</v>
       </c>
     </row>
     <row r="115" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A115" s="1" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="B115" s="1" t="s">
-        <v>23</v>
+        <v>19</v>
       </c>
       <c r="C115" s="1" t="s">
         <v>15</v>
@@ -2431,15 +2438,15 @@
         <v>13</v>
       </c>
       <c r="E115" s="1" t="s">
-        <v>8</v>
+        <v>23</v>
       </c>
     </row>
     <row r="116" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A116" s="1" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="B116" s="1" t="s">
-        <v>23</v>
+        <v>19</v>
       </c>
       <c r="C116" s="1" t="s">
         <v>16</v>
@@ -2448,15 +2455,15 @@
         <v>7</v>
       </c>
       <c r="E116" s="1" t="s">
-        <v>8</v>
+        <v>23</v>
       </c>
     </row>
     <row r="117" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A117" s="1" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="B117" s="1" t="s">
-        <v>23</v>
+        <v>19</v>
       </c>
       <c r="C117" s="1" t="s">
         <v>16</v>
@@ -2465,15 +2472,15 @@
         <v>9</v>
       </c>
       <c r="E117" s="1" t="s">
-        <v>8</v>
+        <v>23</v>
       </c>
     </row>
     <row r="118" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A118" s="1" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="B118" s="1" t="s">
-        <v>23</v>
+        <v>19</v>
       </c>
       <c r="C118" s="1" t="s">
         <v>16</v>
@@ -2482,15 +2489,15 @@
         <v>10</v>
       </c>
       <c r="E118" s="1" t="s">
-        <v>8</v>
+        <v>23</v>
       </c>
     </row>
     <row r="119" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A119" s="1" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="B119" s="1" t="s">
-        <v>23</v>
+        <v>19</v>
       </c>
       <c r="C119" s="1" t="s">
         <v>16</v>
@@ -2499,15 +2506,15 @@
         <v>11</v>
       </c>
       <c r="E119" s="1" t="s">
-        <v>8</v>
+        <v>23</v>
       </c>
     </row>
     <row r="120" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A120" s="1" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="B120" s="1" t="s">
-        <v>23</v>
+        <v>19</v>
       </c>
       <c r="C120" s="1" t="s">
         <v>16</v>
@@ -2516,15 +2523,15 @@
         <v>12</v>
       </c>
       <c r="E120" s="1" t="s">
-        <v>8</v>
+        <v>23</v>
       </c>
     </row>
     <row r="121" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A121" s="1" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="B121" s="1" t="s">
-        <v>23</v>
+        <v>19</v>
       </c>
       <c r="C121" s="1" t="s">
         <v>16</v>
@@ -2533,12 +2540,12 @@
         <v>13</v>
       </c>
       <c r="E121" s="1" t="s">
-        <v>8</v>
+        <v>23</v>
       </c>
     </row>
     <row r="122" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A122" s="1" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="B122" s="1" t="s">
         <v>5</v>
@@ -2550,12 +2557,12 @@
         <v>7</v>
       </c>
       <c r="E122" s="1" t="s">
-        <v>8</v>
+        <v>23</v>
       </c>
     </row>
     <row r="123" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A123" s="1" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="B123" s="1" t="s">
         <v>5</v>
@@ -2567,12 +2574,12 @@
         <v>9</v>
       </c>
       <c r="E123" s="1" t="s">
-        <v>8</v>
+        <v>23</v>
       </c>
     </row>
     <row r="124" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A124" s="1" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="B124" s="1" t="s">
         <v>5</v>
@@ -2584,12 +2591,12 @@
         <v>10</v>
       </c>
       <c r="E124" s="1" t="s">
-        <v>8</v>
+        <v>23</v>
       </c>
     </row>
     <row r="125" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A125" s="1" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="B125" s="1" t="s">
         <v>5</v>
@@ -2601,12 +2608,12 @@
         <v>11</v>
       </c>
       <c r="E125" s="1" t="s">
-        <v>8</v>
+        <v>23</v>
       </c>
     </row>
     <row r="126" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A126" s="1" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="B126" s="1" t="s">
         <v>5</v>
@@ -2618,12 +2625,12 @@
         <v>12</v>
       </c>
       <c r="E126" s="1" t="s">
-        <v>8</v>
+        <v>23</v>
       </c>
     </row>
     <row r="127" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A127" s="1" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="B127" s="1" t="s">
         <v>5</v>
@@ -2635,12 +2642,12 @@
         <v>13</v>
       </c>
       <c r="E127" s="1" t="s">
-        <v>8</v>
+        <v>23</v>
       </c>
     </row>
     <row r="128" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A128" s="1" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="B128" s="1" t="s">
         <v>5</v>
@@ -2652,12 +2659,12 @@
         <v>7</v>
       </c>
       <c r="E128" s="1" t="s">
-        <v>8</v>
+        <v>23</v>
       </c>
     </row>
     <row r="129" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A129" s="1" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="B129" s="1" t="s">
         <v>5</v>
@@ -2669,12 +2676,12 @@
         <v>9</v>
       </c>
       <c r="E129" s="1" t="s">
-        <v>8</v>
+        <v>23</v>
       </c>
     </row>
     <row r="130" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A130" s="1" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="B130" s="1" t="s">
         <v>5</v>
@@ -2686,12 +2693,12 @@
         <v>10</v>
       </c>
       <c r="E130" s="1" t="s">
-        <v>8</v>
+        <v>23</v>
       </c>
     </row>
     <row r="131" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A131" s="1" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="B131" s="1" t="s">
         <v>5</v>
@@ -2703,12 +2710,12 @@
         <v>11</v>
       </c>
       <c r="E131" s="1" t="s">
-        <v>8</v>
+        <v>23</v>
       </c>
     </row>
     <row r="132" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A132" s="1" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="B132" s="1" t="s">
         <v>5</v>
@@ -2720,12 +2727,12 @@
         <v>12</v>
       </c>
       <c r="E132" s="1" t="s">
-        <v>8</v>
+        <v>23</v>
       </c>
     </row>
     <row r="133" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A133" s="1" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="B133" s="1" t="s">
         <v>5</v>
@@ -2737,12 +2744,12 @@
         <v>13</v>
       </c>
       <c r="E133" s="1" t="s">
-        <v>8</v>
+        <v>23</v>
       </c>
     </row>
     <row r="134" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A134" s="1" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="B134" s="1" t="s">
         <v>5</v>
@@ -2754,12 +2761,12 @@
         <v>7</v>
       </c>
       <c r="E134" s="1" t="s">
-        <v>8</v>
+        <v>23</v>
       </c>
     </row>
     <row r="135" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A135" s="1" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="B135" s="1" t="s">
         <v>5</v>
@@ -2771,12 +2778,12 @@
         <v>9</v>
       </c>
       <c r="E135" s="1" t="s">
-        <v>8</v>
+        <v>23</v>
       </c>
     </row>
     <row r="136" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A136" s="1" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="B136" s="1" t="s">
         <v>5</v>
@@ -2788,12 +2795,12 @@
         <v>10</v>
       </c>
       <c r="E136" s="1" t="s">
-        <v>8</v>
+        <v>23</v>
       </c>
     </row>
     <row r="137" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A137" s="1" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="B137" s="1" t="s">
         <v>5</v>
@@ -2805,12 +2812,12 @@
         <v>11</v>
       </c>
       <c r="E137" s="1" t="s">
-        <v>8</v>
+        <v>23</v>
       </c>
     </row>
     <row r="138" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A138" s="1" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="B138" s="1" t="s">
         <v>5</v>
@@ -2822,12 +2829,12 @@
         <v>12</v>
       </c>
       <c r="E138" s="1" t="s">
-        <v>8</v>
+        <v>23</v>
       </c>
     </row>
     <row r="139" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A139" s="1" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="B139" s="1" t="s">
         <v>5</v>
@@ -2839,12 +2846,12 @@
         <v>13</v>
       </c>
       <c r="E139" s="1" t="s">
-        <v>8</v>
+        <v>23</v>
       </c>
     </row>
     <row r="140" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A140" s="1" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="B140" s="1" t="s">
         <v>5</v>
@@ -2856,12 +2863,12 @@
         <v>7</v>
       </c>
       <c r="E140" s="1" t="s">
-        <v>8</v>
+        <v>23</v>
       </c>
     </row>
     <row r="141" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A141" s="1" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="B141" s="1" t="s">
         <v>5</v>
@@ -2873,12 +2880,12 @@
         <v>9</v>
       </c>
       <c r="E141" s="1" t="s">
-        <v>8</v>
+        <v>23</v>
       </c>
     </row>
     <row r="142" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A142" s="1" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="B142" s="1" t="s">
         <v>5</v>
@@ -2890,12 +2897,12 @@
         <v>10</v>
       </c>
       <c r="E142" s="1" t="s">
-        <v>8</v>
+        <v>23</v>
       </c>
     </row>
     <row r="143" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A143" s="1" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="B143" s="1" t="s">
         <v>5</v>
@@ -2907,12 +2914,12 @@
         <v>11</v>
       </c>
       <c r="E143" s="1" t="s">
-        <v>8</v>
+        <v>23</v>
       </c>
     </row>
     <row r="144" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A144" s="1" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="B144" s="1" t="s">
         <v>5</v>
@@ -2924,12 +2931,12 @@
         <v>12</v>
       </c>
       <c r="E144" s="1" t="s">
-        <v>8</v>
+        <v>23</v>
       </c>
     </row>
     <row r="145" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A145" s="1" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="B145" s="1" t="s">
         <v>5</v>
@@ -2941,12 +2948,12 @@
         <v>13</v>
       </c>
       <c r="E145" s="1" t="s">
-        <v>8</v>
+        <v>23</v>
       </c>
     </row>
     <row r="146" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A146" s="1" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="B146" s="1" t="s">
         <v>8</v>
@@ -2958,12 +2965,12 @@
         <v>7</v>
       </c>
       <c r="E146" s="1" t="s">
-        <v>8</v>
+        <v>23</v>
       </c>
     </row>
     <row r="147" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A147" s="1" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="B147" s="1" t="s">
         <v>8</v>
@@ -2975,12 +2982,12 @@
         <v>9</v>
       </c>
       <c r="E147" s="1" t="s">
-        <v>9</v>
+        <v>25</v>
       </c>
     </row>
     <row r="148" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A148" s="1" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="B148" s="1" t="s">
         <v>8</v>
@@ -2992,12 +2999,12 @@
         <v>10</v>
       </c>
       <c r="E148" s="1" t="s">
-        <v>17</v>
+        <v>28</v>
       </c>
     </row>
     <row r="149" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A149" s="1" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="B149" s="1" t="s">
         <v>8</v>
@@ -3009,12 +3016,12 @@
         <v>11</v>
       </c>
       <c r="E149" s="1" t="s">
-        <v>17</v>
+        <v>28</v>
       </c>
     </row>
     <row r="150" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A150" s="1" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="B150" s="1" t="s">
         <v>8</v>
@@ -3026,12 +3033,12 @@
         <v>12</v>
       </c>
       <c r="E150" s="1" t="s">
-        <v>18</v>
+        <v>27</v>
       </c>
     </row>
     <row r="151" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A151" s="1" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="B151" s="1" t="s">
         <v>8</v>
@@ -3043,12 +3050,12 @@
         <v>13</v>
       </c>
       <c r="E151" s="1" t="s">
-        <v>19</v>
+        <v>26</v>
       </c>
     </row>
     <row r="152" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A152" s="1" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="B152" s="1" t="s">
         <v>8</v>
@@ -3060,12 +3067,12 @@
         <v>7</v>
       </c>
       <c r="E152" s="1" t="s">
-        <v>8</v>
+        <v>23</v>
       </c>
     </row>
     <row r="153" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A153" s="1" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="B153" s="1" t="s">
         <v>8</v>
@@ -3077,12 +3084,12 @@
         <v>9</v>
       </c>
       <c r="E153" s="1" t="s">
-        <v>18</v>
+        <v>27</v>
       </c>
     </row>
     <row r="154" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A154" s="1" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="B154" s="1" t="s">
         <v>8</v>
@@ -3094,12 +3101,12 @@
         <v>10</v>
       </c>
       <c r="E154" s="1" t="s">
-        <v>8</v>
+        <v>23</v>
       </c>
     </row>
     <row r="155" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A155" s="1" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="B155" s="1" t="s">
         <v>8</v>
@@ -3111,12 +3118,12 @@
         <v>11</v>
       </c>
       <c r="E155" s="1" t="s">
-        <v>17</v>
+        <v>28</v>
       </c>
     </row>
     <row r="156" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A156" s="1" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="B156" s="1" t="s">
         <v>8</v>
@@ -3128,12 +3135,12 @@
         <v>12</v>
       </c>
       <c r="E156" s="1" t="s">
-        <v>19</v>
+        <v>26</v>
       </c>
     </row>
     <row r="157" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A157" s="1" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="B157" s="1" t="s">
         <v>8</v>
@@ -3145,12 +3152,12 @@
         <v>13</v>
       </c>
       <c r="E157" s="1" t="s">
-        <v>20</v>
+        <v>24</v>
       </c>
     </row>
     <row r="158" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A158" s="1" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="B158" s="1" t="s">
         <v>8</v>
@@ -3162,12 +3169,12 @@
         <v>7</v>
       </c>
       <c r="E158" s="1" t="s">
-        <v>8</v>
+        <v>23</v>
       </c>
     </row>
     <row r="159" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A159" s="1" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="B159" s="1" t="s">
         <v>8</v>
@@ -3179,12 +3186,12 @@
         <v>9</v>
       </c>
       <c r="E159" s="1" t="s">
-        <v>9</v>
+        <v>25</v>
       </c>
     </row>
     <row r="160" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A160" s="1" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="B160" s="1" t="s">
         <v>8</v>
@@ -3196,12 +3203,12 @@
         <v>10</v>
       </c>
       <c r="E160" s="1" t="s">
-        <v>17</v>
+        <v>28</v>
       </c>
     </row>
     <row r="161" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A161" s="1" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="B161" s="1" t="s">
         <v>8</v>
@@ -3213,12 +3220,12 @@
         <v>11</v>
       </c>
       <c r="E161" s="1" t="s">
-        <v>20</v>
+        <v>24</v>
       </c>
     </row>
     <row r="162" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A162" s="1" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="B162" s="1" t="s">
         <v>8</v>
@@ -3230,12 +3237,12 @@
         <v>12</v>
       </c>
       <c r="E162" s="1" t="s">
-        <v>18</v>
+        <v>27</v>
       </c>
     </row>
     <row r="163" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A163" s="1" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="B163" s="1" t="s">
         <v>8</v>
@@ -3247,12 +3254,12 @@
         <v>13</v>
       </c>
       <c r="E163" s="1" t="s">
-        <v>19</v>
+        <v>26</v>
       </c>
     </row>
     <row r="164" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A164" s="1" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="B164" s="1" t="s">
         <v>8</v>
@@ -3264,12 +3271,12 @@
         <v>7</v>
       </c>
       <c r="E164" s="1" t="s">
-        <v>8</v>
+        <v>23</v>
       </c>
     </row>
     <row r="165" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A165" s="1" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="B165" s="1" t="s">
         <v>8</v>
@@ -3281,12 +3288,12 @@
         <v>9</v>
       </c>
       <c r="E165" s="1" t="s">
-        <v>8</v>
+        <v>23</v>
       </c>
     </row>
     <row r="166" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A166" s="1" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="B166" s="1" t="s">
         <v>8</v>
@@ -3298,12 +3305,12 @@
         <v>10</v>
       </c>
       <c r="E166" s="1" t="s">
-        <v>8</v>
+        <v>23</v>
       </c>
     </row>
     <row r="167" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A167" s="1" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="B167" s="1" t="s">
         <v>8</v>
@@ -3315,12 +3322,12 @@
         <v>11</v>
       </c>
       <c r="E167" s="1" t="s">
-        <v>8</v>
+        <v>23</v>
       </c>
     </row>
     <row r="168" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A168" s="1" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="B168" s="1" t="s">
         <v>8</v>
@@ -3332,12 +3339,12 @@
         <v>12</v>
       </c>
       <c r="E168" s="1" t="s">
-        <v>8</v>
+        <v>23</v>
       </c>
     </row>
     <row r="169" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A169" s="1" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="B169" s="1" t="s">
         <v>8</v>
@@ -3349,15 +3356,15 @@
         <v>13</v>
       </c>
       <c r="E169" s="1" t="s">
-        <v>8</v>
+        <v>23</v>
       </c>
     </row>
     <row r="170" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A170" s="1" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="B170" s="1" t="s">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="C170" s="1" t="s">
         <v>6</v>
@@ -3366,15 +3373,15 @@
         <v>7</v>
       </c>
       <c r="E170" s="1" t="s">
-        <v>8</v>
+        <v>23</v>
       </c>
     </row>
     <row r="171" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A171" s="1" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="B171" s="1" t="s">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="C171" s="1" t="s">
         <v>6</v>
@@ -3383,15 +3390,15 @@
         <v>9</v>
       </c>
       <c r="E171" s="1" t="s">
-        <v>9</v>
+        <v>25</v>
       </c>
     </row>
     <row r="172" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A172" s="1" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="B172" s="1" t="s">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="C172" s="1" t="s">
         <v>6</v>
@@ -3400,15 +3407,15 @@
         <v>10</v>
       </c>
       <c r="E172" s="1" t="s">
-        <v>17</v>
+        <v>28</v>
       </c>
     </row>
     <row r="173" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A173" s="1" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="B173" s="1" t="s">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="C173" s="1" t="s">
         <v>6</v>
@@ -3417,15 +3424,15 @@
         <v>11</v>
       </c>
       <c r="E173" s="1" t="s">
-        <v>17</v>
+        <v>28</v>
       </c>
     </row>
     <row r="174" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A174" s="1" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="B174" s="1" t="s">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="C174" s="1" t="s">
         <v>6</v>
@@ -3434,15 +3441,15 @@
         <v>12</v>
       </c>
       <c r="E174" s="1" t="s">
-        <v>18</v>
+        <v>27</v>
       </c>
     </row>
     <row r="175" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A175" s="1" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="B175" s="1" t="s">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="C175" s="1" t="s">
         <v>6</v>
@@ -3451,15 +3458,15 @@
         <v>13</v>
       </c>
       <c r="E175" s="1" t="s">
-        <v>19</v>
+        <v>26</v>
       </c>
     </row>
     <row r="176" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A176" s="1" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="B176" s="1" t="s">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="C176" s="1" t="s">
         <v>14</v>
@@ -3468,15 +3475,15 @@
         <v>7</v>
       </c>
       <c r="E176" s="1" t="s">
-        <v>8</v>
+        <v>23</v>
       </c>
     </row>
     <row r="177" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A177" s="1" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="B177" s="1" t="s">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="C177" s="1" t="s">
         <v>14</v>
@@ -3485,15 +3492,15 @@
         <v>9</v>
       </c>
       <c r="E177" s="1" t="s">
-        <v>18</v>
+        <v>27</v>
       </c>
     </row>
     <row r="178" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A178" s="1" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="B178" s="1" t="s">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="C178" s="1" t="s">
         <v>14</v>
@@ -3502,15 +3509,15 @@
         <v>10</v>
       </c>
       <c r="E178" s="1" t="s">
-        <v>8</v>
+        <v>23</v>
       </c>
     </row>
     <row r="179" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A179" s="1" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="B179" s="1" t="s">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="C179" s="1" t="s">
         <v>14</v>
@@ -3519,15 +3526,15 @@
         <v>11</v>
       </c>
       <c r="E179" s="1" t="s">
-        <v>17</v>
+        <v>28</v>
       </c>
     </row>
     <row r="180" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A180" s="1" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="B180" s="1" t="s">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="C180" s="1" t="s">
         <v>14</v>
@@ -3536,15 +3543,15 @@
         <v>12</v>
       </c>
       <c r="E180" s="1" t="s">
-        <v>19</v>
+        <v>26</v>
       </c>
     </row>
     <row r="181" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A181" s="1" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="B181" s="1" t="s">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="C181" s="1" t="s">
         <v>14</v>
@@ -3553,15 +3560,15 @@
         <v>13</v>
       </c>
       <c r="E181" s="1" t="s">
-        <v>20</v>
+        <v>24</v>
       </c>
     </row>
     <row r="182" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A182" s="1" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="B182" s="1" t="s">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="C182" s="1" t="s">
         <v>15</v>
@@ -3570,15 +3577,15 @@
         <v>7</v>
       </c>
       <c r="E182" s="1" t="s">
-        <v>8</v>
+        <v>23</v>
       </c>
     </row>
     <row r="183" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A183" s="1" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="B183" s="1" t="s">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="C183" s="1" t="s">
         <v>15</v>
@@ -3587,15 +3594,15 @@
         <v>9</v>
       </c>
       <c r="E183" s="1" t="s">
-        <v>9</v>
+        <v>25</v>
       </c>
     </row>
     <row r="184" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A184" s="1" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="B184" s="1" t="s">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="C184" s="1" t="s">
         <v>15</v>
@@ -3604,15 +3611,15 @@
         <v>10</v>
       </c>
       <c r="E184" s="1" t="s">
-        <v>17</v>
+        <v>28</v>
       </c>
     </row>
     <row r="185" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A185" s="1" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="B185" s="1" t="s">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="C185" s="1" t="s">
         <v>15</v>
@@ -3621,15 +3628,15 @@
         <v>11</v>
       </c>
       <c r="E185" s="1" t="s">
-        <v>20</v>
+        <v>24</v>
       </c>
     </row>
     <row r="186" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A186" s="1" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="B186" s="1" t="s">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="C186" s="1" t="s">
         <v>15</v>
@@ -3638,15 +3645,15 @@
         <v>12</v>
       </c>
       <c r="E186" s="1" t="s">
-        <v>18</v>
+        <v>27</v>
       </c>
     </row>
     <row r="187" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A187" s="1" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="B187" s="1" t="s">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="C187" s="1" t="s">
         <v>15</v>
@@ -3655,15 +3662,15 @@
         <v>13</v>
       </c>
       <c r="E187" s="1" t="s">
-        <v>19</v>
+        <v>26</v>
       </c>
     </row>
     <row r="188" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A188" s="1" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="B188" s="1" t="s">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="C188" s="1" t="s">
         <v>16</v>
@@ -3672,15 +3679,15 @@
         <v>7</v>
       </c>
       <c r="E188" s="1" t="s">
-        <v>8</v>
+        <v>23</v>
       </c>
     </row>
     <row r="189" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A189" s="1" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="B189" s="1" t="s">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="C189" s="1" t="s">
         <v>16</v>
@@ -3689,15 +3696,15 @@
         <v>9</v>
       </c>
       <c r="E189" s="1" t="s">
-        <v>8</v>
+        <v>23</v>
       </c>
     </row>
     <row r="190" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A190" s="1" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="B190" s="1" t="s">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="C190" s="1" t="s">
         <v>16</v>
@@ -3706,15 +3713,15 @@
         <v>10</v>
       </c>
       <c r="E190" s="1" t="s">
-        <v>8</v>
+        <v>23</v>
       </c>
     </row>
     <row r="191" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A191" s="1" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="B191" s="1" t="s">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="C191" s="1" t="s">
         <v>16</v>
@@ -3723,15 +3730,15 @@
         <v>11</v>
       </c>
       <c r="E191" s="1" t="s">
-        <v>8</v>
+        <v>23</v>
       </c>
     </row>
     <row r="192" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A192" s="1" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="B192" s="1" t="s">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="C192" s="1" t="s">
         <v>16</v>
@@ -3740,15 +3747,15 @@
         <v>12</v>
       </c>
       <c r="E192" s="1" t="s">
-        <v>8</v>
+        <v>23</v>
       </c>
     </row>
     <row r="193" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A193" s="1" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="B193" s="1" t="s">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="C193" s="1" t="s">
         <v>16</v>
@@ -3757,15 +3764,15 @@
         <v>13</v>
       </c>
       <c r="E193" s="1" t="s">
-        <v>8</v>
+        <v>23</v>
       </c>
     </row>
     <row r="194" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A194" s="1" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="B194" s="1" t="s">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="C194" s="1" t="s">
         <v>6</v>
@@ -3774,15 +3781,15 @@
         <v>7</v>
       </c>
       <c r="E194" s="1" t="s">
-        <v>8</v>
+        <v>23</v>
       </c>
     </row>
     <row r="195" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A195" s="1" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="B195" s="1" t="s">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="C195" s="1" t="s">
         <v>6</v>
@@ -3791,15 +3798,15 @@
         <v>9</v>
       </c>
       <c r="E195" s="1" t="s">
-        <v>8</v>
+        <v>23</v>
       </c>
     </row>
     <row r="196" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A196" s="1" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="B196" s="1" t="s">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="C196" s="1" t="s">
         <v>6</v>
@@ -3808,15 +3815,15 @@
         <v>10</v>
       </c>
       <c r="E196" s="1" t="s">
-        <v>8</v>
+        <v>23</v>
       </c>
     </row>
     <row r="197" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A197" s="1" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="B197" s="1" t="s">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="C197" s="1" t="s">
         <v>6</v>
@@ -3825,15 +3832,15 @@
         <v>11</v>
       </c>
       <c r="E197" s="1" t="s">
-        <v>8</v>
+        <v>23</v>
       </c>
     </row>
     <row r="198" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A198" s="1" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="B198" s="1" t="s">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="C198" s="1" t="s">
         <v>6</v>
@@ -3842,15 +3849,15 @@
         <v>12</v>
       </c>
       <c r="E198" s="1" t="s">
-        <v>20</v>
+        <v>24</v>
       </c>
     </row>
     <row r="199" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A199" s="1" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="B199" s="1" t="s">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="C199" s="1" t="s">
         <v>6</v>
@@ -3859,15 +3866,15 @@
         <v>13</v>
       </c>
       <c r="E199" s="1" t="s">
-        <v>20</v>
+        <v>24</v>
       </c>
     </row>
     <row r="200" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A200" s="1" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="B200" s="1" t="s">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="C200" s="1" t="s">
         <v>14</v>
@@ -3876,15 +3883,15 @@
         <v>7</v>
       </c>
       <c r="E200" s="1" t="s">
-        <v>8</v>
+        <v>23</v>
       </c>
     </row>
     <row r="201" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A201" s="1" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="B201" s="1" t="s">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="C201" s="1" t="s">
         <v>14</v>
@@ -3893,15 +3900,15 @@
         <v>9</v>
       </c>
       <c r="E201" s="1" t="s">
-        <v>8</v>
+        <v>23</v>
       </c>
     </row>
     <row r="202" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A202" s="1" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="B202" s="1" t="s">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="C202" s="1" t="s">
         <v>14</v>
@@ -3910,15 +3917,15 @@
         <v>10</v>
       </c>
       <c r="E202" s="1" t="s">
-        <v>8</v>
+        <v>23</v>
       </c>
     </row>
     <row r="203" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A203" s="1" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="B203" s="1" t="s">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="C203" s="1" t="s">
         <v>14</v>
@@ -3927,15 +3934,15 @@
         <v>11</v>
       </c>
       <c r="E203" s="1" t="s">
-        <v>8</v>
+        <v>23</v>
       </c>
     </row>
     <row r="204" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A204" s="1" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="B204" s="1" t="s">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="C204" s="1" t="s">
         <v>14</v>
@@ -3944,15 +3951,15 @@
         <v>12</v>
       </c>
       <c r="E204" s="1" t="s">
-        <v>20</v>
+        <v>24</v>
       </c>
     </row>
     <row r="205" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A205" s="1" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="B205" s="1" t="s">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="C205" s="1" t="s">
         <v>14</v>
@@ -3961,15 +3968,15 @@
         <v>13</v>
       </c>
       <c r="E205" s="1" t="s">
-        <v>17</v>
+        <v>28</v>
       </c>
     </row>
     <row r="206" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A206" s="1" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="B206" s="1" t="s">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="C206" s="1" t="s">
         <v>15</v>
@@ -3978,15 +3985,15 @@
         <v>7</v>
       </c>
       <c r="E206" s="1" t="s">
-        <v>8</v>
+        <v>23</v>
       </c>
     </row>
     <row r="207" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A207" s="1" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="B207" s="1" t="s">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="C207" s="1" t="s">
         <v>15</v>
@@ -3995,15 +4002,15 @@
         <v>9</v>
       </c>
       <c r="E207" s="1" t="s">
-        <v>8</v>
+        <v>23</v>
       </c>
     </row>
     <row r="208" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A208" s="1" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="B208" s="1" t="s">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="C208" s="1" t="s">
         <v>15</v>
@@ -4012,15 +4019,15 @@
         <v>10</v>
       </c>
       <c r="E208" s="1" t="s">
-        <v>8</v>
+        <v>23</v>
       </c>
     </row>
     <row r="209" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A209" s="1" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="B209" s="1" t="s">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="C209" s="1" t="s">
         <v>15</v>
@@ -4029,15 +4036,15 @@
         <v>11</v>
       </c>
       <c r="E209" s="1" t="s">
-        <v>17</v>
+        <v>28</v>
       </c>
     </row>
     <row r="210" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A210" s="1" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="B210" s="1" t="s">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="C210" s="1" t="s">
         <v>15</v>
@@ -4046,15 +4053,15 @@
         <v>12</v>
       </c>
       <c r="E210" s="1" t="s">
-        <v>20</v>
+        <v>24</v>
       </c>
     </row>
     <row r="211" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A211" s="1" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="B211" s="1" t="s">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="C211" s="1" t="s">
         <v>15</v>
@@ -4063,15 +4070,15 @@
         <v>13</v>
       </c>
       <c r="E211" s="1" t="s">
-        <v>20</v>
+        <v>24</v>
       </c>
     </row>
     <row r="212" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A212" s="1" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="B212" s="1" t="s">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="C212" s="1" t="s">
         <v>16</v>
@@ -4080,15 +4087,15 @@
         <v>7</v>
       </c>
       <c r="E212" s="1" t="s">
-        <v>8</v>
+        <v>23</v>
       </c>
     </row>
     <row r="213" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A213" s="1" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="B213" s="1" t="s">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="C213" s="1" t="s">
         <v>16</v>
@@ -4097,15 +4104,15 @@
         <v>9</v>
       </c>
       <c r="E213" s="1" t="s">
-        <v>8</v>
+        <v>23</v>
       </c>
     </row>
     <row r="214" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A214" s="1" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="B214" s="1" t="s">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="C214" s="1" t="s">
         <v>16</v>
@@ -4114,15 +4121,15 @@
         <v>10</v>
       </c>
       <c r="E214" s="1" t="s">
-        <v>8</v>
+        <v>23</v>
       </c>
     </row>
     <row r="215" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A215" s="1" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="B215" s="1" t="s">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="C215" s="1" t="s">
         <v>16</v>
@@ -4131,15 +4138,15 @@
         <v>11</v>
       </c>
       <c r="E215" s="1" t="s">
-        <v>8</v>
+        <v>23</v>
       </c>
     </row>
     <row r="216" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A216" s="1" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="B216" s="1" t="s">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="C216" s="1" t="s">
         <v>16</v>
@@ -4148,15 +4155,15 @@
         <v>12</v>
       </c>
       <c r="E216" s="1" t="s">
-        <v>8</v>
+        <v>23</v>
       </c>
     </row>
     <row r="217" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A217" s="1" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="B217" s="1" t="s">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="C217" s="1" t="s">
         <v>16</v>
@@ -4165,15 +4172,15 @@
         <v>13</v>
       </c>
       <c r="E217" s="1" t="s">
-        <v>8</v>
+        <v>23</v>
       </c>
     </row>
     <row r="218" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A218" s="1" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="B218" s="1" t="s">
-        <v>23</v>
+        <v>19</v>
       </c>
       <c r="C218" s="1" t="s">
         <v>6</v>
@@ -4182,15 +4189,15 @@
         <v>7</v>
       </c>
       <c r="E218" s="1" t="s">
-        <v>8</v>
+        <v>23</v>
       </c>
     </row>
     <row r="219" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A219" s="1" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="B219" s="1" t="s">
-        <v>23</v>
+        <v>19</v>
       </c>
       <c r="C219" s="1" t="s">
         <v>6</v>
@@ -4199,15 +4206,15 @@
         <v>9</v>
       </c>
       <c r="E219" s="1" t="s">
-        <v>8</v>
+        <v>23</v>
       </c>
     </row>
     <row r="220" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A220" s="1" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="B220" s="1" t="s">
-        <v>23</v>
+        <v>19</v>
       </c>
       <c r="C220" s="1" t="s">
         <v>6</v>
@@ -4216,15 +4223,15 @@
         <v>10</v>
       </c>
       <c r="E220" s="1" t="s">
-        <v>8</v>
+        <v>23</v>
       </c>
     </row>
     <row r="221" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A221" s="1" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="B221" s="1" t="s">
-        <v>23</v>
+        <v>19</v>
       </c>
       <c r="C221" s="1" t="s">
         <v>6</v>
@@ -4233,15 +4240,15 @@
         <v>11</v>
       </c>
       <c r="E221" s="1" t="s">
-        <v>8</v>
+        <v>23</v>
       </c>
     </row>
     <row r="222" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A222" s="1" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="B222" s="1" t="s">
-        <v>23</v>
+        <v>19</v>
       </c>
       <c r="C222" s="1" t="s">
         <v>6</v>
@@ -4250,15 +4257,15 @@
         <v>12</v>
       </c>
       <c r="E222" s="1" t="s">
-        <v>8</v>
+        <v>23</v>
       </c>
     </row>
     <row r="223" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A223" s="1" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="B223" s="1" t="s">
-        <v>23</v>
+        <v>19</v>
       </c>
       <c r="C223" s="1" t="s">
         <v>6</v>
@@ -4267,15 +4274,15 @@
         <v>13</v>
       </c>
       <c r="E223" s="1" t="s">
-        <v>8</v>
+        <v>23</v>
       </c>
     </row>
     <row r="224" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A224" s="1" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="B224" s="1" t="s">
-        <v>23</v>
+        <v>19</v>
       </c>
       <c r="C224" s="1" t="s">
         <v>14</v>
@@ -4284,15 +4291,15 @@
         <v>7</v>
       </c>
       <c r="E224" s="1" t="s">
-        <v>8</v>
+        <v>23</v>
       </c>
     </row>
     <row r="225" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A225" s="1" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="B225" s="1" t="s">
-        <v>23</v>
+        <v>19</v>
       </c>
       <c r="C225" s="1" t="s">
         <v>14</v>
@@ -4301,15 +4308,15 @@
         <v>9</v>
       </c>
       <c r="E225" s="1" t="s">
-        <v>8</v>
+        <v>23</v>
       </c>
     </row>
     <row r="226" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A226" s="1" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="B226" s="1" t="s">
-        <v>23</v>
+        <v>19</v>
       </c>
       <c r="C226" s="1" t="s">
         <v>14</v>
@@ -4318,15 +4325,15 @@
         <v>10</v>
       </c>
       <c r="E226" s="1" t="s">
-        <v>8</v>
+        <v>23</v>
       </c>
     </row>
     <row r="227" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A227" s="1" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="B227" s="1" t="s">
-        <v>23</v>
+        <v>19</v>
       </c>
       <c r="C227" s="1" t="s">
         <v>14</v>
@@ -4335,15 +4342,15 @@
         <v>11</v>
       </c>
       <c r="E227" s="1" t="s">
-        <v>8</v>
+        <v>23</v>
       </c>
     </row>
     <row r="228" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A228" s="1" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="B228" s="1" t="s">
-        <v>23</v>
+        <v>19</v>
       </c>
       <c r="C228" s="1" t="s">
         <v>14</v>
@@ -4352,15 +4359,15 @@
         <v>12</v>
       </c>
       <c r="E228" s="1" t="s">
-        <v>8</v>
+        <v>23</v>
       </c>
     </row>
     <row r="229" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A229" s="1" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="B229" s="1" t="s">
-        <v>23</v>
+        <v>19</v>
       </c>
       <c r="C229" s="1" t="s">
         <v>14</v>
@@ -4369,15 +4376,15 @@
         <v>13</v>
       </c>
       <c r="E229" s="1" t="s">
-        <v>8</v>
+        <v>23</v>
       </c>
     </row>
     <row r="230" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A230" s="1" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="B230" s="1" t="s">
-        <v>23</v>
+        <v>19</v>
       </c>
       <c r="C230" s="1" t="s">
         <v>15</v>
@@ -4386,15 +4393,15 @@
         <v>7</v>
       </c>
       <c r="E230" s="1" t="s">
-        <v>8</v>
+        <v>23</v>
       </c>
     </row>
     <row r="231" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A231" s="1" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="B231" s="1" t="s">
-        <v>23</v>
+        <v>19</v>
       </c>
       <c r="C231" s="1" t="s">
         <v>15</v>
@@ -4403,15 +4410,15 @@
         <v>9</v>
       </c>
       <c r="E231" s="1" t="s">
-        <v>8</v>
+        <v>23</v>
       </c>
     </row>
     <row r="232" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A232" s="1" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="B232" s="1" t="s">
-        <v>23</v>
+        <v>19</v>
       </c>
       <c r="C232" s="1" t="s">
         <v>15</v>
@@ -4420,15 +4427,15 @@
         <v>10</v>
       </c>
       <c r="E232" s="1" t="s">
-        <v>8</v>
+        <v>23</v>
       </c>
     </row>
     <row r="233" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A233" s="1" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="B233" s="1" t="s">
-        <v>23</v>
+        <v>19</v>
       </c>
       <c r="C233" s="1" t="s">
         <v>15</v>
@@ -4437,15 +4444,15 @@
         <v>11</v>
       </c>
       <c r="E233" s="1" t="s">
-        <v>8</v>
+        <v>23</v>
       </c>
     </row>
     <row r="234" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A234" s="1" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="B234" s="1" t="s">
-        <v>23</v>
+        <v>19</v>
       </c>
       <c r="C234" s="1" t="s">
         <v>15</v>
@@ -4454,15 +4461,15 @@
         <v>12</v>
       </c>
       <c r="E234" s="1" t="s">
-        <v>8</v>
+        <v>23</v>
       </c>
     </row>
     <row r="235" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A235" s="1" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="B235" s="1" t="s">
-        <v>23</v>
+        <v>19</v>
       </c>
       <c r="C235" s="1" t="s">
         <v>15</v>
@@ -4471,15 +4478,15 @@
         <v>13</v>
       </c>
       <c r="E235" s="1" t="s">
-        <v>8</v>
+        <v>23</v>
       </c>
     </row>
     <row r="236" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A236" s="1" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="B236" s="1" t="s">
-        <v>23</v>
+        <v>19</v>
       </c>
       <c r="C236" s="1" t="s">
         <v>16</v>
@@ -4488,15 +4495,15 @@
         <v>7</v>
       </c>
       <c r="E236" s="1" t="s">
-        <v>8</v>
+        <v>23</v>
       </c>
     </row>
     <row r="237" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A237" s="1" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="B237" s="1" t="s">
-        <v>23</v>
+        <v>19</v>
       </c>
       <c r="C237" s="1" t="s">
         <v>16</v>
@@ -4505,15 +4512,15 @@
         <v>9</v>
       </c>
       <c r="E237" s="1" t="s">
-        <v>8</v>
+        <v>23</v>
       </c>
     </row>
     <row r="238" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A238" s="1" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="B238" s="1" t="s">
-        <v>23</v>
+        <v>19</v>
       </c>
       <c r="C238" s="1" t="s">
         <v>16</v>
@@ -4522,15 +4529,15 @@
         <v>10</v>
       </c>
       <c r="E238" s="1" t="s">
-        <v>8</v>
+        <v>23</v>
       </c>
     </row>
     <row r="239" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A239" s="1" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="B239" s="1" t="s">
-        <v>23</v>
+        <v>19</v>
       </c>
       <c r="C239" s="1" t="s">
         <v>16</v>
@@ -4539,15 +4546,15 @@
         <v>11</v>
       </c>
       <c r="E239" s="1" t="s">
-        <v>8</v>
+        <v>23</v>
       </c>
     </row>
     <row r="240" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A240" s="1" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="B240" s="1" t="s">
-        <v>23</v>
+        <v>19</v>
       </c>
       <c r="C240" s="1" t="s">
         <v>16</v>
@@ -4556,15 +4563,15 @@
         <v>12</v>
       </c>
       <c r="E240" s="1" t="s">
-        <v>8</v>
+        <v>23</v>
       </c>
     </row>
     <row r="241" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A241" s="1" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="B241" s="1" t="s">
-        <v>23</v>
+        <v>19</v>
       </c>
       <c r="C241" s="1" t="s">
         <v>16</v>
@@ -4573,12 +4580,12 @@
         <v>13</v>
       </c>
       <c r="E241" s="1" t="s">
-        <v>8</v>
+        <v>23</v>
       </c>
     </row>
     <row r="242" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A242" s="1" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="B242" s="1" t="s">
         <v>5</v>
@@ -4590,12 +4597,12 @@
         <v>7</v>
       </c>
       <c r="E242" s="1" t="s">
-        <v>8</v>
+        <v>23</v>
       </c>
     </row>
     <row r="243" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A243" s="1" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="B243" s="1" t="s">
         <v>5</v>
@@ -4607,12 +4614,12 @@
         <v>9</v>
       </c>
       <c r="E243" s="1" t="s">
-        <v>8</v>
+        <v>23</v>
       </c>
     </row>
     <row r="244" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A244" s="1" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="B244" s="1" t="s">
         <v>5</v>
@@ -4624,12 +4631,12 @@
         <v>10</v>
       </c>
       <c r="E244" s="1" t="s">
-        <v>8</v>
+        <v>23</v>
       </c>
     </row>
     <row r="245" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A245" s="1" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="B245" s="1" t="s">
         <v>5</v>
@@ -4641,12 +4648,12 @@
         <v>11</v>
       </c>
       <c r="E245" s="1" t="s">
-        <v>17</v>
+        <v>28</v>
       </c>
     </row>
     <row r="246" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A246" s="1" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="B246" s="1" t="s">
         <v>5</v>
@@ -4658,12 +4665,12 @@
         <v>12</v>
       </c>
       <c r="E246" s="1" t="s">
-        <v>19</v>
+        <v>26</v>
       </c>
     </row>
     <row r="247" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A247" s="1" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="B247" s="1" t="s">
         <v>5</v>
@@ -4675,12 +4682,12 @@
         <v>13</v>
       </c>
       <c r="E247" s="1" t="s">
-        <v>20</v>
+        <v>24</v>
       </c>
     </row>
     <row r="248" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A248" s="1" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="B248" s="1" t="s">
         <v>5</v>
@@ -4692,12 +4699,12 @@
         <v>7</v>
       </c>
       <c r="E248" s="1" t="s">
-        <v>8</v>
+        <v>23</v>
       </c>
     </row>
     <row r="249" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A249" s="1" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="B249" s="1" t="s">
         <v>5</v>
@@ -4709,12 +4716,12 @@
         <v>9</v>
       </c>
       <c r="E249" s="1" t="s">
-        <v>19</v>
+        <v>26</v>
       </c>
     </row>
     <row r="250" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A250" s="1" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="B250" s="1" t="s">
         <v>5</v>
@@ -4726,12 +4733,12 @@
         <v>10</v>
       </c>
       <c r="E250" s="1" t="s">
-        <v>8</v>
+        <v>23</v>
       </c>
     </row>
     <row r="251" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A251" s="1" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="B251" s="1" t="s">
         <v>5</v>
@@ -4743,12 +4750,12 @@
         <v>11</v>
       </c>
       <c r="E251" s="1" t="s">
-        <v>8</v>
+        <v>23</v>
       </c>
     </row>
     <row r="252" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A252" s="1" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="B252" s="1" t="s">
         <v>5</v>
@@ -4760,12 +4767,12 @@
         <v>12</v>
       </c>
       <c r="E252" s="1" t="s">
-        <v>20</v>
+        <v>24</v>
       </c>
     </row>
     <row r="253" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A253" s="1" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="B253" s="1" t="s">
         <v>5</v>
@@ -4777,12 +4784,12 @@
         <v>13</v>
       </c>
       <c r="E253" s="1" t="s">
-        <v>17</v>
+        <v>28</v>
       </c>
     </row>
     <row r="254" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A254" s="1" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="B254" s="1" t="s">
         <v>5</v>
@@ -4794,12 +4801,12 @@
         <v>7</v>
       </c>
       <c r="E254" s="1" t="s">
-        <v>8</v>
+        <v>23</v>
       </c>
     </row>
     <row r="255" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A255" s="1" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="B255" s="1" t="s">
         <v>5</v>
@@ -4811,12 +4818,12 @@
         <v>9</v>
       </c>
       <c r="E255" s="1" t="s">
-        <v>8</v>
+        <v>23</v>
       </c>
     </row>
     <row r="256" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A256" s="1" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="B256" s="1" t="s">
         <v>5</v>
@@ -4828,12 +4835,12 @@
         <v>10</v>
       </c>
       <c r="E256" s="1" t="s">
-        <v>8</v>
+        <v>23</v>
       </c>
     </row>
     <row r="257" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A257" s="1" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="B257" s="1" t="s">
         <v>5</v>
@@ -4845,12 +4852,12 @@
         <v>11</v>
       </c>
       <c r="E257" s="1" t="s">
-        <v>20</v>
+        <v>24</v>
       </c>
     </row>
     <row r="258" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A258" s="1" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="B258" s="1" t="s">
         <v>5</v>
@@ -4862,12 +4869,12 @@
         <v>12</v>
       </c>
       <c r="E258" s="1" t="s">
-        <v>19</v>
+        <v>26</v>
       </c>
     </row>
     <row r="259" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A259" s="1" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="B259" s="1" t="s">
         <v>5</v>
@@ -4879,12 +4886,12 @@
         <v>13</v>
       </c>
       <c r="E259" s="1" t="s">
-        <v>20</v>
+        <v>24</v>
       </c>
     </row>
     <row r="260" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A260" s="1" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="B260" s="1" t="s">
         <v>5</v>
@@ -4896,12 +4903,12 @@
         <v>7</v>
       </c>
       <c r="E260" s="1" t="s">
-        <v>8</v>
+        <v>23</v>
       </c>
     </row>
     <row r="261" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A261" s="1" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="B261" s="1" t="s">
         <v>5</v>
@@ -4913,12 +4920,12 @@
         <v>9</v>
       </c>
       <c r="E261" s="1" t="s">
-        <v>8</v>
+        <v>23</v>
       </c>
     </row>
     <row r="262" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A262" s="1" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="B262" s="1" t="s">
         <v>5</v>
@@ -4930,12 +4937,12 @@
         <v>10</v>
       </c>
       <c r="E262" s="1" t="s">
-        <v>8</v>
+        <v>23</v>
       </c>
     </row>
     <row r="263" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A263" s="1" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="B263" s="1" t="s">
         <v>5</v>
@@ -4947,12 +4954,12 @@
         <v>11</v>
       </c>
       <c r="E263" s="1" t="s">
-        <v>8</v>
+        <v>23</v>
       </c>
     </row>
     <row r="264" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A264" s="1" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="B264" s="1" t="s">
         <v>5</v>
@@ -4964,12 +4971,12 @@
         <v>12</v>
       </c>
       <c r="E264" s="1" t="s">
-        <v>8</v>
+        <v>23</v>
       </c>
     </row>
     <row r="265" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A265" s="1" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="B265" s="1" t="s">
         <v>5</v>
@@ -4981,12 +4988,12 @@
         <v>13</v>
       </c>
       <c r="E265" s="1" t="s">
-        <v>8</v>
+        <v>23</v>
       </c>
     </row>
     <row r="266" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A266" s="1" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="B266" s="1" t="s">
         <v>8</v>
@@ -4998,12 +5005,12 @@
         <v>7</v>
       </c>
       <c r="E266" s="1" t="s">
-        <v>8</v>
+        <v>23</v>
       </c>
     </row>
     <row r="267" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A267" s="1" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="B267" s="1" t="s">
         <v>8</v>
@@ -5015,12 +5022,12 @@
         <v>9</v>
       </c>
       <c r="E267" s="1" t="s">
-        <v>9</v>
+        <v>25</v>
       </c>
     </row>
     <row r="268" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A268" s="1" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="B268" s="1" t="s">
         <v>8</v>
@@ -5032,12 +5039,12 @@
         <v>10</v>
       </c>
       <c r="E268" s="1" t="s">
-        <v>17</v>
+        <v>28</v>
       </c>
     </row>
     <row r="269" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A269" s="1" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="B269" s="1" t="s">
         <v>8</v>
@@ -5049,12 +5056,12 @@
         <v>11</v>
       </c>
       <c r="E269" s="1" t="s">
-        <v>17</v>
+        <v>28</v>
       </c>
     </row>
     <row r="270" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A270" s="1" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="B270" s="1" t="s">
         <v>8</v>
@@ -5066,12 +5073,12 @@
         <v>12</v>
       </c>
       <c r="E270" s="1" t="s">
-        <v>18</v>
+        <v>27</v>
       </c>
     </row>
     <row r="271" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A271" s="1" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="B271" s="1" t="s">
         <v>8</v>
@@ -5083,12 +5090,12 @@
         <v>13</v>
       </c>
       <c r="E271" s="1" t="s">
-        <v>19</v>
+        <v>26</v>
       </c>
     </row>
     <row r="272" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A272" s="1" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="B272" s="1" t="s">
         <v>8</v>
@@ -5100,12 +5107,12 @@
         <v>7</v>
       </c>
       <c r="E272" s="1" t="s">
-        <v>8</v>
+        <v>23</v>
       </c>
     </row>
     <row r="273" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A273" s="1" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="B273" s="1" t="s">
         <v>8</v>
@@ -5117,12 +5124,12 @@
         <v>9</v>
       </c>
       <c r="E273" s="1" t="s">
-        <v>18</v>
+        <v>27</v>
       </c>
     </row>
     <row r="274" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A274" s="1" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="B274" s="1" t="s">
         <v>8</v>
@@ -5134,12 +5141,12 @@
         <v>10</v>
       </c>
       <c r="E274" s="1" t="s">
-        <v>8</v>
+        <v>23</v>
       </c>
     </row>
     <row r="275" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A275" s="1" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="B275" s="1" t="s">
         <v>8</v>
@@ -5151,12 +5158,12 @@
         <v>11</v>
       </c>
       <c r="E275" s="1" t="s">
-        <v>17</v>
+        <v>28</v>
       </c>
     </row>
     <row r="276" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A276" s="1" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="B276" s="1" t="s">
         <v>8</v>
@@ -5168,12 +5175,12 @@
         <v>12</v>
       </c>
       <c r="E276" s="1" t="s">
-        <v>19</v>
+        <v>26</v>
       </c>
     </row>
     <row r="277" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A277" s="1" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="B277" s="1" t="s">
         <v>8</v>
@@ -5185,12 +5192,12 @@
         <v>13</v>
       </c>
       <c r="E277" s="1" t="s">
-        <v>20</v>
+        <v>24</v>
       </c>
     </row>
     <row r="278" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A278" s="1" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="B278" s="1" t="s">
         <v>8</v>
@@ -5202,12 +5209,12 @@
         <v>7</v>
       </c>
       <c r="E278" s="1" t="s">
-        <v>8</v>
+        <v>23</v>
       </c>
     </row>
     <row r="279" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A279" s="1" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="B279" s="1" t="s">
         <v>8</v>
@@ -5219,12 +5226,12 @@
         <v>9</v>
       </c>
       <c r="E279" s="1" t="s">
-        <v>9</v>
+        <v>25</v>
       </c>
     </row>
     <row r="280" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A280" s="1" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="B280" s="1" t="s">
         <v>8</v>
@@ -5236,12 +5243,12 @@
         <v>10</v>
       </c>
       <c r="E280" s="1" t="s">
-        <v>17</v>
+        <v>28</v>
       </c>
     </row>
     <row r="281" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A281" s="1" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="B281" s="1" t="s">
         <v>8</v>
@@ -5253,12 +5260,12 @@
         <v>11</v>
       </c>
       <c r="E281" s="1" t="s">
-        <v>20</v>
+        <v>24</v>
       </c>
     </row>
     <row r="282" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A282" s="1" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="B282" s="1" t="s">
         <v>8</v>
@@ -5270,12 +5277,12 @@
         <v>12</v>
       </c>
       <c r="E282" s="1" t="s">
-        <v>18</v>
+        <v>27</v>
       </c>
     </row>
     <row r="283" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A283" s="1" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="B283" s="1" t="s">
         <v>8</v>
@@ -5287,12 +5294,12 @@
         <v>13</v>
       </c>
       <c r="E283" s="1" t="s">
-        <v>19</v>
+        <v>26</v>
       </c>
     </row>
     <row r="284" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A284" s="1" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="B284" s="1" t="s">
         <v>8</v>
@@ -5304,12 +5311,12 @@
         <v>7</v>
       </c>
       <c r="E284" s="1" t="s">
-        <v>8</v>
+        <v>23</v>
       </c>
     </row>
     <row r="285" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A285" s="1" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="B285" s="1" t="s">
         <v>8</v>
@@ -5321,12 +5328,12 @@
         <v>9</v>
       </c>
       <c r="E285" s="1" t="s">
-        <v>8</v>
+        <v>23</v>
       </c>
     </row>
     <row r="286" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A286" s="1" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="B286" s="1" t="s">
         <v>8</v>
@@ -5338,12 +5345,12 @@
         <v>10</v>
       </c>
       <c r="E286" s="1" t="s">
-        <v>8</v>
+        <v>23</v>
       </c>
     </row>
     <row r="287" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A287" s="1" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="B287" s="1" t="s">
         <v>8</v>
@@ -5355,12 +5362,12 @@
         <v>11</v>
       </c>
       <c r="E287" s="1" t="s">
-        <v>8</v>
+        <v>23</v>
       </c>
     </row>
     <row r="288" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A288" s="1" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="B288" s="1" t="s">
         <v>8</v>
@@ -5372,12 +5379,12 @@
         <v>12</v>
       </c>
       <c r="E288" s="1" t="s">
-        <v>8</v>
+        <v>23</v>
       </c>
     </row>
     <row r="289" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A289" s="1" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="B289" s="1" t="s">
         <v>8</v>
@@ -5389,15 +5396,15 @@
         <v>13</v>
       </c>
       <c r="E289" s="1" t="s">
-        <v>8</v>
+        <v>23</v>
       </c>
     </row>
     <row r="290" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A290" s="1" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="B290" s="1" t="s">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="C290" s="1" t="s">
         <v>6</v>
@@ -5406,15 +5413,15 @@
         <v>7</v>
       </c>
       <c r="E290" s="1" t="s">
-        <v>8</v>
+        <v>23</v>
       </c>
     </row>
     <row r="291" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A291" s="1" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="B291" s="1" t="s">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="C291" s="1" t="s">
         <v>6</v>
@@ -5423,15 +5430,15 @@
         <v>9</v>
       </c>
       <c r="E291" s="1" t="s">
-        <v>9</v>
+        <v>25</v>
       </c>
     </row>
     <row r="292" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A292" s="1" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="B292" s="1" t="s">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="C292" s="1" t="s">
         <v>6</v>
@@ -5440,15 +5447,15 @@
         <v>10</v>
       </c>
       <c r="E292" s="1" t="s">
-        <v>17</v>
+        <v>28</v>
       </c>
     </row>
     <row r="293" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A293" s="1" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="B293" s="1" t="s">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="C293" s="1" t="s">
         <v>6</v>
@@ -5457,15 +5464,15 @@
         <v>11</v>
       </c>
       <c r="E293" s="1" t="s">
-        <v>17</v>
+        <v>28</v>
       </c>
     </row>
     <row r="294" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A294" s="1" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="B294" s="1" t="s">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="C294" s="1" t="s">
         <v>6</v>
@@ -5474,15 +5481,15 @@
         <v>12</v>
       </c>
       <c r="E294" s="1" t="s">
-        <v>18</v>
+        <v>27</v>
       </c>
     </row>
     <row r="295" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A295" s="1" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="B295" s="1" t="s">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="C295" s="1" t="s">
         <v>6</v>
@@ -5491,15 +5498,15 @@
         <v>13</v>
       </c>
       <c r="E295" s="1" t="s">
-        <v>19</v>
+        <v>26</v>
       </c>
     </row>
     <row r="296" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A296" s="1" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="B296" s="1" t="s">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="C296" s="1" t="s">
         <v>14</v>
@@ -5508,15 +5515,15 @@
         <v>7</v>
       </c>
       <c r="E296" s="1" t="s">
-        <v>8</v>
+        <v>23</v>
       </c>
     </row>
     <row r="297" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A297" s="1" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="B297" s="1" t="s">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="C297" s="1" t="s">
         <v>14</v>
@@ -5525,15 +5532,15 @@
         <v>9</v>
       </c>
       <c r="E297" s="1" t="s">
-        <v>18</v>
+        <v>27</v>
       </c>
     </row>
     <row r="298" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A298" s="1" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="B298" s="1" t="s">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="C298" s="1" t="s">
         <v>14</v>
@@ -5542,15 +5549,15 @@
         <v>10</v>
       </c>
       <c r="E298" s="1" t="s">
-        <v>8</v>
+        <v>23</v>
       </c>
     </row>
     <row r="299" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A299" s="1" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="B299" s="1" t="s">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="C299" s="1" t="s">
         <v>14</v>
@@ -5559,15 +5566,15 @@
         <v>11</v>
       </c>
       <c r="E299" s="1" t="s">
-        <v>17</v>
+        <v>28</v>
       </c>
     </row>
     <row r="300" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A300" s="1" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="B300" s="1" t="s">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="C300" s="1" t="s">
         <v>14</v>
@@ -5576,15 +5583,15 @@
         <v>12</v>
       </c>
       <c r="E300" s="1" t="s">
-        <v>19</v>
+        <v>26</v>
       </c>
     </row>
     <row r="301" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A301" s="1" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="B301" s="1" t="s">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="C301" s="1" t="s">
         <v>14</v>
@@ -5593,15 +5600,15 @@
         <v>13</v>
       </c>
       <c r="E301" s="1" t="s">
-        <v>20</v>
+        <v>24</v>
       </c>
     </row>
     <row r="302" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A302" s="1" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="B302" s="1" t="s">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="C302" s="1" t="s">
         <v>15</v>
@@ -5610,15 +5617,15 @@
         <v>7</v>
       </c>
       <c r="E302" s="1" t="s">
-        <v>8</v>
+        <v>23</v>
       </c>
     </row>
     <row r="303" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A303" s="1" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="B303" s="1" t="s">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="C303" s="1" t="s">
         <v>15</v>
@@ -5627,15 +5634,15 @@
         <v>9</v>
       </c>
       <c r="E303" s="1" t="s">
-        <v>9</v>
+        <v>25</v>
       </c>
     </row>
     <row r="304" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A304" s="1" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="B304" s="1" t="s">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="C304" s="1" t="s">
         <v>15</v>
@@ -5644,15 +5651,15 @@
         <v>10</v>
       </c>
       <c r="E304" s="1" t="s">
-        <v>17</v>
+        <v>28</v>
       </c>
     </row>
     <row r="305" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A305" s="1" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="B305" s="1" t="s">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="C305" s="1" t="s">
         <v>15</v>
@@ -5661,15 +5668,15 @@
         <v>11</v>
       </c>
       <c r="E305" s="1" t="s">
-        <v>20</v>
+        <v>24</v>
       </c>
     </row>
     <row r="306" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A306" s="1" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="B306" s="1" t="s">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="C306" s="1" t="s">
         <v>15</v>
@@ -5678,15 +5685,15 @@
         <v>12</v>
       </c>
       <c r="E306" s="1" t="s">
-        <v>18</v>
+        <v>27</v>
       </c>
     </row>
     <row r="307" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A307" s="1" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="B307" s="1" t="s">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="C307" s="1" t="s">
         <v>15</v>
@@ -5695,15 +5702,15 @@
         <v>13</v>
       </c>
       <c r="E307" s="1" t="s">
-        <v>19</v>
+        <v>26</v>
       </c>
     </row>
     <row r="308" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A308" s="1" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="B308" s="1" t="s">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="C308" s="1" t="s">
         <v>16</v>
@@ -5712,15 +5719,15 @@
         <v>7</v>
       </c>
       <c r="E308" s="1" t="s">
-        <v>8</v>
+        <v>23</v>
       </c>
     </row>
     <row r="309" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A309" s="1" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="B309" s="1" t="s">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="C309" s="1" t="s">
         <v>16</v>
@@ -5729,15 +5736,15 @@
         <v>9</v>
       </c>
       <c r="E309" s="1" t="s">
-        <v>8</v>
+        <v>23</v>
       </c>
     </row>
     <row r="310" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A310" s="1" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="B310" s="1" t="s">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="C310" s="1" t="s">
         <v>16</v>
@@ -5746,15 +5753,15 @@
         <v>10</v>
       </c>
       <c r="E310" s="1" t="s">
-        <v>8</v>
+        <v>23</v>
       </c>
     </row>
     <row r="311" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A311" s="1" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="B311" s="1" t="s">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="C311" s="1" t="s">
         <v>16</v>
@@ -5763,15 +5770,15 @@
         <v>11</v>
       </c>
       <c r="E311" s="1" t="s">
-        <v>8</v>
+        <v>23</v>
       </c>
     </row>
     <row r="312" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A312" s="1" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="B312" s="1" t="s">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="C312" s="1" t="s">
         <v>16</v>
@@ -5780,15 +5787,15 @@
         <v>12</v>
       </c>
       <c r="E312" s="1" t="s">
-        <v>8</v>
+        <v>23</v>
       </c>
     </row>
     <row r="313" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A313" s="1" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="B313" s="1" t="s">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="C313" s="1" t="s">
         <v>16</v>
@@ -5797,15 +5804,15 @@
         <v>13</v>
       </c>
       <c r="E313" s="1" t="s">
-        <v>8</v>
+        <v>23</v>
       </c>
     </row>
     <row r="314" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A314" s="1" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="B314" s="1" t="s">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="C314" s="1" t="s">
         <v>6</v>
@@ -5814,15 +5821,15 @@
         <v>7</v>
       </c>
       <c r="E314" s="1" t="s">
-        <v>8</v>
+        <v>23</v>
       </c>
     </row>
     <row r="315" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A315" s="1" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="B315" s="1" t="s">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="C315" s="1" t="s">
         <v>6</v>
@@ -5831,15 +5838,15 @@
         <v>9</v>
       </c>
       <c r="E315" s="1" t="s">
-        <v>9</v>
+        <v>25</v>
       </c>
     </row>
     <row r="316" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A316" s="1" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="B316" s="1" t="s">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="C316" s="1" t="s">
         <v>6</v>
@@ -5848,15 +5855,15 @@
         <v>10</v>
       </c>
       <c r="E316" s="1" t="s">
-        <v>8</v>
+        <v>23</v>
       </c>
     </row>
     <row r="317" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A317" s="1" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="B317" s="1" t="s">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="C317" s="1" t="s">
         <v>6</v>
@@ -5865,15 +5872,15 @@
         <v>11</v>
       </c>
       <c r="E317" s="1" t="s">
-        <v>17</v>
+        <v>28</v>
       </c>
     </row>
     <row r="318" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A318" s="1" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="B318" s="1" t="s">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="C318" s="1" t="s">
         <v>6</v>
@@ -5882,15 +5889,15 @@
         <v>12</v>
       </c>
       <c r="E318" s="1" t="s">
-        <v>19</v>
+        <v>26</v>
       </c>
     </row>
     <row r="319" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A319" s="1" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="B319" s="1" t="s">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="C319" s="1" t="s">
         <v>6</v>
@@ -5899,15 +5906,15 @@
         <v>13</v>
       </c>
       <c r="E319" s="1" t="s">
-        <v>20</v>
+        <v>24</v>
       </c>
     </row>
     <row r="320" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A320" s="1" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="B320" s="1" t="s">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="C320" s="1" t="s">
         <v>14</v>
@@ -5916,15 +5923,15 @@
         <v>7</v>
       </c>
       <c r="E320" s="1" t="s">
-        <v>8</v>
+        <v>23</v>
       </c>
     </row>
     <row r="321" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A321" s="1" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="B321" s="1" t="s">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="C321" s="1" t="s">
         <v>14</v>
@@ -5933,15 +5940,15 @@
         <v>9</v>
       </c>
       <c r="E321" s="1" t="s">
-        <v>19</v>
+        <v>26</v>
       </c>
     </row>
     <row r="322" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A322" s="1" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="B322" s="1" t="s">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="C322" s="1" t="s">
         <v>14</v>
@@ -5950,15 +5957,15 @@
         <v>10</v>
       </c>
       <c r="E322" s="1" t="s">
-        <v>8</v>
+        <v>23</v>
       </c>
     </row>
     <row r="323" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A323" s="1" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="B323" s="1" t="s">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="C323" s="1" t="s">
         <v>14</v>
@@ -5967,15 +5974,15 @@
         <v>11</v>
       </c>
       <c r="E323" s="1" t="s">
-        <v>8</v>
+        <v>23</v>
       </c>
     </row>
     <row r="324" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A324" s="1" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="B324" s="1" t="s">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="C324" s="1" t="s">
         <v>14</v>
@@ -5984,15 +5991,15 @@
         <v>12</v>
       </c>
       <c r="E324" s="1" t="s">
-        <v>20</v>
+        <v>24</v>
       </c>
     </row>
     <row r="325" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A325" s="1" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="B325" s="1" t="s">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="C325" s="1" t="s">
         <v>14</v>
@@ -6001,15 +6008,15 @@
         <v>13</v>
       </c>
       <c r="E325" s="1" t="s">
-        <v>17</v>
+        <v>28</v>
       </c>
     </row>
     <row r="326" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A326" s="1" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="B326" s="1" t="s">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="C326" s="1" t="s">
         <v>15</v>
@@ -6018,15 +6025,15 @@
         <v>7</v>
       </c>
       <c r="E326" s="1" t="s">
-        <v>8</v>
+        <v>23</v>
       </c>
     </row>
     <row r="327" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A327" s="1" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="B327" s="1" t="s">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="C327" s="1" t="s">
         <v>15</v>
@@ -6035,15 +6042,15 @@
         <v>9</v>
       </c>
       <c r="E327" s="1" t="s">
-        <v>9</v>
+        <v>25</v>
       </c>
     </row>
     <row r="328" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A328" s="1" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="B328" s="1" t="s">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="C328" s="1" t="s">
         <v>15</v>
@@ -6052,15 +6059,15 @@
         <v>10</v>
       </c>
       <c r="E328" s="1" t="s">
-        <v>8</v>
+        <v>23</v>
       </c>
     </row>
     <row r="329" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A329" s="1" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="B329" s="1" t="s">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="C329" s="1" t="s">
         <v>15</v>
@@ -6069,15 +6076,15 @@
         <v>11</v>
       </c>
       <c r="E329" s="1" t="s">
-        <v>20</v>
+        <v>24</v>
       </c>
     </row>
     <row r="330" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A330" s="1" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="B330" s="1" t="s">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="C330" s="1" t="s">
         <v>15</v>
@@ -6086,15 +6093,15 @@
         <v>12</v>
       </c>
       <c r="E330" s="1" t="s">
-        <v>19</v>
+        <v>26</v>
       </c>
     </row>
     <row r="331" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A331" s="1" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="B331" s="1" t="s">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="C331" s="1" t="s">
         <v>15</v>
@@ -6103,15 +6110,15 @@
         <v>13</v>
       </c>
       <c r="E331" s="1" t="s">
-        <v>20</v>
+        <v>24</v>
       </c>
     </row>
     <row r="332" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A332" s="1" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="B332" s="1" t="s">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="C332" s="1" t="s">
         <v>16</v>
@@ -6120,15 +6127,15 @@
         <v>7</v>
       </c>
       <c r="E332" s="1" t="s">
-        <v>8</v>
+        <v>23</v>
       </c>
     </row>
     <row r="333" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A333" s="1" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="B333" s="1" t="s">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="C333" s="1" t="s">
         <v>16</v>
@@ -6137,15 +6144,15 @@
         <v>9</v>
       </c>
       <c r="E333" s="1" t="s">
-        <v>8</v>
+        <v>23</v>
       </c>
     </row>
     <row r="334" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A334" s="1" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="B334" s="1" t="s">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="C334" s="1" t="s">
         <v>16</v>
@@ -6154,15 +6161,15 @@
         <v>10</v>
       </c>
       <c r="E334" s="1" t="s">
-        <v>8</v>
+        <v>23</v>
       </c>
     </row>
     <row r="335" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A335" s="1" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="B335" s="1" t="s">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="C335" s="1" t="s">
         <v>16</v>
@@ -6171,15 +6178,15 @@
         <v>11</v>
       </c>
       <c r="E335" s="1" t="s">
-        <v>8</v>
+        <v>23</v>
       </c>
     </row>
     <row r="336" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A336" s="1" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="B336" s="1" t="s">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="C336" s="1" t="s">
         <v>16</v>
@@ -6188,15 +6195,15 @@
         <v>12</v>
       </c>
       <c r="E336" s="1" t="s">
-        <v>8</v>
+        <v>23</v>
       </c>
     </row>
     <row r="337" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A337" s="1" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="B337" s="1" t="s">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="C337" s="1" t="s">
         <v>16</v>
@@ -6205,15 +6212,15 @@
         <v>13</v>
       </c>
       <c r="E337" s="1" t="s">
-        <v>8</v>
+        <v>23</v>
       </c>
     </row>
     <row r="338" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A338" s="1" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="B338" s="1" t="s">
-        <v>23</v>
+        <v>19</v>
       </c>
       <c r="C338" s="1" t="s">
         <v>6</v>
@@ -6222,15 +6229,15 @@
         <v>7</v>
       </c>
       <c r="E338" s="1" t="s">
-        <v>8</v>
+        <v>23</v>
       </c>
     </row>
     <row r="339" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A339" s="1" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="B339" s="1" t="s">
-        <v>23</v>
+        <v>19</v>
       </c>
       <c r="C339" s="1" t="s">
         <v>6</v>
@@ -6239,15 +6246,15 @@
         <v>9</v>
       </c>
       <c r="E339" s="1" t="s">
-        <v>8</v>
+        <v>23</v>
       </c>
     </row>
     <row r="340" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A340" s="1" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="B340" s="1" t="s">
-        <v>23</v>
+        <v>19</v>
       </c>
       <c r="C340" s="1" t="s">
         <v>6</v>
@@ -6256,15 +6263,15 @@
         <v>10</v>
       </c>
       <c r="E340" s="1" t="s">
-        <v>8</v>
+        <v>23</v>
       </c>
     </row>
     <row r="341" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A341" s="1" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="B341" s="1" t="s">
-        <v>23</v>
+        <v>19</v>
       </c>
       <c r="C341" s="1" t="s">
         <v>6</v>
@@ -6273,15 +6280,15 @@
         <v>11</v>
       </c>
       <c r="E341" s="1" t="s">
-        <v>8</v>
+        <v>23</v>
       </c>
     </row>
     <row r="342" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A342" s="1" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="B342" s="1" t="s">
-        <v>23</v>
+        <v>19</v>
       </c>
       <c r="C342" s="1" t="s">
         <v>6</v>
@@ -6290,15 +6297,15 @@
         <v>12</v>
       </c>
       <c r="E342" s="1" t="s">
-        <v>8</v>
+        <v>23</v>
       </c>
     </row>
     <row r="343" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A343" s="1" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="B343" s="1" t="s">
-        <v>23</v>
+        <v>19</v>
       </c>
       <c r="C343" s="1" t="s">
         <v>6</v>
@@ -6307,15 +6314,15 @@
         <v>13</v>
       </c>
       <c r="E343" s="1" t="s">
-        <v>8</v>
+        <v>23</v>
       </c>
     </row>
     <row r="344" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A344" s="1" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="B344" s="1" t="s">
-        <v>23</v>
+        <v>19</v>
       </c>
       <c r="C344" s="1" t="s">
         <v>14</v>
@@ -6324,15 +6331,15 @@
         <v>7</v>
       </c>
       <c r="E344" s="1" t="s">
-        <v>8</v>
+        <v>23</v>
       </c>
     </row>
     <row r="345" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A345" s="1" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="B345" s="1" t="s">
-        <v>23</v>
+        <v>19</v>
       </c>
       <c r="C345" s="1" t="s">
         <v>14</v>
@@ -6341,15 +6348,15 @@
         <v>9</v>
       </c>
       <c r="E345" s="1" t="s">
-        <v>8</v>
+        <v>23</v>
       </c>
     </row>
     <row r="346" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A346" s="1" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="B346" s="1" t="s">
-        <v>23</v>
+        <v>19</v>
       </c>
       <c r="C346" s="1" t="s">
         <v>14</v>
@@ -6358,15 +6365,15 @@
         <v>10</v>
       </c>
       <c r="E346" s="1" t="s">
-        <v>8</v>
+        <v>23</v>
       </c>
     </row>
     <row r="347" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A347" s="1" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="B347" s="1" t="s">
-        <v>23</v>
+        <v>19</v>
       </c>
       <c r="C347" s="1" t="s">
         <v>14</v>
@@ -6375,15 +6382,15 @@
         <v>11</v>
       </c>
       <c r="E347" s="1" t="s">
-        <v>8</v>
+        <v>23</v>
       </c>
     </row>
     <row r="348" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A348" s="1" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="B348" s="1" t="s">
-        <v>23</v>
+        <v>19</v>
       </c>
       <c r="C348" s="1" t="s">
         <v>14</v>
@@ -6392,15 +6399,15 @@
         <v>12</v>
       </c>
       <c r="E348" s="1" t="s">
-        <v>8</v>
+        <v>23</v>
       </c>
     </row>
     <row r="349" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A349" s="1" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="B349" s="1" t="s">
-        <v>23</v>
+        <v>19</v>
       </c>
       <c r="C349" s="1" t="s">
         <v>14</v>
@@ -6409,15 +6416,15 @@
         <v>13</v>
       </c>
       <c r="E349" s="1" t="s">
-        <v>8</v>
+        <v>23</v>
       </c>
     </row>
     <row r="350" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A350" s="1" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="B350" s="1" t="s">
-        <v>23</v>
+        <v>19</v>
       </c>
       <c r="C350" s="1" t="s">
         <v>15</v>
@@ -6426,15 +6433,15 @@
         <v>7</v>
       </c>
       <c r="E350" s="1" t="s">
-        <v>8</v>
+        <v>23</v>
       </c>
     </row>
     <row r="351" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A351" s="1" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="B351" s="1" t="s">
-        <v>23</v>
+        <v>19</v>
       </c>
       <c r="C351" s="1" t="s">
         <v>15</v>
@@ -6443,15 +6450,15 @@
         <v>9</v>
       </c>
       <c r="E351" s="1" t="s">
-        <v>8</v>
+        <v>23</v>
       </c>
     </row>
     <row r="352" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A352" s="1" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="B352" s="1" t="s">
-        <v>23</v>
+        <v>19</v>
       </c>
       <c r="C352" s="1" t="s">
         <v>15</v>
@@ -6460,15 +6467,15 @@
         <v>10</v>
       </c>
       <c r="E352" s="1" t="s">
-        <v>8</v>
+        <v>23</v>
       </c>
     </row>
     <row r="353" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A353" s="1" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="B353" s="1" t="s">
-        <v>23</v>
+        <v>19</v>
       </c>
       <c r="C353" s="1" t="s">
         <v>15</v>
@@ -6477,15 +6484,15 @@
         <v>11</v>
       </c>
       <c r="E353" s="1" t="s">
-        <v>8</v>
+        <v>23</v>
       </c>
     </row>
     <row r="354" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A354" s="1" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="B354" s="1" t="s">
-        <v>23</v>
+        <v>19</v>
       </c>
       <c r="C354" s="1" t="s">
         <v>15</v>
@@ -6494,15 +6501,15 @@
         <v>12</v>
       </c>
       <c r="E354" s="1" t="s">
-        <v>8</v>
+        <v>23</v>
       </c>
     </row>
     <row r="355" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A355" s="1" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="B355" s="1" t="s">
-        <v>23</v>
+        <v>19</v>
       </c>
       <c r="C355" s="1" t="s">
         <v>15</v>
@@ -6511,15 +6518,15 @@
         <v>13</v>
       </c>
       <c r="E355" s="1" t="s">
-        <v>8</v>
+        <v>23</v>
       </c>
     </row>
     <row r="356" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A356" s="1" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="B356" s="1" t="s">
-        <v>23</v>
+        <v>19</v>
       </c>
       <c r="C356" s="1" t="s">
         <v>16</v>
@@ -6528,15 +6535,15 @@
         <v>7</v>
       </c>
       <c r="E356" s="1" t="s">
-        <v>8</v>
+        <v>23</v>
       </c>
     </row>
     <row r="357" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A357" s="1" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="B357" s="1" t="s">
-        <v>23</v>
+        <v>19</v>
       </c>
       <c r="C357" s="1" t="s">
         <v>16</v>
@@ -6545,15 +6552,15 @@
         <v>9</v>
       </c>
       <c r="E357" s="1" t="s">
-        <v>8</v>
+        <v>23</v>
       </c>
     </row>
     <row r="358" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A358" s="1" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="B358" s="1" t="s">
-        <v>23</v>
+        <v>19</v>
       </c>
       <c r="C358" s="1" t="s">
         <v>16</v>
@@ -6562,15 +6569,15 @@
         <v>10</v>
       </c>
       <c r="E358" s="1" t="s">
-        <v>8</v>
+        <v>23</v>
       </c>
     </row>
     <row r="359" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A359" s="1" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="B359" s="1" t="s">
-        <v>23</v>
+        <v>19</v>
       </c>
       <c r="C359" s="1" t="s">
         <v>16</v>
@@ -6579,15 +6586,15 @@
         <v>11</v>
       </c>
       <c r="E359" s="1" t="s">
-        <v>8</v>
+        <v>23</v>
       </c>
     </row>
     <row r="360" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A360" s="1" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="B360" s="1" t="s">
-        <v>23</v>
+        <v>19</v>
       </c>
       <c r="C360" s="1" t="s">
         <v>16</v>
@@ -6596,15 +6603,15 @@
         <v>12</v>
       </c>
       <c r="E360" s="1" t="s">
-        <v>8</v>
+        <v>23</v>
       </c>
     </row>
     <row r="361" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A361" s="1" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="B361" s="1" t="s">
-        <v>23</v>
+        <v>19</v>
       </c>
       <c r="C361" s="1" t="s">
         <v>16</v>
@@ -6613,7 +6620,7 @@
         <v>13</v>
       </c>
       <c r="E361" s="1" t="s">
-        <v>8</v>
+        <v>23</v>
       </c>
     </row>
   </sheetData>
@@ -6627,7 +6634,7 @@
     <dataValidation type="list" allowBlank="1" showErrorMessage="1" sqref="C2:C361" xr:uid="{31FF69F3-9D2A-413F-B0A2-E4A0396A8C04}">
       <formula1>$E$2:$E$6</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showErrorMessage="1" sqref="E2:E361" xr:uid="{DEF0888E-8D49-4008-9873-108812207D7E}">
+    <dataValidation type="list" allowBlank="1" showErrorMessage="1" sqref="E2:E361" xr:uid="{54620D87-EB5F-4C60-BE55-3C1815A4E7EB}">
       <formula1>$G$2:$G$8</formula1>
     </dataValidation>
     <dataValidation type="list" allowBlank="1" showErrorMessage="1" sqref="A2:A361" xr:uid="{B797CBE4-1741-42C0-BCB2-A1FFF05D2C4C}">

--- a/src/comb_results.xlsx
+++ b/src/comb_results.xlsx
@@ -8,12 +8,12 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Joao\surfsimples\src\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E2630EE5-ECC9-4FE9-87F9-F3CE067F97A0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{87E33886-BD5F-4C2E-A54A-6A13B89FEC65}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="combinations" sheetId="1" r:id="rId1"/>
+    <sheet name="combinations" sheetId="2" r:id="rId1"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1805" uniqueCount="29">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1805" uniqueCount="30">
   <si>
     <t>VD</t>
   </si>
@@ -122,14 +122,17 @@
     <t>Clássico</t>
   </si>
   <si>
-    <t>Marolinha</t>
+    <t>Marola</t>
+  </si>
+  <si>
+    <t>Mexido</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -146,14 +149,6 @@
     <font>
       <b/>
       <sz val="10"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -179,13 +174,12 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -465,25 +459,22 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:J361"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7B522A3D-D85A-4056-8029-D993229FA5A5}">
+  <dimension ref="A1:E361"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F5" sqref="F5"/>
+      <selection activeCell="J10" sqref="J10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
+    <col min="2" max="2" width="10.77734375" customWidth="1"/>
+    <col min="3" max="3" width="13.21875" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="23.109375" customWidth="1"/>
-    <col min="5" max="5" width="14" customWidth="1"/>
-    <col min="7" max="7" width="7.44140625" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="10.33203125" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="13.6640625" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="22.21875" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="13.6640625" customWidth="1"/>
+    <col min="5" max="5" width="12.109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -500,80 +491,80 @@
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
         <v>20</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>6</v>
+        <v>14</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>7</v>
+        <v>13</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.3">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A3" s="1" t="s">
         <v>20</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>6</v>
+        <v>15</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.3">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A4" s="1" t="s">
         <v>20</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>5</v>
+        <v>17</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>6</v>
+        <v>14</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="E4" s="1" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.3">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A5" s="1" t="s">
         <v>20</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>5</v>
+        <v>17</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>6</v>
+        <v>15</v>
       </c>
       <c r="D5" s="1" t="s">
         <v>11</v>
       </c>
       <c r="E5" s="1" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.3">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A6" s="1" t="s">
         <v>20</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>5</v>
+        <v>18</v>
       </c>
       <c r="C6" s="1" t="s">
         <v>6</v>
@@ -582,16 +573,15 @@
         <v>12</v>
       </c>
       <c r="E6" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="G6" s="3"/>
-    </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.3">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A7" s="1" t="s">
         <v>20</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>5</v>
+        <v>18</v>
       </c>
       <c r="C7" s="1" t="s">
         <v>6</v>
@@ -600,102 +590,100 @@
         <v>13</v>
       </c>
       <c r="E7" s="1" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.3">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A8" s="1" t="s">
         <v>20</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>5</v>
+        <v>18</v>
       </c>
       <c r="C8" s="1" t="s">
         <v>14</v>
       </c>
       <c r="D8" s="1" t="s">
-        <v>7</v>
+        <v>12</v>
       </c>
       <c r="E8" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="H8" s="3"/>
-    </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.3">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A9" s="1" t="s">
         <v>20</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>5</v>
+        <v>18</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="D9" s="1" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="E9" s="1" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.3">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A10" s="1" t="s">
         <v>20</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>5</v>
+        <v>18</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="D10" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="E10" s="1" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A11" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="B11" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="C11" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="D11" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="E11" s="1" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A12" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="B12" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="C12" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D12" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="E10" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="J10" s="3"/>
-    </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A11" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="B11" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="C11" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="D11" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="E11" s="1" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A12" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="B12" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="C12" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="D12" s="1" t="s">
-        <v>12</v>
-      </c>
       <c r="E12" s="1" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="13" spans="1:10" x14ac:dyDescent="0.3">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A13" s="1" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>5</v>
+        <v>17</v>
       </c>
       <c r="C13" s="1" t="s">
         <v>14</v>
@@ -704,83 +692,83 @@
         <v>13</v>
       </c>
       <c r="E13" s="1" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="14" spans="1:10" x14ac:dyDescent="0.3">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A14" s="1" t="s">
         <v>20</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="C14" s="1" t="s">
-        <v>15</v>
+        <v>6</v>
       </c>
       <c r="D14" s="1" t="s">
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="E14" s="1" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="15" spans="1:10" x14ac:dyDescent="0.3">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A15" s="1" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>5</v>
+        <v>18</v>
       </c>
       <c r="C15" s="1" t="s">
-        <v>15</v>
+        <v>6</v>
       </c>
       <c r="D15" s="1" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="E15" s="1" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="16" spans="1:10" x14ac:dyDescent="0.3">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>5</v>
+        <v>18</v>
       </c>
       <c r="C16" s="1" t="s">
-        <v>15</v>
+        <v>6</v>
       </c>
       <c r="D16" s="1" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="E16" s="1" t="s">
-        <v>23</v>
+        <v>29</v>
       </c>
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A17" s="1" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>5</v>
+        <v>18</v>
       </c>
       <c r="C17" s="1" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="D17" s="1" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="E17" s="1" t="s">
-        <v>23</v>
+        <v>29</v>
       </c>
     </row>
     <row r="18" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A18" s="1" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>5</v>
+        <v>18</v>
       </c>
       <c r="C18" s="1" t="s">
         <v>15</v>
@@ -789,15 +777,15 @@
         <v>12</v>
       </c>
       <c r="E18" s="1" t="s">
-        <v>23</v>
+        <v>29</v>
       </c>
     </row>
     <row r="19" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A19" s="1" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="B19" s="1" t="s">
-        <v>5</v>
+        <v>18</v>
       </c>
       <c r="C19" s="1" t="s">
         <v>15</v>
@@ -806,41 +794,41 @@
         <v>13</v>
       </c>
       <c r="E19" s="1" t="s">
-        <v>23</v>
+        <v>29</v>
       </c>
     </row>
     <row r="20" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A20" s="1" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="B20" s="1" t="s">
         <v>5</v>
       </c>
       <c r="C20" s="1" t="s">
-        <v>16</v>
+        <v>6</v>
       </c>
       <c r="D20" s="1" t="s">
-        <v>7</v>
+        <v>13</v>
       </c>
       <c r="E20" s="1" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
     </row>
     <row r="21" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A21" s="1" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="B21" s="1" t="s">
         <v>5</v>
       </c>
       <c r="C21" s="1" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="D21" s="1" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="E21" s="1" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
     </row>
     <row r="22" spans="1:5" x14ac:dyDescent="0.3">
@@ -848,50 +836,50 @@
         <v>20</v>
       </c>
       <c r="B22" s="1" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="C22" s="1" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="D22" s="1" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E22" s="1" t="s">
-        <v>23</v>
+        <v>28</v>
       </c>
     </row>
     <row r="23" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A23" s="1" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="B23" s="1" t="s">
         <v>5</v>
       </c>
       <c r="C23" s="1" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D23" s="1" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="E23" s="1" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
     </row>
     <row r="24" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A24" s="1" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="B24" s="1" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="C24" s="1" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="D24" s="1" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="E24" s="1" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
     </row>
     <row r="25" spans="1:5" x14ac:dyDescent="0.3">
@@ -899,33 +887,33 @@
         <v>20</v>
       </c>
       <c r="B25" s="1" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="C25" s="1" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D25" s="1" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="E25" s="1" t="s">
-        <v>23</v>
+        <v>28</v>
       </c>
     </row>
     <row r="26" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A26" s="1" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="B26" s="1" t="s">
-        <v>8</v>
+        <v>17</v>
       </c>
       <c r="C26" s="1" t="s">
-        <v>6</v>
+        <v>14</v>
       </c>
       <c r="D26" s="1" t="s">
-        <v>7</v>
+        <v>13</v>
       </c>
       <c r="E26" s="1" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
     </row>
     <row r="27" spans="1:5" x14ac:dyDescent="0.3">
@@ -933,50 +921,50 @@
         <v>20</v>
       </c>
       <c r="B27" s="1" t="s">
-        <v>8</v>
+        <v>17</v>
       </c>
       <c r="C27" s="1" t="s">
         <v>6</v>
       </c>
       <c r="D27" s="1" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E27" s="1" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
     </row>
     <row r="28" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A28" s="1" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="B28" s="1" t="s">
-        <v>8</v>
+        <v>18</v>
       </c>
       <c r="C28" s="1" t="s">
         <v>6</v>
       </c>
       <c r="D28" s="1" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="E28" s="1" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
     </row>
     <row r="29" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A29" s="1" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="B29" s="1" t="s">
-        <v>8</v>
+        <v>18</v>
       </c>
       <c r="C29" s="1" t="s">
-        <v>6</v>
+        <v>14</v>
       </c>
       <c r="D29" s="1" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="E29" s="1" t="s">
-        <v>28</v>
+        <v>24</v>
       </c>
     </row>
     <row r="30" spans="1:5" x14ac:dyDescent="0.3">
@@ -984,33 +972,33 @@
         <v>20</v>
       </c>
       <c r="B30" s="1" t="s">
-        <v>8</v>
+        <v>17</v>
       </c>
       <c r="C30" s="1" t="s">
         <v>6</v>
       </c>
       <c r="D30" s="1" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="E30" s="1" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
     </row>
     <row r="31" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A31" s="1" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="B31" s="1" t="s">
-        <v>8</v>
+        <v>18</v>
       </c>
       <c r="C31" s="1" t="s">
-        <v>6</v>
+        <v>15</v>
       </c>
       <c r="D31" s="1" t="s">
         <v>13</v>
       </c>
       <c r="E31" s="1" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
     </row>
     <row r="32" spans="1:5" x14ac:dyDescent="0.3">
@@ -1018,16 +1006,16 @@
         <v>20</v>
       </c>
       <c r="B32" s="1" t="s">
-        <v>8</v>
+        <v>17</v>
       </c>
       <c r="C32" s="1" t="s">
         <v>14</v>
       </c>
       <c r="D32" s="1" t="s">
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="E32" s="1" t="s">
-        <v>23</v>
+        <v>28</v>
       </c>
     </row>
     <row r="33" spans="1:5" x14ac:dyDescent="0.3">
@@ -1035,16 +1023,16 @@
         <v>20</v>
       </c>
       <c r="B33" s="1" t="s">
-        <v>8</v>
+        <v>17</v>
       </c>
       <c r="C33" s="1" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="D33" s="1" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E33" s="1" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
     </row>
     <row r="34" spans="1:5" x14ac:dyDescent="0.3">
@@ -1052,16 +1040,16 @@
         <v>20</v>
       </c>
       <c r="B34" s="1" t="s">
-        <v>8</v>
+        <v>18</v>
       </c>
       <c r="C34" s="1" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="D34" s="1" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E34" s="1" t="s">
-        <v>23</v>
+        <v>28</v>
       </c>
     </row>
     <row r="35" spans="1:5" x14ac:dyDescent="0.3">
@@ -1069,16 +1057,16 @@
         <v>20</v>
       </c>
       <c r="B35" s="1" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="C35" s="1" t="s">
-        <v>14</v>
+        <v>6</v>
       </c>
       <c r="D35" s="1" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="E35" s="1" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
     </row>
     <row r="36" spans="1:5" x14ac:dyDescent="0.3">
@@ -1086,16 +1074,16 @@
         <v>20</v>
       </c>
       <c r="B36" s="1" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="C36" s="1" t="s">
-        <v>14</v>
+        <v>6</v>
       </c>
       <c r="D36" s="1" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="E36" s="1" t="s">
-        <v>26</v>
+        <v>29</v>
       </c>
     </row>
     <row r="37" spans="1:5" x14ac:dyDescent="0.3">
@@ -1103,16 +1091,16 @@
         <v>20</v>
       </c>
       <c r="B37" s="1" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="C37" s="1" t="s">
         <v>14</v>
       </c>
       <c r="D37" s="1" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="E37" s="1" t="s">
-        <v>24</v>
+        <v>29</v>
       </c>
     </row>
     <row r="38" spans="1:5" x14ac:dyDescent="0.3">
@@ -1120,16 +1108,16 @@
         <v>20</v>
       </c>
       <c r="B38" s="1" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="C38" s="1" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="D38" s="1" t="s">
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="E38" s="1" t="s">
-        <v>23</v>
+        <v>29</v>
       </c>
     </row>
     <row r="39" spans="1:5" x14ac:dyDescent="0.3">
@@ -1137,16 +1125,16 @@
         <v>20</v>
       </c>
       <c r="B39" s="1" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="C39" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D39" s="1" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E39" s="1" t="s">
-        <v>25</v>
+        <v>29</v>
       </c>
     </row>
     <row r="40" spans="1:5" x14ac:dyDescent="0.3">
@@ -1154,16 +1142,16 @@
         <v>20</v>
       </c>
       <c r="B40" s="1" t="s">
-        <v>8</v>
+        <v>18</v>
       </c>
       <c r="C40" s="1" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="D40" s="1" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="E40" s="1" t="s">
-        <v>28</v>
+        <v>24</v>
       </c>
     </row>
     <row r="41" spans="1:5" x14ac:dyDescent="0.3">
@@ -1171,7 +1159,7 @@
         <v>20</v>
       </c>
       <c r="B41" s="1" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="C41" s="1" t="s">
         <v>15</v>
@@ -1180,7 +1168,7 @@
         <v>11</v>
       </c>
       <c r="E41" s="1" t="s">
-        <v>24</v>
+        <v>29</v>
       </c>
     </row>
     <row r="42" spans="1:5" x14ac:dyDescent="0.3">
@@ -1188,16 +1176,16 @@
         <v>20</v>
       </c>
       <c r="B42" s="1" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="C42" s="1" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="D42" s="1" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="E42" s="1" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
     </row>
     <row r="43" spans="1:5" x14ac:dyDescent="0.3">
@@ -1205,16 +1193,16 @@
         <v>20</v>
       </c>
       <c r="B43" s="1" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="C43" s="1" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="D43" s="1" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="E43" s="1" t="s">
-        <v>26</v>
+        <v>29</v>
       </c>
     </row>
     <row r="44" spans="1:5" x14ac:dyDescent="0.3">
@@ -1225,10 +1213,10 @@
         <v>8</v>
       </c>
       <c r="C44" s="1" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="D44" s="1" t="s">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="E44" s="1" t="s">
         <v>23</v>
@@ -1245,7 +1233,7 @@
         <v>16</v>
       </c>
       <c r="D45" s="1" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E45" s="1" t="s">
         <v>23</v>
@@ -1262,7 +1250,7 @@
         <v>16</v>
       </c>
       <c r="D46" s="1" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E46" s="1" t="s">
         <v>23</v>
@@ -1273,13 +1261,13 @@
         <v>20</v>
       </c>
       <c r="B47" s="1" t="s">
-        <v>8</v>
+        <v>17</v>
       </c>
       <c r="C47" s="1" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="D47" s="1" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="E47" s="1" t="s">
         <v>23</v>
@@ -1290,13 +1278,13 @@
         <v>20</v>
       </c>
       <c r="B48" s="1" t="s">
-        <v>8</v>
+        <v>17</v>
       </c>
       <c r="C48" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D48" s="1" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="E48" s="1" t="s">
         <v>23</v>
@@ -1307,13 +1295,13 @@
         <v>20</v>
       </c>
       <c r="B49" s="1" t="s">
-        <v>8</v>
+        <v>17</v>
       </c>
       <c r="C49" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D49" s="1" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="E49" s="1" t="s">
         <v>23</v>
@@ -1321,19 +1309,19 @@
     </row>
     <row r="50" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A50" s="1" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="B50" s="1" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="C50" s="1" t="s">
-        <v>6</v>
+        <v>14</v>
       </c>
       <c r="D50" s="1" t="s">
-        <v>7</v>
+        <v>13</v>
       </c>
       <c r="E50" s="1" t="s">
-        <v>23</v>
+        <v>29</v>
       </c>
     </row>
     <row r="51" spans="1:5" x14ac:dyDescent="0.3">
@@ -1341,16 +1329,16 @@
         <v>20</v>
       </c>
       <c r="B51" s="1" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="C51" s="1" t="s">
         <v>6</v>
       </c>
       <c r="D51" s="1" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E51" s="1" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
     </row>
     <row r="52" spans="1:5" x14ac:dyDescent="0.3">
@@ -1358,33 +1346,33 @@
         <v>20</v>
       </c>
       <c r="B52" s="1" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="C52" s="1" t="s">
         <v>6</v>
       </c>
       <c r="D52" s="1" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E52" s="1" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
     </row>
     <row r="53" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A53" s="1" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="B53" s="1" t="s">
-        <v>17</v>
+        <v>5</v>
       </c>
       <c r="C53" s="1" t="s">
-        <v>6</v>
+        <v>14</v>
       </c>
       <c r="D53" s="1" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="E53" s="1" t="s">
-        <v>28</v>
+        <v>24</v>
       </c>
     </row>
     <row r="54" spans="1:5" x14ac:dyDescent="0.3">
@@ -1392,16 +1380,16 @@
         <v>20</v>
       </c>
       <c r="B54" s="1" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="C54" s="1" t="s">
-        <v>6</v>
+        <v>14</v>
       </c>
       <c r="D54" s="1" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="E54" s="1" t="s">
-        <v>27</v>
+        <v>23</v>
       </c>
     </row>
     <row r="55" spans="1:5" x14ac:dyDescent="0.3">
@@ -1409,16 +1397,16 @@
         <v>20</v>
       </c>
       <c r="B55" s="1" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="C55" s="1" t="s">
-        <v>6</v>
+        <v>14</v>
       </c>
       <c r="D55" s="1" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="E55" s="1" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
     </row>
     <row r="56" spans="1:5" x14ac:dyDescent="0.3">
@@ -1426,13 +1414,13 @@
         <v>20</v>
       </c>
       <c r="B56" s="1" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="C56" s="1" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="D56" s="1" t="s">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="E56" s="1" t="s">
         <v>23</v>
@@ -1443,16 +1431,16 @@
         <v>20</v>
       </c>
       <c r="B57" s="1" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="C57" s="1" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="D57" s="1" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E57" s="1" t="s">
-        <v>27</v>
+        <v>23</v>
       </c>
     </row>
     <row r="58" spans="1:5" x14ac:dyDescent="0.3">
@@ -1460,13 +1448,13 @@
         <v>20</v>
       </c>
       <c r="B58" s="1" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="C58" s="1" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="D58" s="1" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E58" s="1" t="s">
         <v>23</v>
@@ -1477,16 +1465,16 @@
         <v>20</v>
       </c>
       <c r="B59" s="1" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="C59" s="1" t="s">
-        <v>14</v>
+        <v>6</v>
       </c>
       <c r="D59" s="1" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="E59" s="1" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
     </row>
     <row r="60" spans="1:5" x14ac:dyDescent="0.3">
@@ -1494,16 +1482,16 @@
         <v>20</v>
       </c>
       <c r="B60" s="1" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="C60" s="1" t="s">
-        <v>14</v>
+        <v>6</v>
       </c>
       <c r="D60" s="1" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="E60" s="1" t="s">
-        <v>26</v>
+        <v>29</v>
       </c>
     </row>
     <row r="61" spans="1:5" x14ac:dyDescent="0.3">
@@ -1511,16 +1499,16 @@
         <v>20</v>
       </c>
       <c r="B61" s="1" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="C61" s="1" t="s">
         <v>14</v>
       </c>
       <c r="D61" s="1" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="E61" s="1" t="s">
-        <v>24</v>
+        <v>29</v>
       </c>
     </row>
     <row r="62" spans="1:5" x14ac:dyDescent="0.3">
@@ -1528,33 +1516,33 @@
         <v>20</v>
       </c>
       <c r="B62" s="1" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="C62" s="1" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="D62" s="1" t="s">
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="E62" s="1" t="s">
-        <v>23</v>
+        <v>29</v>
       </c>
     </row>
     <row r="63" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A63" s="1" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="B63" s="1" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="C63" s="1" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="D63" s="1" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="E63" s="1" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
     <row r="64" spans="1:5" x14ac:dyDescent="0.3">
@@ -1562,16 +1550,16 @@
         <v>20</v>
       </c>
       <c r="B64" s="1" t="s">
-        <v>17</v>
+        <v>8</v>
       </c>
       <c r="C64" s="1" t="s">
-        <v>15</v>
+        <v>6</v>
       </c>
       <c r="D64" s="1" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="E64" s="1" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
     </row>
     <row r="65" spans="1:5" x14ac:dyDescent="0.3">
@@ -1579,16 +1567,16 @@
         <v>20</v>
       </c>
       <c r="B65" s="1" t="s">
-        <v>17</v>
+        <v>8</v>
       </c>
       <c r="C65" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D65" s="1" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="E65" s="1" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
     </row>
     <row r="66" spans="1:5" x14ac:dyDescent="0.3">
@@ -1599,13 +1587,13 @@
         <v>17</v>
       </c>
       <c r="C66" s="1" t="s">
-        <v>15</v>
+        <v>6</v>
       </c>
       <c r="D66" s="1" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="E66" s="1" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
     </row>
     <row r="67" spans="1:5" x14ac:dyDescent="0.3">
@@ -1619,151 +1607,151 @@
         <v>15</v>
       </c>
       <c r="D67" s="1" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="E67" s="1" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
     </row>
     <row r="68" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A68" s="1" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="B68" s="1" t="s">
-        <v>17</v>
+        <v>8</v>
       </c>
       <c r="C68" s="1" t="s">
-        <v>16</v>
+        <v>6</v>
       </c>
       <c r="D68" s="1" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="E68" s="1" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
     </row>
     <row r="69" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A69" s="1" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="B69" s="1" t="s">
-        <v>17</v>
+        <v>8</v>
       </c>
       <c r="C69" s="1" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D69" s="1" t="s">
         <v>9</v>
       </c>
       <c r="E69" s="1" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
     </row>
     <row r="70" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A70" s="1" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="B70" s="1" t="s">
         <v>17</v>
       </c>
       <c r="C70" s="1" t="s">
-        <v>16</v>
+        <v>6</v>
       </c>
       <c r="D70" s="1" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="E70" s="1" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
     </row>
     <row r="71" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A71" s="1" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="B71" s="1" t="s">
         <v>17</v>
       </c>
       <c r="C71" s="1" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D71" s="1" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="E71" s="1" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
     </row>
     <row r="72" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A72" s="1" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="B72" s="1" t="s">
-        <v>17</v>
+        <v>8</v>
       </c>
       <c r="C72" s="1" t="s">
-        <v>16</v>
+        <v>6</v>
       </c>
       <c r="D72" s="1" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="E72" s="1" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
     </row>
     <row r="73" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A73" s="1" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="B73" s="1" t="s">
-        <v>17</v>
+        <v>8</v>
       </c>
       <c r="C73" s="1" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D73" s="1" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="E73" s="1" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
     </row>
     <row r="74" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A74" s="1" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="B74" s="1" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C74" s="1" t="s">
         <v>6</v>
       </c>
       <c r="D74" s="1" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="E74" s="1" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
     </row>
     <row r="75" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A75" s="1" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="B75" s="1" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C75" s="1" t="s">
-        <v>6</v>
+        <v>15</v>
       </c>
       <c r="D75" s="1" t="s">
         <v>9</v>
       </c>
       <c r="E75" s="1" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
     </row>
     <row r="76" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A76" s="1" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="B76" s="1" t="s">
         <v>18</v>
@@ -1772,27 +1760,27 @@
         <v>6</v>
       </c>
       <c r="D76" s="1" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="E76" s="1" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
     </row>
     <row r="77" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A77" s="1" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="B77" s="1" t="s">
         <v>18</v>
       </c>
       <c r="C77" s="1" t="s">
-        <v>6</v>
+        <v>15</v>
       </c>
       <c r="D77" s="1" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="E77" s="1" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
     </row>
     <row r="78" spans="1:5" x14ac:dyDescent="0.3">
@@ -1800,16 +1788,16 @@
         <v>20</v>
       </c>
       <c r="B78" s="1" t="s">
-        <v>18</v>
+        <v>5</v>
       </c>
       <c r="C78" s="1" t="s">
         <v>6</v>
       </c>
       <c r="D78" s="1" t="s">
-        <v>12</v>
+        <v>7</v>
       </c>
       <c r="E78" s="1" t="s">
-        <v>24</v>
+        <v>29</v>
       </c>
     </row>
     <row r="79" spans="1:5" x14ac:dyDescent="0.3">
@@ -1817,16 +1805,16 @@
         <v>20</v>
       </c>
       <c r="B79" s="1" t="s">
-        <v>18</v>
+        <v>5</v>
       </c>
       <c r="C79" s="1" t="s">
         <v>6</v>
       </c>
       <c r="D79" s="1" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="E79" s="1" t="s">
-        <v>24</v>
+        <v>29</v>
       </c>
     </row>
     <row r="80" spans="1:5" x14ac:dyDescent="0.3">
@@ -1834,16 +1822,16 @@
         <v>20</v>
       </c>
       <c r="B80" s="1" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="C80" s="1" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="D80" s="1" t="s">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="E80" s="1" t="s">
-        <v>23</v>
+        <v>29</v>
       </c>
     </row>
     <row r="81" spans="1:5" x14ac:dyDescent="0.3">
@@ -1851,16 +1839,16 @@
         <v>20</v>
       </c>
       <c r="B81" s="1" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="C81" s="1" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="D81" s="1" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="E81" s="1" t="s">
-        <v>23</v>
+        <v>29</v>
       </c>
     </row>
     <row r="82" spans="1:5" x14ac:dyDescent="0.3">
@@ -1868,16 +1856,16 @@
         <v>20</v>
       </c>
       <c r="B82" s="1" t="s">
-        <v>18</v>
+        <v>5</v>
       </c>
       <c r="C82" s="1" t="s">
-        <v>14</v>
+        <v>6</v>
       </c>
       <c r="D82" s="1" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="E82" s="1" t="s">
-        <v>23</v>
+        <v>29</v>
       </c>
     </row>
     <row r="83" spans="1:5" x14ac:dyDescent="0.3">
@@ -1885,16 +1873,16 @@
         <v>20</v>
       </c>
       <c r="B83" s="1" t="s">
-        <v>18</v>
+        <v>5</v>
       </c>
       <c r="C83" s="1" t="s">
-        <v>14</v>
+        <v>6</v>
       </c>
       <c r="D83" s="1" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="E83" s="1" t="s">
-        <v>23</v>
+        <v>29</v>
       </c>
     </row>
     <row r="84" spans="1:5" x14ac:dyDescent="0.3">
@@ -1902,16 +1890,16 @@
         <v>20</v>
       </c>
       <c r="B84" s="1" t="s">
-        <v>18</v>
+        <v>5</v>
       </c>
       <c r="C84" s="1" t="s">
         <v>14</v>
       </c>
       <c r="D84" s="1" t="s">
-        <v>12</v>
+        <v>7</v>
       </c>
       <c r="E84" s="1" t="s">
-        <v>24</v>
+        <v>29</v>
       </c>
     </row>
     <row r="85" spans="1:5" x14ac:dyDescent="0.3">
@@ -1919,16 +1907,16 @@
         <v>20</v>
       </c>
       <c r="B85" s="1" t="s">
-        <v>18</v>
+        <v>5</v>
       </c>
       <c r="C85" s="1" t="s">
         <v>14</v>
       </c>
       <c r="D85" s="1" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="E85" s="1" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
     </row>
     <row r="86" spans="1:5" x14ac:dyDescent="0.3">
@@ -1936,16 +1924,16 @@
         <v>20</v>
       </c>
       <c r="B86" s="1" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="C86" s="1" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="D86" s="1" t="s">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="E86" s="1" t="s">
-        <v>23</v>
+        <v>29</v>
       </c>
     </row>
     <row r="87" spans="1:5" x14ac:dyDescent="0.3">
@@ -1953,16 +1941,16 @@
         <v>20</v>
       </c>
       <c r="B87" s="1" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="C87" s="1" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="D87" s="1" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="E87" s="1" t="s">
-        <v>23</v>
+        <v>29</v>
       </c>
     </row>
     <row r="88" spans="1:5" x14ac:dyDescent="0.3">
@@ -1970,16 +1958,16 @@
         <v>20</v>
       </c>
       <c r="B88" s="1" t="s">
-        <v>18</v>
+        <v>5</v>
       </c>
       <c r="C88" s="1" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="D88" s="1" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="E88" s="1" t="s">
-        <v>23</v>
+        <v>29</v>
       </c>
     </row>
     <row r="89" spans="1:5" x14ac:dyDescent="0.3">
@@ -1987,16 +1975,16 @@
         <v>20</v>
       </c>
       <c r="B89" s="1" t="s">
-        <v>18</v>
+        <v>5</v>
       </c>
       <c r="C89" s="1" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="D89" s="1" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="E89" s="1" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
     </row>
     <row r="90" spans="1:5" x14ac:dyDescent="0.3">
@@ -2004,16 +1992,16 @@
         <v>20</v>
       </c>
       <c r="B90" s="1" t="s">
-        <v>18</v>
+        <v>5</v>
       </c>
       <c r="C90" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D90" s="1" t="s">
-        <v>12</v>
+        <v>7</v>
       </c>
       <c r="E90" s="1" t="s">
-        <v>24</v>
+        <v>29</v>
       </c>
     </row>
     <row r="91" spans="1:5" x14ac:dyDescent="0.3">
@@ -2021,50 +2009,50 @@
         <v>20</v>
       </c>
       <c r="B91" s="1" t="s">
-        <v>18</v>
+        <v>5</v>
       </c>
       <c r="C91" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D91" s="1" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="E91" s="1" t="s">
-        <v>24</v>
+        <v>29</v>
       </c>
     </row>
     <row r="92" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A92" s="1" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="B92" s="1" t="s">
-        <v>18</v>
+        <v>8</v>
       </c>
       <c r="C92" s="1" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D92" s="1" t="s">
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="E92" s="1" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
     </row>
     <row r="93" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A93" s="1" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="B93" s="1" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C93" s="1" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D93" s="1" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="E93" s="1" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
     </row>
     <row r="94" spans="1:5" x14ac:dyDescent="0.3">
@@ -2072,16 +2060,16 @@
         <v>20</v>
       </c>
       <c r="B94" s="1" t="s">
-        <v>18</v>
+        <v>5</v>
       </c>
       <c r="C94" s="1" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D94" s="1" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="E94" s="1" t="s">
-        <v>23</v>
+        <v>29</v>
       </c>
     </row>
     <row r="95" spans="1:5" x14ac:dyDescent="0.3">
@@ -2089,16 +2077,16 @@
         <v>20</v>
       </c>
       <c r="B95" s="1" t="s">
-        <v>18</v>
+        <v>5</v>
       </c>
       <c r="C95" s="1" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D95" s="1" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="E95" s="1" t="s">
-        <v>23</v>
+        <v>29</v>
       </c>
     </row>
     <row r="96" spans="1:5" x14ac:dyDescent="0.3">
@@ -2106,16 +2094,16 @@
         <v>20</v>
       </c>
       <c r="B96" s="1" t="s">
-        <v>18</v>
+        <v>5</v>
       </c>
       <c r="C96" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D96" s="1" t="s">
-        <v>12</v>
+        <v>7</v>
       </c>
       <c r="E96" s="1" t="s">
-        <v>23</v>
+        <v>29</v>
       </c>
     </row>
     <row r="97" spans="1:5" x14ac:dyDescent="0.3">
@@ -2123,50 +2111,50 @@
         <v>20</v>
       </c>
       <c r="B97" s="1" t="s">
-        <v>18</v>
+        <v>5</v>
       </c>
       <c r="C97" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D97" s="1" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="E97" s="1" t="s">
-        <v>23</v>
+        <v>29</v>
       </c>
     </row>
     <row r="98" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A98" s="1" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="B98" s="1" t="s">
-        <v>19</v>
+        <v>8</v>
       </c>
       <c r="C98" s="1" t="s">
         <v>6</v>
       </c>
       <c r="D98" s="1" t="s">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="E98" s="1" t="s">
-        <v>23</v>
+        <v>28</v>
       </c>
     </row>
     <row r="99" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A99" s="1" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="B99" s="1" t="s">
-        <v>19</v>
+        <v>8</v>
       </c>
       <c r="C99" s="1" t="s">
         <v>6</v>
       </c>
       <c r="D99" s="1" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="E99" s="1" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
     </row>
     <row r="100" spans="1:5" x14ac:dyDescent="0.3">
@@ -2174,16 +2162,16 @@
         <v>20</v>
       </c>
       <c r="B100" s="1" t="s">
-        <v>19</v>
+        <v>5</v>
       </c>
       <c r="C100" s="1" t="s">
-        <v>6</v>
+        <v>16</v>
       </c>
       <c r="D100" s="1" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="E100" s="1" t="s">
-        <v>23</v>
+        <v>29</v>
       </c>
     </row>
     <row r="101" spans="1:5" x14ac:dyDescent="0.3">
@@ -2191,16 +2179,16 @@
         <v>20</v>
       </c>
       <c r="B101" s="1" t="s">
-        <v>19</v>
+        <v>5</v>
       </c>
       <c r="C101" s="1" t="s">
-        <v>6</v>
+        <v>16</v>
       </c>
       <c r="D101" s="1" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="E101" s="1" t="s">
-        <v>23</v>
+        <v>29</v>
       </c>
     </row>
     <row r="102" spans="1:5" x14ac:dyDescent="0.3">
@@ -2208,13 +2196,13 @@
         <v>20</v>
       </c>
       <c r="B102" s="1" t="s">
-        <v>19</v>
+        <v>8</v>
       </c>
       <c r="C102" s="1" t="s">
         <v>6</v>
       </c>
       <c r="D102" s="1" t="s">
-        <v>12</v>
+        <v>7</v>
       </c>
       <c r="E102" s="1" t="s">
         <v>23</v>
@@ -2225,13 +2213,13 @@
         <v>20</v>
       </c>
       <c r="B103" s="1" t="s">
-        <v>19</v>
+        <v>8</v>
       </c>
       <c r="C103" s="1" t="s">
-        <v>6</v>
+        <v>14</v>
       </c>
       <c r="D103" s="1" t="s">
-        <v>13</v>
+        <v>7</v>
       </c>
       <c r="E103" s="1" t="s">
         <v>23</v>
@@ -2239,19 +2227,19 @@
     </row>
     <row r="104" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A104" s="1" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="B104" s="1" t="s">
-        <v>19</v>
+        <v>8</v>
       </c>
       <c r="C104" s="1" t="s">
         <v>14</v>
       </c>
       <c r="D104" s="1" t="s">
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="E104" s="1" t="s">
-        <v>23</v>
+        <v>28</v>
       </c>
     </row>
     <row r="105" spans="1:5" x14ac:dyDescent="0.3">
@@ -2259,13 +2247,13 @@
         <v>20</v>
       </c>
       <c r="B105" s="1" t="s">
-        <v>19</v>
+        <v>8</v>
       </c>
       <c r="C105" s="1" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="D105" s="1" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="E105" s="1" t="s">
         <v>23</v>
@@ -2276,13 +2264,13 @@
         <v>20</v>
       </c>
       <c r="B106" s="1" t="s">
-        <v>19</v>
+        <v>8</v>
       </c>
       <c r="C106" s="1" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="D106" s="1" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="E106" s="1" t="s">
         <v>23</v>
@@ -2293,13 +2281,13 @@
         <v>20</v>
       </c>
       <c r="B107" s="1" t="s">
-        <v>19</v>
+        <v>8</v>
       </c>
       <c r="C107" s="1" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="D107" s="1" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="E107" s="1" t="s">
         <v>23</v>
@@ -2307,36 +2295,36 @@
     </row>
     <row r="108" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A108" s="1" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="B108" s="1" t="s">
-        <v>19</v>
+        <v>8</v>
       </c>
       <c r="C108" s="1" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="D108" s="1" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="E108" s="1" t="s">
-        <v>23</v>
+        <v>28</v>
       </c>
     </row>
     <row r="109" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A109" s="1" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="B109" s="1" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="C109" s="1" t="s">
-        <v>14</v>
+        <v>6</v>
       </c>
       <c r="D109" s="1" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="E109" s="1" t="s">
-        <v>23</v>
+        <v>28</v>
       </c>
     </row>
     <row r="110" spans="1:5" x14ac:dyDescent="0.3">
@@ -2344,13 +2332,13 @@
         <v>20</v>
       </c>
       <c r="B110" s="1" t="s">
-        <v>19</v>
+        <v>8</v>
       </c>
       <c r="C110" s="1" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="D110" s="1" t="s">
-        <v>7</v>
+        <v>12</v>
       </c>
       <c r="E110" s="1" t="s">
         <v>23</v>
@@ -2361,13 +2349,13 @@
         <v>20</v>
       </c>
       <c r="B111" s="1" t="s">
-        <v>19</v>
+        <v>8</v>
       </c>
       <c r="C111" s="1" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="D111" s="1" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="E111" s="1" t="s">
         <v>23</v>
@@ -2378,13 +2366,13 @@
         <v>20</v>
       </c>
       <c r="B112" s="1" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="C112" s="1" t="s">
-        <v>15</v>
+        <v>6</v>
       </c>
       <c r="D112" s="1" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="E112" s="1" t="s">
         <v>23</v>
@@ -2395,13 +2383,13 @@
         <v>20</v>
       </c>
       <c r="B113" s="1" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="C113" s="1" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="D113" s="1" t="s">
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="E113" s="1" t="s">
         <v>23</v>
@@ -2409,19 +2397,19 @@
     </row>
     <row r="114" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A114" s="1" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="B114" s="1" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="C114" s="1" t="s">
-        <v>15</v>
+        <v>6</v>
       </c>
       <c r="D114" s="1" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="E114" s="1" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
     </row>
     <row r="115" spans="1:5" x14ac:dyDescent="0.3">
@@ -2429,13 +2417,13 @@
         <v>20</v>
       </c>
       <c r="B115" s="1" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="C115" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D115" s="1" t="s">
-        <v>13</v>
+        <v>7</v>
       </c>
       <c r="E115" s="1" t="s">
         <v>23</v>
@@ -2446,7 +2434,7 @@
         <v>20</v>
       </c>
       <c r="B116" s="1" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="C116" s="1" t="s">
         <v>16</v>
@@ -2463,7 +2451,7 @@
         <v>20</v>
       </c>
       <c r="B117" s="1" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="C117" s="1" t="s">
         <v>16</v>
@@ -2477,36 +2465,36 @@
     </row>
     <row r="118" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A118" s="1" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="B118" s="1" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="C118" s="1" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="D118" s="1" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E118" s="1" t="s">
-        <v>23</v>
+        <v>28</v>
       </c>
     </row>
     <row r="119" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A119" s="1" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="B119" s="1" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="C119" s="1" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D119" s="1" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="E119" s="1" t="s">
-        <v>23</v>
+        <v>28</v>
       </c>
     </row>
     <row r="120" spans="1:5" x14ac:dyDescent="0.3">
@@ -2514,7 +2502,7 @@
         <v>20</v>
       </c>
       <c r="B120" s="1" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="C120" s="1" t="s">
         <v>16</v>
@@ -2531,7 +2519,7 @@
         <v>20</v>
       </c>
       <c r="B121" s="1" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="C121" s="1" t="s">
         <v>16</v>
@@ -2545,10 +2533,10 @@
     </row>
     <row r="122" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A122" s="1" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B122" s="1" t="s">
-        <v>5</v>
+        <v>18</v>
       </c>
       <c r="C122" s="1" t="s">
         <v>6</v>
@@ -2562,10 +2550,10 @@
     </row>
     <row r="123" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A123" s="1" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B123" s="1" t="s">
-        <v>5</v>
+        <v>18</v>
       </c>
       <c r="C123" s="1" t="s">
         <v>6</v>
@@ -2574,7 +2562,7 @@
         <v>9</v>
       </c>
       <c r="E123" s="1" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
     </row>
     <row r="124" spans="1:5" x14ac:dyDescent="0.3">
@@ -2582,16 +2570,16 @@
         <v>21</v>
       </c>
       <c r="B124" s="1" t="s">
-        <v>5</v>
+        <v>18</v>
       </c>
       <c r="C124" s="1" t="s">
-        <v>6</v>
+        <v>15</v>
       </c>
       <c r="D124" s="1" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E124" s="1" t="s">
-        <v>23</v>
+        <v>29</v>
       </c>
     </row>
     <row r="125" spans="1:5" x14ac:dyDescent="0.3">
@@ -2605,24 +2593,24 @@
         <v>6</v>
       </c>
       <c r="D125" s="1" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="E125" s="1" t="s">
-        <v>23</v>
+        <v>29</v>
       </c>
     </row>
     <row r="126" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A126" s="1" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B126" s="1" t="s">
-        <v>5</v>
+        <v>18</v>
       </c>
       <c r="C126" s="1" t="s">
-        <v>6</v>
+        <v>14</v>
       </c>
       <c r="D126" s="1" t="s">
-        <v>12</v>
+        <v>7</v>
       </c>
       <c r="E126" s="1" t="s">
         <v>23</v>
@@ -2630,19 +2618,19 @@
     </row>
     <row r="127" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A127" s="1" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B127" s="1" t="s">
-        <v>5</v>
+        <v>18</v>
       </c>
       <c r="C127" s="1" t="s">
-        <v>6</v>
+        <v>14</v>
       </c>
       <c r="D127" s="1" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="E127" s="1" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
     </row>
     <row r="128" spans="1:5" x14ac:dyDescent="0.3">
@@ -2653,13 +2641,13 @@
         <v>5</v>
       </c>
       <c r="C128" s="1" t="s">
-        <v>14</v>
+        <v>6</v>
       </c>
       <c r="D128" s="1" t="s">
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="E128" s="1" t="s">
-        <v>23</v>
+        <v>29</v>
       </c>
     </row>
     <row r="129" spans="1:5" x14ac:dyDescent="0.3">
@@ -2673,24 +2661,24 @@
         <v>14</v>
       </c>
       <c r="D129" s="1" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E129" s="1" t="s">
-        <v>23</v>
+        <v>29</v>
       </c>
     </row>
     <row r="130" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A130" s="1" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B130" s="1" t="s">
-        <v>5</v>
+        <v>18</v>
       </c>
       <c r="C130" s="1" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="D130" s="1" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="E130" s="1" t="s">
         <v>23</v>
@@ -2698,19 +2686,19 @@
     </row>
     <row r="131" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A131" s="1" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B131" s="1" t="s">
-        <v>5</v>
+        <v>18</v>
       </c>
       <c r="C131" s="1" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="D131" s="1" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="E131" s="1" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
     </row>
     <row r="132" spans="1:5" x14ac:dyDescent="0.3">
@@ -2724,24 +2712,24 @@
         <v>14</v>
       </c>
       <c r="D132" s="1" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="E132" s="1" t="s">
-        <v>23</v>
+        <v>29</v>
       </c>
     </row>
     <row r="133" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A133" s="1" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B133" s="1" t="s">
-        <v>5</v>
+        <v>18</v>
       </c>
       <c r="C133" s="1" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="D133" s="1" t="s">
-        <v>13</v>
+        <v>7</v>
       </c>
       <c r="E133" s="1" t="s">
         <v>23</v>
@@ -2749,16 +2737,16 @@
     </row>
     <row r="134" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A134" s="1" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B134" s="1" t="s">
-        <v>5</v>
+        <v>18</v>
       </c>
       <c r="C134" s="1" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="D134" s="1" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="E134" s="1" t="s">
         <v>23</v>
@@ -2775,10 +2763,10 @@
         <v>15</v>
       </c>
       <c r="D135" s="1" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E135" s="1" t="s">
-        <v>23</v>
+        <v>29</v>
       </c>
     </row>
     <row r="136" spans="1:5" x14ac:dyDescent="0.3">
@@ -2792,24 +2780,24 @@
         <v>15</v>
       </c>
       <c r="D136" s="1" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E136" s="1" t="s">
-        <v>23</v>
+        <v>29</v>
       </c>
     </row>
     <row r="137" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A137" s="1" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B137" s="1" t="s">
-        <v>5</v>
+        <v>18</v>
       </c>
       <c r="C137" s="1" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="D137" s="1" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="E137" s="1" t="s">
         <v>23</v>
@@ -2817,16 +2805,16 @@
     </row>
     <row r="138" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A138" s="1" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B138" s="1" t="s">
-        <v>5</v>
+        <v>18</v>
       </c>
       <c r="C138" s="1" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="D138" s="1" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="E138" s="1" t="s">
         <v>23</v>
@@ -2834,36 +2822,36 @@
     </row>
     <row r="139" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A139" s="1" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B139" s="1" t="s">
-        <v>5</v>
+        <v>19</v>
       </c>
       <c r="C139" s="1" t="s">
-        <v>15</v>
+        <v>6</v>
       </c>
       <c r="D139" s="1" t="s">
-        <v>13</v>
+        <v>7</v>
       </c>
       <c r="E139" s="1" t="s">
-        <v>23</v>
+        <v>29</v>
       </c>
     </row>
     <row r="140" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A140" s="1" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B140" s="1" t="s">
-        <v>5</v>
+        <v>19</v>
       </c>
       <c r="C140" s="1" t="s">
-        <v>16</v>
+        <v>6</v>
       </c>
       <c r="D140" s="1" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="E140" s="1" t="s">
-        <v>23</v>
+        <v>29</v>
       </c>
     </row>
     <row r="141" spans="1:5" x14ac:dyDescent="0.3">
@@ -2877,10 +2865,10 @@
         <v>16</v>
       </c>
       <c r="D141" s="1" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E141" s="1" t="s">
-        <v>23</v>
+        <v>29</v>
       </c>
     </row>
     <row r="142" spans="1:5" x14ac:dyDescent="0.3">
@@ -2894,78 +2882,78 @@
         <v>16</v>
       </c>
       <c r="D142" s="1" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E142" s="1" t="s">
-        <v>23</v>
+        <v>29</v>
       </c>
     </row>
     <row r="143" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A143" s="1" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B143" s="1" t="s">
-        <v>5</v>
+        <v>19</v>
       </c>
       <c r="C143" s="1" t="s">
-        <v>16</v>
+        <v>6</v>
       </c>
       <c r="D143" s="1" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="E143" s="1" t="s">
-        <v>23</v>
+        <v>29</v>
       </c>
     </row>
     <row r="144" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A144" s="1" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B144" s="1" t="s">
-        <v>5</v>
+        <v>19</v>
       </c>
       <c r="C144" s="1" t="s">
-        <v>16</v>
+        <v>6</v>
       </c>
       <c r="D144" s="1" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="E144" s="1" t="s">
-        <v>23</v>
+        <v>29</v>
       </c>
     </row>
     <row r="145" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A145" s="1" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B145" s="1" t="s">
-        <v>5</v>
+        <v>19</v>
       </c>
       <c r="C145" s="1" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="D145" s="1" t="s">
-        <v>13</v>
+        <v>7</v>
       </c>
       <c r="E145" s="1" t="s">
-        <v>23</v>
+        <v>29</v>
       </c>
     </row>
     <row r="146" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A146" s="1" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B146" s="1" t="s">
-        <v>8</v>
+        <v>19</v>
       </c>
       <c r="C146" s="1" t="s">
-        <v>6</v>
+        <v>14</v>
       </c>
       <c r="D146" s="1" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="E146" s="1" t="s">
-        <v>23</v>
+        <v>29</v>
       </c>
     </row>
     <row r="147" spans="1:5" x14ac:dyDescent="0.3">
@@ -2976,13 +2964,13 @@
         <v>8</v>
       </c>
       <c r="C147" s="1" t="s">
-        <v>6</v>
+        <v>14</v>
       </c>
       <c r="D147" s="1" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E147" s="1" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
     </row>
     <row r="148" spans="1:5" x14ac:dyDescent="0.3">
@@ -2993,81 +2981,81 @@
         <v>8</v>
       </c>
       <c r="C148" s="1" t="s">
-        <v>6</v>
+        <v>16</v>
       </c>
       <c r="D148" s="1" t="s">
         <v>10</v>
       </c>
       <c r="E148" s="1" t="s">
-        <v>28</v>
+        <v>23</v>
       </c>
     </row>
     <row r="149" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A149" s="1" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B149" s="1" t="s">
-        <v>8</v>
+        <v>19</v>
       </c>
       <c r="C149" s="1" t="s">
-        <v>6</v>
+        <v>14</v>
       </c>
       <c r="D149" s="1" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="E149" s="1" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
     </row>
     <row r="150" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A150" s="1" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B150" s="1" t="s">
-        <v>8</v>
+        <v>19</v>
       </c>
       <c r="C150" s="1" t="s">
-        <v>6</v>
+        <v>14</v>
       </c>
       <c r="D150" s="1" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="E150" s="1" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
     </row>
     <row r="151" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A151" s="1" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B151" s="1" t="s">
-        <v>8</v>
+        <v>19</v>
       </c>
       <c r="C151" s="1" t="s">
-        <v>6</v>
+        <v>15</v>
       </c>
       <c r="D151" s="1" t="s">
-        <v>13</v>
+        <v>7</v>
       </c>
       <c r="E151" s="1" t="s">
-        <v>26</v>
+        <v>29</v>
       </c>
     </row>
     <row r="152" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A152" s="1" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B152" s="1" t="s">
-        <v>8</v>
+        <v>19</v>
       </c>
       <c r="C152" s="1" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="D152" s="1" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="E152" s="1" t="s">
-        <v>23</v>
+        <v>29</v>
       </c>
     </row>
     <row r="153" spans="1:5" x14ac:dyDescent="0.3">
@@ -3078,13 +3066,13 @@
         <v>8</v>
       </c>
       <c r="C153" s="1" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="D153" s="1" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="E153" s="1" t="s">
-        <v>27</v>
+        <v>23</v>
       </c>
     </row>
     <row r="154" spans="1:5" x14ac:dyDescent="0.3">
@@ -3092,7 +3080,7 @@
         <v>21</v>
       </c>
       <c r="B154" s="1" t="s">
-        <v>8</v>
+        <v>17</v>
       </c>
       <c r="C154" s="1" t="s">
         <v>14</v>
@@ -3106,70 +3094,70 @@
     </row>
     <row r="155" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A155" s="1" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B155" s="1" t="s">
-        <v>8</v>
+        <v>19</v>
       </c>
       <c r="C155" s="1" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="D155" s="1" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="E155" s="1" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
     </row>
     <row r="156" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A156" s="1" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B156" s="1" t="s">
-        <v>8</v>
+        <v>19</v>
       </c>
       <c r="C156" s="1" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="D156" s="1" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="E156" s="1" t="s">
-        <v>26</v>
+        <v>29</v>
       </c>
     </row>
     <row r="157" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A157" s="1" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B157" s="1" t="s">
-        <v>8</v>
+        <v>19</v>
       </c>
       <c r="C157" s="1" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="D157" s="1" t="s">
-        <v>13</v>
+        <v>7</v>
       </c>
       <c r="E157" s="1" t="s">
-        <v>24</v>
+        <v>29</v>
       </c>
     </row>
     <row r="158" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A158" s="1" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B158" s="1" t="s">
-        <v>8</v>
+        <v>19</v>
       </c>
       <c r="C158" s="1" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="D158" s="1" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="E158" s="1" t="s">
-        <v>23</v>
+        <v>29</v>
       </c>
     </row>
     <row r="159" spans="1:5" x14ac:dyDescent="0.3">
@@ -3177,16 +3165,16 @@
         <v>21</v>
       </c>
       <c r="B159" s="1" t="s">
-        <v>8</v>
+        <v>17</v>
       </c>
       <c r="C159" s="1" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="D159" s="1" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E159" s="1" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
     </row>
     <row r="160" spans="1:5" x14ac:dyDescent="0.3">
@@ -3194,50 +3182,50 @@
         <v>21</v>
       </c>
       <c r="B160" s="1" t="s">
-        <v>8</v>
+        <v>17</v>
       </c>
       <c r="C160" s="1" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="D160" s="1" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E160" s="1" t="s">
-        <v>28</v>
+        <v>23</v>
       </c>
     </row>
     <row r="161" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A161" s="1" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B161" s="1" t="s">
-        <v>8</v>
+        <v>19</v>
       </c>
       <c r="C161" s="1" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="D161" s="1" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="E161" s="1" t="s">
-        <v>24</v>
+        <v>29</v>
       </c>
     </row>
     <row r="162" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A162" s="1" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B162" s="1" t="s">
-        <v>8</v>
+        <v>19</v>
       </c>
       <c r="C162" s="1" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="D162" s="1" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="E162" s="1" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
     </row>
     <row r="163" spans="1:5" x14ac:dyDescent="0.3">
@@ -3245,16 +3233,16 @@
         <v>21</v>
       </c>
       <c r="B163" s="1" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="C163" s="1" t="s">
-        <v>15</v>
+        <v>6</v>
       </c>
       <c r="D163" s="1" t="s">
-        <v>13</v>
+        <v>7</v>
       </c>
       <c r="E163" s="1" t="s">
-        <v>26</v>
+        <v>29</v>
       </c>
     </row>
     <row r="164" spans="1:5" x14ac:dyDescent="0.3">
@@ -3262,16 +3250,16 @@
         <v>21</v>
       </c>
       <c r="B164" s="1" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="C164" s="1" t="s">
-        <v>16</v>
+        <v>6</v>
       </c>
       <c r="D164" s="1" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="E164" s="1" t="s">
-        <v>23</v>
+        <v>29</v>
       </c>
     </row>
     <row r="165" spans="1:5" x14ac:dyDescent="0.3">
@@ -3279,16 +3267,16 @@
         <v>21</v>
       </c>
       <c r="B165" s="1" t="s">
-        <v>8</v>
+        <v>18</v>
       </c>
       <c r="C165" s="1" t="s">
-        <v>16</v>
+        <v>6</v>
       </c>
       <c r="D165" s="1" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E165" s="1" t="s">
-        <v>23</v>
+        <v>29</v>
       </c>
     </row>
     <row r="166" spans="1:5" x14ac:dyDescent="0.3">
@@ -3296,16 +3284,16 @@
         <v>21</v>
       </c>
       <c r="B166" s="1" t="s">
-        <v>8</v>
+        <v>18</v>
       </c>
       <c r="C166" s="1" t="s">
-        <v>16</v>
+        <v>6</v>
       </c>
       <c r="D166" s="1" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E166" s="1" t="s">
-        <v>23</v>
+        <v>29</v>
       </c>
     </row>
     <row r="167" spans="1:5" x14ac:dyDescent="0.3">
@@ -3313,16 +3301,16 @@
         <v>21</v>
       </c>
       <c r="B167" s="1" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="C167" s="1" t="s">
-        <v>16</v>
+        <v>6</v>
       </c>
       <c r="D167" s="1" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="E167" s="1" t="s">
-        <v>23</v>
+        <v>29</v>
       </c>
     </row>
     <row r="168" spans="1:5" x14ac:dyDescent="0.3">
@@ -3330,16 +3318,16 @@
         <v>21</v>
       </c>
       <c r="B168" s="1" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="C168" s="1" t="s">
-        <v>16</v>
+        <v>6</v>
       </c>
       <c r="D168" s="1" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="E168" s="1" t="s">
-        <v>23</v>
+        <v>29</v>
       </c>
     </row>
     <row r="169" spans="1:5" x14ac:dyDescent="0.3">
@@ -3347,16 +3335,16 @@
         <v>21</v>
       </c>
       <c r="B169" s="1" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="C169" s="1" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="D169" s="1" t="s">
-        <v>13</v>
+        <v>7</v>
       </c>
       <c r="E169" s="1" t="s">
-        <v>23</v>
+        <v>29</v>
       </c>
     </row>
     <row r="170" spans="1:5" x14ac:dyDescent="0.3">
@@ -3364,16 +3352,16 @@
         <v>21</v>
       </c>
       <c r="B170" s="1" t="s">
-        <v>17</v>
+        <v>5</v>
       </c>
       <c r="C170" s="1" t="s">
-        <v>6</v>
+        <v>14</v>
       </c>
       <c r="D170" s="1" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="E170" s="1" t="s">
-        <v>23</v>
+        <v>29</v>
       </c>
     </row>
     <row r="171" spans="1:5" x14ac:dyDescent="0.3">
@@ -3381,16 +3369,16 @@
         <v>21</v>
       </c>
       <c r="B171" s="1" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="C171" s="1" t="s">
-        <v>6</v>
+        <v>14</v>
       </c>
       <c r="D171" s="1" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E171" s="1" t="s">
-        <v>25</v>
+        <v>29</v>
       </c>
     </row>
     <row r="172" spans="1:5" x14ac:dyDescent="0.3">
@@ -3398,16 +3386,16 @@
         <v>21</v>
       </c>
       <c r="B172" s="1" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="C172" s="1" t="s">
-        <v>6</v>
+        <v>14</v>
       </c>
       <c r="D172" s="1" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E172" s="1" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
     </row>
     <row r="173" spans="1:5" x14ac:dyDescent="0.3">
@@ -3415,16 +3403,16 @@
         <v>21</v>
       </c>
       <c r="B173" s="1" t="s">
-        <v>17</v>
+        <v>5</v>
       </c>
       <c r="C173" s="1" t="s">
-        <v>6</v>
+        <v>14</v>
       </c>
       <c r="D173" s="1" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="E173" s="1" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
     </row>
     <row r="174" spans="1:5" x14ac:dyDescent="0.3">
@@ -3432,16 +3420,16 @@
         <v>21</v>
       </c>
       <c r="B174" s="1" t="s">
-        <v>17</v>
+        <v>5</v>
       </c>
       <c r="C174" s="1" t="s">
-        <v>6</v>
+        <v>14</v>
       </c>
       <c r="D174" s="1" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="E174" s="1" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
     </row>
     <row r="175" spans="1:5" x14ac:dyDescent="0.3">
@@ -3449,16 +3437,16 @@
         <v>21</v>
       </c>
       <c r="B175" s="1" t="s">
-        <v>17</v>
+        <v>5</v>
       </c>
       <c r="C175" s="1" t="s">
-        <v>6</v>
+        <v>15</v>
       </c>
       <c r="D175" s="1" t="s">
-        <v>13</v>
+        <v>7</v>
       </c>
       <c r="E175" s="1" t="s">
-        <v>26</v>
+        <v>29</v>
       </c>
     </row>
     <row r="176" spans="1:5" x14ac:dyDescent="0.3">
@@ -3466,16 +3454,16 @@
         <v>21</v>
       </c>
       <c r="B176" s="1" t="s">
-        <v>17</v>
+        <v>5</v>
       </c>
       <c r="C176" s="1" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="D176" s="1" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="E176" s="1" t="s">
-        <v>23</v>
+        <v>29</v>
       </c>
     </row>
     <row r="177" spans="1:5" x14ac:dyDescent="0.3">
@@ -3483,16 +3471,16 @@
         <v>21</v>
       </c>
       <c r="B177" s="1" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="C177" s="1" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="D177" s="1" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E177" s="1" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
     </row>
     <row r="178" spans="1:5" x14ac:dyDescent="0.3">
@@ -3500,16 +3488,16 @@
         <v>21</v>
       </c>
       <c r="B178" s="1" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="C178" s="1" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="D178" s="1" t="s">
         <v>10</v>
       </c>
       <c r="E178" s="1" t="s">
-        <v>23</v>
+        <v>29</v>
       </c>
     </row>
     <row r="179" spans="1:5" x14ac:dyDescent="0.3">
@@ -3517,16 +3505,16 @@
         <v>21</v>
       </c>
       <c r="B179" s="1" t="s">
-        <v>17</v>
+        <v>5</v>
       </c>
       <c r="C179" s="1" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="D179" s="1" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="E179" s="1" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
     </row>
     <row r="180" spans="1:5" x14ac:dyDescent="0.3">
@@ -3534,16 +3522,16 @@
         <v>21</v>
       </c>
       <c r="B180" s="1" t="s">
-        <v>17</v>
+        <v>5</v>
       </c>
       <c r="C180" s="1" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="D180" s="1" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="E180" s="1" t="s">
-        <v>26</v>
+        <v>29</v>
       </c>
     </row>
     <row r="181" spans="1:5" x14ac:dyDescent="0.3">
@@ -3551,16 +3539,16 @@
         <v>21</v>
       </c>
       <c r="B181" s="1" t="s">
-        <v>17</v>
+        <v>5</v>
       </c>
       <c r="C181" s="1" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="D181" s="1" t="s">
-        <v>13</v>
+        <v>7</v>
       </c>
       <c r="E181" s="1" t="s">
-        <v>24</v>
+        <v>29</v>
       </c>
     </row>
     <row r="182" spans="1:5" x14ac:dyDescent="0.3">
@@ -3568,16 +3556,16 @@
         <v>21</v>
       </c>
       <c r="B182" s="1" t="s">
-        <v>17</v>
+        <v>5</v>
       </c>
       <c r="C182" s="1" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="D182" s="1" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="E182" s="1" t="s">
-        <v>23</v>
+        <v>29</v>
       </c>
     </row>
     <row r="183" spans="1:5" x14ac:dyDescent="0.3">
@@ -3585,16 +3573,16 @@
         <v>21</v>
       </c>
       <c r="B183" s="1" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="C183" s="1" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="D183" s="1" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="E183" s="1" t="s">
-        <v>25</v>
+        <v>29</v>
       </c>
     </row>
     <row r="184" spans="1:5" x14ac:dyDescent="0.3">
@@ -3602,16 +3590,16 @@
         <v>21</v>
       </c>
       <c r="B184" s="1" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="C184" s="1" t="s">
-        <v>15</v>
+        <v>6</v>
       </c>
       <c r="D184" s="1" t="s">
         <v>10</v>
       </c>
       <c r="E184" s="1" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
     </row>
     <row r="185" spans="1:5" x14ac:dyDescent="0.3">
@@ -3619,16 +3607,16 @@
         <v>21</v>
       </c>
       <c r="B185" s="1" t="s">
-        <v>17</v>
+        <v>5</v>
       </c>
       <c r="C185" s="1" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="D185" s="1" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="E185" s="1" t="s">
-        <v>24</v>
+        <v>29</v>
       </c>
     </row>
     <row r="186" spans="1:5" x14ac:dyDescent="0.3">
@@ -3636,16 +3624,16 @@
         <v>21</v>
       </c>
       <c r="B186" s="1" t="s">
-        <v>17</v>
+        <v>5</v>
       </c>
       <c r="C186" s="1" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="D186" s="1" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="E186" s="1" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
     </row>
     <row r="187" spans="1:5" x14ac:dyDescent="0.3">
@@ -3653,16 +3641,16 @@
         <v>21</v>
       </c>
       <c r="B187" s="1" t="s">
-        <v>17</v>
+        <v>8</v>
       </c>
       <c r="C187" s="1" t="s">
-        <v>15</v>
+        <v>6</v>
       </c>
       <c r="D187" s="1" t="s">
-        <v>13</v>
+        <v>7</v>
       </c>
       <c r="E187" s="1" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
     </row>
     <row r="188" spans="1:5" x14ac:dyDescent="0.3">
@@ -3670,10 +3658,10 @@
         <v>21</v>
       </c>
       <c r="B188" s="1" t="s">
-        <v>17</v>
+        <v>8</v>
       </c>
       <c r="C188" s="1" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="D188" s="1" t="s">
         <v>7</v>
@@ -3687,16 +3675,16 @@
         <v>21</v>
       </c>
       <c r="B189" s="1" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="C189" s="1" t="s">
-        <v>16</v>
+        <v>6</v>
       </c>
       <c r="D189" s="1" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="E189" s="1" t="s">
-        <v>23</v>
+        <v>29</v>
       </c>
     </row>
     <row r="190" spans="1:5" x14ac:dyDescent="0.3">
@@ -3704,13 +3692,13 @@
         <v>21</v>
       </c>
       <c r="B190" s="1" t="s">
-        <v>17</v>
+        <v>8</v>
       </c>
       <c r="C190" s="1" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D190" s="1" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="E190" s="1" t="s">
         <v>23</v>
@@ -3721,13 +3709,13 @@
         <v>21</v>
       </c>
       <c r="B191" s="1" t="s">
-        <v>17</v>
+        <v>8</v>
       </c>
       <c r="C191" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D191" s="1" t="s">
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="E191" s="1" t="s">
         <v>23</v>
@@ -3738,13 +3726,13 @@
         <v>21</v>
       </c>
       <c r="B192" s="1" t="s">
-        <v>17</v>
+        <v>8</v>
       </c>
       <c r="C192" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D192" s="1" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="E192" s="1" t="s">
         <v>23</v>
@@ -3755,16 +3743,16 @@
         <v>21</v>
       </c>
       <c r="B193" s="1" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="C193" s="1" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="D193" s="1" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="E193" s="1" t="s">
-        <v>23</v>
+        <v>29</v>
       </c>
     </row>
     <row r="194" spans="1:5" x14ac:dyDescent="0.3">
@@ -3772,16 +3760,16 @@
         <v>21</v>
       </c>
       <c r="B194" s="1" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="C194" s="1" t="s">
-        <v>6</v>
+        <v>14</v>
       </c>
       <c r="D194" s="1" t="s">
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="E194" s="1" t="s">
-        <v>23</v>
+        <v>29</v>
       </c>
     </row>
     <row r="195" spans="1:5" x14ac:dyDescent="0.3">
@@ -3789,13 +3777,13 @@
         <v>21</v>
       </c>
       <c r="B195" s="1" t="s">
-        <v>18</v>
+        <v>8</v>
       </c>
       <c r="C195" s="1" t="s">
-        <v>6</v>
+        <v>16</v>
       </c>
       <c r="D195" s="1" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="E195" s="1" t="s">
         <v>23</v>
@@ -3806,13 +3794,13 @@
         <v>21</v>
       </c>
       <c r="B196" s="1" t="s">
-        <v>18</v>
+        <v>8</v>
       </c>
       <c r="C196" s="1" t="s">
-        <v>6</v>
+        <v>16</v>
       </c>
       <c r="D196" s="1" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="E196" s="1" t="s">
         <v>23</v>
@@ -3823,13 +3811,13 @@
         <v>21</v>
       </c>
       <c r="B197" s="1" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C197" s="1" t="s">
         <v>6</v>
       </c>
       <c r="D197" s="1" t="s">
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="E197" s="1" t="s">
         <v>23</v>
@@ -3840,16 +3828,16 @@
         <v>21</v>
       </c>
       <c r="B198" s="1" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C198" s="1" t="s">
-        <v>6</v>
+        <v>14</v>
       </c>
       <c r="D198" s="1" t="s">
-        <v>12</v>
+        <v>7</v>
       </c>
       <c r="E198" s="1" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
     <row r="199" spans="1:5" x14ac:dyDescent="0.3">
@@ -3857,16 +3845,16 @@
         <v>21</v>
       </c>
       <c r="B199" s="1" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="C199" s="1" t="s">
-        <v>6</v>
+        <v>15</v>
       </c>
       <c r="D199" s="1" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="E199" s="1" t="s">
-        <v>24</v>
+        <v>29</v>
       </c>
     </row>
     <row r="200" spans="1:5" x14ac:dyDescent="0.3">
@@ -3874,10 +3862,10 @@
         <v>21</v>
       </c>
       <c r="B200" s="1" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C200" s="1" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="D200" s="1" t="s">
         <v>7</v>
@@ -3891,13 +3879,13 @@
         <v>21</v>
       </c>
       <c r="B201" s="1" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C201" s="1" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="D201" s="1" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="E201" s="1" t="s">
         <v>23</v>
@@ -3908,13 +3896,13 @@
         <v>21</v>
       </c>
       <c r="B202" s="1" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C202" s="1" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="D202" s="1" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="E202" s="1" t="s">
         <v>23</v>
@@ -3925,16 +3913,16 @@
         <v>21</v>
       </c>
       <c r="B203" s="1" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="C203" s="1" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="D203" s="1" t="s">
         <v>11</v>
       </c>
       <c r="E203" s="1" t="s">
-        <v>23</v>
+        <v>29</v>
       </c>
     </row>
     <row r="204" spans="1:5" x14ac:dyDescent="0.3">
@@ -3942,16 +3930,16 @@
         <v>21</v>
       </c>
       <c r="B204" s="1" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="C204" s="1" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="D204" s="1" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="E204" s="1" t="s">
-        <v>24</v>
+        <v>29</v>
       </c>
     </row>
     <row r="205" spans="1:5" x14ac:dyDescent="0.3">
@@ -3959,16 +3947,16 @@
         <v>21</v>
       </c>
       <c r="B205" s="1" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C205" s="1" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="D205" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="E205" s="1" t="s">
-        <v>28</v>
+        <v>23</v>
       </c>
     </row>
     <row r="206" spans="1:5" x14ac:dyDescent="0.3">
@@ -3976,13 +3964,13 @@
         <v>21</v>
       </c>
       <c r="B206" s="1" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C206" s="1" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="D206" s="1" t="s">
-        <v>7</v>
+        <v>13</v>
       </c>
       <c r="E206" s="1" t="s">
         <v>23</v>
@@ -3996,13 +3984,13 @@
         <v>18</v>
       </c>
       <c r="C207" s="1" t="s">
-        <v>15</v>
+        <v>6</v>
       </c>
       <c r="D207" s="1" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="E207" s="1" t="s">
-        <v>23</v>
+        <v>29</v>
       </c>
     </row>
     <row r="208" spans="1:5" x14ac:dyDescent="0.3">
@@ -4013,13 +4001,13 @@
         <v>18</v>
       </c>
       <c r="C208" s="1" t="s">
-        <v>15</v>
+        <v>6</v>
       </c>
       <c r="D208" s="1" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="E208" s="1" t="s">
-        <v>23</v>
+        <v>29</v>
       </c>
     </row>
     <row r="209" spans="1:5" x14ac:dyDescent="0.3">
@@ -4027,30 +4015,30 @@
         <v>21</v>
       </c>
       <c r="B209" s="1" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="C209" s="1" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="D209" s="1" t="s">
         <v>11</v>
       </c>
       <c r="E209" s="1" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
     </row>
     <row r="210" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A210" s="1" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="B210" s="1" t="s">
-        <v>18</v>
+        <v>5</v>
       </c>
       <c r="C210" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D210" s="1" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="E210" s="1" t="s">
         <v>24</v>
@@ -4064,13 +4052,13 @@
         <v>18</v>
       </c>
       <c r="C211" s="1" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="D211" s="1" t="s">
-        <v>13</v>
+        <v>7</v>
       </c>
       <c r="E211" s="1" t="s">
-        <v>24</v>
+        <v>29</v>
       </c>
     </row>
     <row r="212" spans="1:5" x14ac:dyDescent="0.3">
@@ -4081,47 +4069,47 @@
         <v>18</v>
       </c>
       <c r="C212" s="1" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="D212" s="1" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="E212" s="1" t="s">
-        <v>23</v>
+        <v>29</v>
       </c>
     </row>
     <row r="213" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A213" s="1" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="B213" s="1" t="s">
-        <v>18</v>
+        <v>8</v>
       </c>
       <c r="C213" s="1" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D213" s="1" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="E213" s="1" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
     </row>
     <row r="214" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A214" s="1" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="B214" s="1" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C214" s="1" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D214" s="1" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E214" s="1" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
     </row>
     <row r="215" spans="1:5" x14ac:dyDescent="0.3">
@@ -4132,13 +4120,13 @@
         <v>18</v>
       </c>
       <c r="C215" s="1" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D215" s="1" t="s">
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="E215" s="1" t="s">
-        <v>23</v>
+        <v>29</v>
       </c>
     </row>
     <row r="216" spans="1:5" x14ac:dyDescent="0.3">
@@ -4149,30 +4137,30 @@
         <v>18</v>
       </c>
       <c r="C216" s="1" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D216" s="1" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="E216" s="1" t="s">
-        <v>23</v>
+        <v>29</v>
       </c>
     </row>
     <row r="217" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A217" s="1" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="B217" s="1" t="s">
         <v>18</v>
       </c>
       <c r="C217" s="1" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D217" s="1" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="E217" s="1" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
     </row>
     <row r="218" spans="1:5" x14ac:dyDescent="0.3">
@@ -4180,16 +4168,16 @@
         <v>21</v>
       </c>
       <c r="B218" s="1" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C218" s="1" t="s">
-        <v>6</v>
+        <v>16</v>
       </c>
       <c r="D218" s="1" t="s">
         <v>7</v>
       </c>
       <c r="E218" s="1" t="s">
-        <v>23</v>
+        <v>29</v>
       </c>
     </row>
     <row r="219" spans="1:5" x14ac:dyDescent="0.3">
@@ -4197,50 +4185,50 @@
         <v>21</v>
       </c>
       <c r="B219" s="1" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C219" s="1" t="s">
-        <v>6</v>
+        <v>16</v>
       </c>
       <c r="D219" s="1" t="s">
         <v>9</v>
       </c>
       <c r="E219" s="1" t="s">
-        <v>23</v>
+        <v>29</v>
       </c>
     </row>
     <row r="220" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A220" s="1" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="B220" s="1" t="s">
-        <v>19</v>
+        <v>5</v>
       </c>
       <c r="C220" s="1" t="s">
         <v>6</v>
       </c>
       <c r="D220" s="1" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E220" s="1" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
     </row>
     <row r="221" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A221" s="1" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="B221" s="1" t="s">
-        <v>19</v>
+        <v>8</v>
       </c>
       <c r="C221" s="1" t="s">
         <v>6</v>
       </c>
       <c r="D221" s="1" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="E221" s="1" t="s">
-        <v>23</v>
+        <v>28</v>
       </c>
     </row>
     <row r="222" spans="1:5" x14ac:dyDescent="0.3">
@@ -4248,16 +4236,16 @@
         <v>21</v>
       </c>
       <c r="B222" s="1" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C222" s="1" t="s">
-        <v>6</v>
+        <v>16</v>
       </c>
       <c r="D222" s="1" t="s">
         <v>12</v>
       </c>
       <c r="E222" s="1" t="s">
-        <v>23</v>
+        <v>29</v>
       </c>
     </row>
     <row r="223" spans="1:5" x14ac:dyDescent="0.3">
@@ -4265,16 +4253,16 @@
         <v>21</v>
       </c>
       <c r="B223" s="1" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C223" s="1" t="s">
-        <v>6</v>
+        <v>16</v>
       </c>
       <c r="D223" s="1" t="s">
         <v>13</v>
       </c>
       <c r="E223" s="1" t="s">
-        <v>23</v>
+        <v>29</v>
       </c>
     </row>
     <row r="224" spans="1:5" x14ac:dyDescent="0.3">
@@ -4285,13 +4273,13 @@
         <v>19</v>
       </c>
       <c r="C224" s="1" t="s">
-        <v>14</v>
+        <v>6</v>
       </c>
       <c r="D224" s="1" t="s">
         <v>7</v>
       </c>
       <c r="E224" s="1" t="s">
-        <v>23</v>
+        <v>29</v>
       </c>
     </row>
     <row r="225" spans="1:5" x14ac:dyDescent="0.3">
@@ -4302,38 +4290,38 @@
         <v>19</v>
       </c>
       <c r="C225" s="1" t="s">
-        <v>14</v>
+        <v>6</v>
       </c>
       <c r="D225" s="1" t="s">
         <v>9</v>
       </c>
       <c r="E225" s="1" t="s">
-        <v>23</v>
+        <v>29</v>
       </c>
     </row>
     <row r="226" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A226" s="1" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="B226" s="1" t="s">
-        <v>19</v>
+        <v>8</v>
       </c>
       <c r="C226" s="1" t="s">
-        <v>14</v>
+        <v>6</v>
       </c>
       <c r="D226" s="1" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E226" s="1" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
     </row>
     <row r="227" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A227" s="1" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="B227" s="1" t="s">
-        <v>19</v>
+        <v>8</v>
       </c>
       <c r="C227" s="1" t="s">
         <v>14</v>
@@ -4342,7 +4330,7 @@
         <v>11</v>
       </c>
       <c r="E227" s="1" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
     </row>
     <row r="228" spans="1:5" x14ac:dyDescent="0.3">
@@ -4353,13 +4341,13 @@
         <v>19</v>
       </c>
       <c r="C228" s="1" t="s">
-        <v>14</v>
+        <v>6</v>
       </c>
       <c r="D228" s="1" t="s">
         <v>12</v>
       </c>
       <c r="E228" s="1" t="s">
-        <v>23</v>
+        <v>29</v>
       </c>
     </row>
     <row r="229" spans="1:5" x14ac:dyDescent="0.3">
@@ -4370,13 +4358,13 @@
         <v>19</v>
       </c>
       <c r="C229" s="1" t="s">
-        <v>14</v>
+        <v>6</v>
       </c>
       <c r="D229" s="1" t="s">
         <v>13</v>
       </c>
       <c r="E229" s="1" t="s">
-        <v>23</v>
+        <v>29</v>
       </c>
     </row>
     <row r="230" spans="1:5" x14ac:dyDescent="0.3">
@@ -4387,13 +4375,13 @@
         <v>19</v>
       </c>
       <c r="C230" s="1" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="D230" s="1" t="s">
         <v>7</v>
       </c>
       <c r="E230" s="1" t="s">
-        <v>23</v>
+        <v>29</v>
       </c>
     </row>
     <row r="231" spans="1:5" x14ac:dyDescent="0.3">
@@ -4404,21 +4392,21 @@
         <v>19</v>
       </c>
       <c r="C231" s="1" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="D231" s="1" t="s">
         <v>9</v>
       </c>
       <c r="E231" s="1" t="s">
-        <v>23</v>
+        <v>29</v>
       </c>
     </row>
     <row r="232" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A232" s="1" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="B232" s="1" t="s">
-        <v>19</v>
+        <v>8</v>
       </c>
       <c r="C232" s="1" t="s">
         <v>15</v>
@@ -4427,24 +4415,24 @@
         <v>10</v>
       </c>
       <c r="E232" s="1" t="s">
-        <v>23</v>
+        <v>28</v>
       </c>
     </row>
     <row r="233" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A233" s="1" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="B233" s="1" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="C233" s="1" t="s">
-        <v>15</v>
+        <v>6</v>
       </c>
       <c r="D233" s="1" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="E233" s="1" t="s">
-        <v>23</v>
+        <v>28</v>
       </c>
     </row>
     <row r="234" spans="1:5" x14ac:dyDescent="0.3">
@@ -4455,13 +4443,13 @@
         <v>19</v>
       </c>
       <c r="C234" s="1" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="D234" s="1" t="s">
         <v>12</v>
       </c>
       <c r="E234" s="1" t="s">
-        <v>23</v>
+        <v>29</v>
       </c>
     </row>
     <row r="235" spans="1:5" x14ac:dyDescent="0.3">
@@ -4472,13 +4460,13 @@
         <v>19</v>
       </c>
       <c r="C235" s="1" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="D235" s="1" t="s">
         <v>13</v>
       </c>
       <c r="E235" s="1" t="s">
-        <v>23</v>
+        <v>29</v>
       </c>
     </row>
     <row r="236" spans="1:5" x14ac:dyDescent="0.3">
@@ -4489,13 +4477,13 @@
         <v>19</v>
       </c>
       <c r="C236" s="1" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D236" s="1" t="s">
         <v>7</v>
       </c>
       <c r="E236" s="1" t="s">
-        <v>23</v>
+        <v>29</v>
       </c>
     </row>
     <row r="237" spans="1:5" x14ac:dyDescent="0.3">
@@ -4506,47 +4494,47 @@
         <v>19</v>
       </c>
       <c r="C237" s="1" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D237" s="1" t="s">
         <v>9</v>
       </c>
       <c r="E237" s="1" t="s">
-        <v>23</v>
+        <v>29</v>
       </c>
     </row>
     <row r="238" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A238" s="1" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="B238" s="1" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="C238" s="1" t="s">
-        <v>16</v>
+        <v>6</v>
       </c>
       <c r="D238" s="1" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E238" s="1" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
     </row>
     <row r="239" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A239" s="1" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="B239" s="1" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="C239" s="1" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="D239" s="1" t="s">
         <v>11</v>
       </c>
       <c r="E239" s="1" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
     </row>
     <row r="240" spans="1:5" x14ac:dyDescent="0.3">
@@ -4557,13 +4545,13 @@
         <v>19</v>
       </c>
       <c r="C240" s="1" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D240" s="1" t="s">
         <v>12</v>
       </c>
       <c r="E240" s="1" t="s">
-        <v>23</v>
+        <v>29</v>
       </c>
     </row>
     <row r="241" spans="1:5" x14ac:dyDescent="0.3">
@@ -4574,47 +4562,47 @@
         <v>19</v>
       </c>
       <c r="C241" s="1" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D241" s="1" t="s">
         <v>13</v>
       </c>
       <c r="E241" s="1" t="s">
-        <v>23</v>
+        <v>29</v>
       </c>
     </row>
     <row r="242" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A242" s="1" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B242" s="1" t="s">
-        <v>5</v>
+        <v>19</v>
       </c>
       <c r="C242" s="1" t="s">
-        <v>6</v>
+        <v>16</v>
       </c>
       <c r="D242" s="1" t="s">
         <v>7</v>
       </c>
       <c r="E242" s="1" t="s">
-        <v>23</v>
+        <v>29</v>
       </c>
     </row>
     <row r="243" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A243" s="1" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B243" s="1" t="s">
-        <v>5</v>
+        <v>19</v>
       </c>
       <c r="C243" s="1" t="s">
-        <v>6</v>
+        <v>16</v>
       </c>
       <c r="D243" s="1" t="s">
         <v>9</v>
       </c>
       <c r="E243" s="1" t="s">
-        <v>23</v>
+        <v>29</v>
       </c>
     </row>
     <row r="244" spans="1:5" x14ac:dyDescent="0.3">
@@ -4622,16 +4610,16 @@
         <v>22</v>
       </c>
       <c r="B244" s="1" t="s">
-        <v>5</v>
+        <v>17</v>
       </c>
       <c r="C244" s="1" t="s">
-        <v>6</v>
+        <v>15</v>
       </c>
       <c r="D244" s="1" t="s">
         <v>10</v>
       </c>
       <c r="E244" s="1" t="s">
-        <v>23</v>
+        <v>28</v>
       </c>
     </row>
     <row r="245" spans="1:5" x14ac:dyDescent="0.3">
@@ -4639,7 +4627,7 @@
         <v>22</v>
       </c>
       <c r="B245" s="1" t="s">
-        <v>5</v>
+        <v>18</v>
       </c>
       <c r="C245" s="1" t="s">
         <v>6</v>
@@ -4648,41 +4636,41 @@
         <v>11</v>
       </c>
       <c r="E245" s="1" t="s">
-        <v>28</v>
+        <v>24</v>
       </c>
     </row>
     <row r="246" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A246" s="1" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B246" s="1" t="s">
-        <v>5</v>
+        <v>19</v>
       </c>
       <c r="C246" s="1" t="s">
-        <v>6</v>
+        <v>16</v>
       </c>
       <c r="D246" s="1" t="s">
         <v>12</v>
       </c>
       <c r="E246" s="1" t="s">
-        <v>26</v>
+        <v>29</v>
       </c>
     </row>
     <row r="247" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A247" s="1" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B247" s="1" t="s">
-        <v>5</v>
+        <v>19</v>
       </c>
       <c r="C247" s="1" t="s">
-        <v>6</v>
+        <v>16</v>
       </c>
       <c r="D247" s="1" t="s">
         <v>13</v>
       </c>
       <c r="E247" s="1" t="s">
-        <v>24</v>
+        <v>29</v>
       </c>
     </row>
     <row r="248" spans="1:5" x14ac:dyDescent="0.3">
@@ -4693,7 +4681,7 @@
         <v>5</v>
       </c>
       <c r="C248" s="1" t="s">
-        <v>14</v>
+        <v>6</v>
       </c>
       <c r="D248" s="1" t="s">
         <v>7</v>
@@ -4710,13 +4698,13 @@
         <v>5</v>
       </c>
       <c r="C249" s="1" t="s">
-        <v>14</v>
+        <v>6</v>
       </c>
       <c r="D249" s="1" t="s">
         <v>9</v>
       </c>
       <c r="E249" s="1" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
     </row>
     <row r="250" spans="1:5" x14ac:dyDescent="0.3">
@@ -4727,13 +4715,13 @@
         <v>5</v>
       </c>
       <c r="C250" s="1" t="s">
-        <v>14</v>
+        <v>6</v>
       </c>
       <c r="D250" s="1" t="s">
         <v>10</v>
       </c>
       <c r="E250" s="1" t="s">
-        <v>23</v>
+        <v>28</v>
       </c>
     </row>
     <row r="251" spans="1:5" x14ac:dyDescent="0.3">
@@ -4747,7 +4735,7 @@
         <v>14</v>
       </c>
       <c r="D251" s="1" t="s">
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="E251" s="1" t="s">
         <v>23</v>
@@ -4764,10 +4752,10 @@
         <v>14</v>
       </c>
       <c r="D252" s="1" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="E252" s="1" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
     <row r="253" spans="1:5" x14ac:dyDescent="0.3">
@@ -4781,10 +4769,10 @@
         <v>14</v>
       </c>
       <c r="D253" s="1" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="E253" s="1" t="s">
-        <v>28</v>
+        <v>24</v>
       </c>
     </row>
     <row r="254" spans="1:5" x14ac:dyDescent="0.3">
@@ -4818,7 +4806,7 @@
         <v>9</v>
       </c>
       <c r="E255" s="1" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
     </row>
     <row r="256" spans="1:5" x14ac:dyDescent="0.3">
@@ -4835,7 +4823,7 @@
         <v>10</v>
       </c>
       <c r="E256" s="1" t="s">
-        <v>23</v>
+        <v>28</v>
       </c>
     </row>
     <row r="257" spans="1:5" x14ac:dyDescent="0.3">
@@ -4846,13 +4834,13 @@
         <v>5</v>
       </c>
       <c r="C257" s="1" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="D257" s="1" t="s">
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="E257" s="1" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
     <row r="258" spans="1:5" x14ac:dyDescent="0.3">
@@ -4863,13 +4851,13 @@
         <v>5</v>
       </c>
       <c r="C258" s="1" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="D258" s="1" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="E258" s="1" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
     </row>
     <row r="259" spans="1:5" x14ac:dyDescent="0.3">
@@ -4880,13 +4868,13 @@
         <v>5</v>
       </c>
       <c r="C259" s="1" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="D259" s="1" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="E259" s="1" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
     <row r="260" spans="1:5" x14ac:dyDescent="0.3">
@@ -4900,7 +4888,7 @@
         <v>16</v>
       </c>
       <c r="D260" s="1" t="s">
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="E260" s="1" t="s">
         <v>23</v>
@@ -4917,7 +4905,7 @@
         <v>16</v>
       </c>
       <c r="D261" s="1" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="E261" s="1" t="s">
         <v>23</v>
@@ -4934,7 +4922,7 @@
         <v>16</v>
       </c>
       <c r="D262" s="1" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="E262" s="1" t="s">
         <v>23</v>
@@ -4945,13 +4933,13 @@
         <v>22</v>
       </c>
       <c r="B263" s="1" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="C263" s="1" t="s">
-        <v>16</v>
+        <v>6</v>
       </c>
       <c r="D263" s="1" t="s">
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="E263" s="1" t="s">
         <v>23</v>
@@ -4962,13 +4950,13 @@
         <v>22</v>
       </c>
       <c r="B264" s="1" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="C264" s="1" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="D264" s="1" t="s">
-        <v>12</v>
+        <v>7</v>
       </c>
       <c r="E264" s="1" t="s">
         <v>23</v>
@@ -4979,13 +4967,13 @@
         <v>22</v>
       </c>
       <c r="B265" s="1" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="C265" s="1" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="D265" s="1" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="E265" s="1" t="s">
         <v>23</v>
@@ -4999,7 +4987,7 @@
         <v>8</v>
       </c>
       <c r="C266" s="1" t="s">
-        <v>6</v>
+        <v>15</v>
       </c>
       <c r="D266" s="1" t="s">
         <v>7</v>
@@ -5016,13 +5004,13 @@
         <v>8</v>
       </c>
       <c r="C267" s="1" t="s">
-        <v>6</v>
+        <v>16</v>
       </c>
       <c r="D267" s="1" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="E267" s="1" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
     </row>
     <row r="268" spans="1:5" x14ac:dyDescent="0.3">
@@ -5033,13 +5021,13 @@
         <v>8</v>
       </c>
       <c r="C268" s="1" t="s">
-        <v>6</v>
+        <v>16</v>
       </c>
       <c r="D268" s="1" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="E268" s="1" t="s">
-        <v>28</v>
+        <v>23</v>
       </c>
     </row>
     <row r="269" spans="1:5" x14ac:dyDescent="0.3">
@@ -5050,13 +5038,13 @@
         <v>8</v>
       </c>
       <c r="C269" s="1" t="s">
-        <v>6</v>
+        <v>16</v>
       </c>
       <c r="D269" s="1" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="E269" s="1" t="s">
-        <v>28</v>
+        <v>23</v>
       </c>
     </row>
     <row r="270" spans="1:5" x14ac:dyDescent="0.3">
@@ -5067,13 +5055,13 @@
         <v>8</v>
       </c>
       <c r="C270" s="1" t="s">
-        <v>6</v>
+        <v>16</v>
       </c>
       <c r="D270" s="1" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="E270" s="1" t="s">
-        <v>27</v>
+        <v>23</v>
       </c>
     </row>
     <row r="271" spans="1:5" x14ac:dyDescent="0.3">
@@ -5084,13 +5072,13 @@
         <v>8</v>
       </c>
       <c r="C271" s="1" t="s">
-        <v>6</v>
+        <v>16</v>
       </c>
       <c r="D271" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="E271" s="1" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
     </row>
     <row r="272" spans="1:5" x14ac:dyDescent="0.3">
@@ -5101,10 +5089,10 @@
         <v>8</v>
       </c>
       <c r="C272" s="1" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="D272" s="1" t="s">
-        <v>7</v>
+        <v>13</v>
       </c>
       <c r="E272" s="1" t="s">
         <v>23</v>
@@ -5115,16 +5103,16 @@
         <v>22</v>
       </c>
       <c r="B273" s="1" t="s">
-        <v>8</v>
+        <v>17</v>
       </c>
       <c r="C273" s="1" t="s">
-        <v>14</v>
+        <v>6</v>
       </c>
       <c r="D273" s="1" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="E273" s="1" t="s">
-        <v>27</v>
+        <v>23</v>
       </c>
     </row>
     <row r="274" spans="1:5" x14ac:dyDescent="0.3">
@@ -5132,13 +5120,13 @@
         <v>22</v>
       </c>
       <c r="B274" s="1" t="s">
-        <v>8</v>
+        <v>17</v>
       </c>
       <c r="C274" s="1" t="s">
         <v>14</v>
       </c>
       <c r="D274" s="1" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="E274" s="1" t="s">
         <v>23</v>
@@ -5149,16 +5137,16 @@
         <v>22</v>
       </c>
       <c r="B275" s="1" t="s">
-        <v>8</v>
+        <v>17</v>
       </c>
       <c r="C275" s="1" t="s">
         <v>14</v>
       </c>
       <c r="D275" s="1" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="E275" s="1" t="s">
-        <v>28</v>
+        <v>23</v>
       </c>
     </row>
     <row r="276" spans="1:5" x14ac:dyDescent="0.3">
@@ -5166,16 +5154,16 @@
         <v>22</v>
       </c>
       <c r="B276" s="1" t="s">
-        <v>8</v>
+        <v>17</v>
       </c>
       <c r="C276" s="1" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="D276" s="1" t="s">
-        <v>12</v>
+        <v>7</v>
       </c>
       <c r="E276" s="1" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
     </row>
     <row r="277" spans="1:5" x14ac:dyDescent="0.3">
@@ -5183,16 +5171,16 @@
         <v>22</v>
       </c>
       <c r="B277" s="1" t="s">
-        <v>8</v>
+        <v>17</v>
       </c>
       <c r="C277" s="1" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="D277" s="1" t="s">
-        <v>13</v>
+        <v>7</v>
       </c>
       <c r="E277" s="1" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
     <row r="278" spans="1:5" x14ac:dyDescent="0.3">
@@ -5200,13 +5188,13 @@
         <v>22</v>
       </c>
       <c r="B278" s="1" t="s">
-        <v>8</v>
+        <v>17</v>
       </c>
       <c r="C278" s="1" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="D278" s="1" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="E278" s="1" t="s">
         <v>23</v>
@@ -5217,16 +5205,16 @@
         <v>22</v>
       </c>
       <c r="B279" s="1" t="s">
-        <v>8</v>
+        <v>17</v>
       </c>
       <c r="C279" s="1" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="D279" s="1" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E279" s="1" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
     </row>
     <row r="280" spans="1:5" x14ac:dyDescent="0.3">
@@ -5234,16 +5222,16 @@
         <v>22</v>
       </c>
       <c r="B280" s="1" t="s">
-        <v>8</v>
+        <v>17</v>
       </c>
       <c r="C280" s="1" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="D280" s="1" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E280" s="1" t="s">
-        <v>28</v>
+        <v>23</v>
       </c>
     </row>
     <row r="281" spans="1:5" x14ac:dyDescent="0.3">
@@ -5251,16 +5239,16 @@
         <v>22</v>
       </c>
       <c r="B281" s="1" t="s">
-        <v>8</v>
+        <v>17</v>
       </c>
       <c r="C281" s="1" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="D281" s="1" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="E281" s="1" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
     <row r="282" spans="1:5" x14ac:dyDescent="0.3">
@@ -5268,16 +5256,16 @@
         <v>22</v>
       </c>
       <c r="B282" s="1" t="s">
-        <v>8</v>
+        <v>17</v>
       </c>
       <c r="C282" s="1" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="D282" s="1" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="E282" s="1" t="s">
-        <v>27</v>
+        <v>23</v>
       </c>
     </row>
     <row r="283" spans="1:5" x14ac:dyDescent="0.3">
@@ -5285,16 +5273,16 @@
         <v>22</v>
       </c>
       <c r="B283" s="1" t="s">
-        <v>8</v>
+        <v>18</v>
       </c>
       <c r="C283" s="1" t="s">
-        <v>15</v>
+        <v>6</v>
       </c>
       <c r="D283" s="1" t="s">
-        <v>13</v>
+        <v>7</v>
       </c>
       <c r="E283" s="1" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
     </row>
     <row r="284" spans="1:5" x14ac:dyDescent="0.3">
@@ -5302,16 +5290,16 @@
         <v>22</v>
       </c>
       <c r="B284" s="1" t="s">
-        <v>8</v>
+        <v>18</v>
       </c>
       <c r="C284" s="1" t="s">
-        <v>16</v>
+        <v>6</v>
       </c>
       <c r="D284" s="1" t="s">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="E284" s="1" t="s">
-        <v>23</v>
+        <v>28</v>
       </c>
     </row>
     <row r="285" spans="1:5" x14ac:dyDescent="0.3">
@@ -5319,13 +5307,13 @@
         <v>22</v>
       </c>
       <c r="B285" s="1" t="s">
-        <v>8</v>
+        <v>18</v>
       </c>
       <c r="C285" s="1" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="D285" s="1" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="E285" s="1" t="s">
         <v>23</v>
@@ -5336,10 +5324,10 @@
         <v>22</v>
       </c>
       <c r="B286" s="1" t="s">
-        <v>8</v>
+        <v>18</v>
       </c>
       <c r="C286" s="1" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="D286" s="1" t="s">
         <v>10</v>
@@ -5353,16 +5341,16 @@
         <v>22</v>
       </c>
       <c r="B287" s="1" t="s">
-        <v>8</v>
+        <v>18</v>
       </c>
       <c r="C287" s="1" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="D287" s="1" t="s">
         <v>11</v>
       </c>
       <c r="E287" s="1" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
     </row>
     <row r="288" spans="1:5" x14ac:dyDescent="0.3">
@@ -5370,13 +5358,13 @@
         <v>22</v>
       </c>
       <c r="B288" s="1" t="s">
-        <v>8</v>
+        <v>18</v>
       </c>
       <c r="C288" s="1" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D288" s="1" t="s">
-        <v>12</v>
+        <v>7</v>
       </c>
       <c r="E288" s="1" t="s">
         <v>23</v>
@@ -5387,16 +5375,16 @@
         <v>22</v>
       </c>
       <c r="B289" s="1" t="s">
-        <v>8</v>
+        <v>18</v>
       </c>
       <c r="C289" s="1" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D289" s="1" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="E289" s="1" t="s">
-        <v>23</v>
+        <v>28</v>
       </c>
     </row>
     <row r="290" spans="1:5" x14ac:dyDescent="0.3">
@@ -5404,10 +5392,10 @@
         <v>22</v>
       </c>
       <c r="B290" s="1" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="C290" s="1" t="s">
-        <v>6</v>
+        <v>16</v>
       </c>
       <c r="D290" s="1" t="s">
         <v>7</v>
@@ -5421,16 +5409,16 @@
         <v>22</v>
       </c>
       <c r="B291" s="1" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="C291" s="1" t="s">
-        <v>6</v>
+        <v>16</v>
       </c>
       <c r="D291" s="1" t="s">
         <v>9</v>
       </c>
       <c r="E291" s="1" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
     </row>
     <row r="292" spans="1:5" x14ac:dyDescent="0.3">
@@ -5438,16 +5426,16 @@
         <v>22</v>
       </c>
       <c r="B292" s="1" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="C292" s="1" t="s">
-        <v>6</v>
+        <v>16</v>
       </c>
       <c r="D292" s="1" t="s">
         <v>10</v>
       </c>
       <c r="E292" s="1" t="s">
-        <v>28</v>
+        <v>23</v>
       </c>
     </row>
     <row r="293" spans="1:5" x14ac:dyDescent="0.3">
@@ -5455,16 +5443,16 @@
         <v>22</v>
       </c>
       <c r="B293" s="1" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="C293" s="1" t="s">
-        <v>6</v>
+        <v>16</v>
       </c>
       <c r="D293" s="1" t="s">
         <v>11</v>
       </c>
       <c r="E293" s="1" t="s">
-        <v>28</v>
+        <v>23</v>
       </c>
     </row>
     <row r="294" spans="1:5" x14ac:dyDescent="0.3">
@@ -5472,16 +5460,16 @@
         <v>22</v>
       </c>
       <c r="B294" s="1" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="C294" s="1" t="s">
-        <v>6</v>
+        <v>16</v>
       </c>
       <c r="D294" s="1" t="s">
         <v>12</v>
       </c>
       <c r="E294" s="1" t="s">
-        <v>27</v>
+        <v>23</v>
       </c>
     </row>
     <row r="295" spans="1:5" x14ac:dyDescent="0.3">
@@ -5489,16 +5477,16 @@
         <v>22</v>
       </c>
       <c r="B295" s="1" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="C295" s="1" t="s">
-        <v>6</v>
+        <v>16</v>
       </c>
       <c r="D295" s="1" t="s">
         <v>13</v>
       </c>
       <c r="E295" s="1" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
     </row>
     <row r="296" spans="1:5" x14ac:dyDescent="0.3">
@@ -5506,10 +5494,10 @@
         <v>22</v>
       </c>
       <c r="B296" s="1" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="C296" s="1" t="s">
-        <v>14</v>
+        <v>6</v>
       </c>
       <c r="D296" s="1" t="s">
         <v>7</v>
@@ -5523,16 +5511,16 @@
         <v>22</v>
       </c>
       <c r="B297" s="1" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="C297" s="1" t="s">
-        <v>14</v>
+        <v>6</v>
       </c>
       <c r="D297" s="1" t="s">
         <v>9</v>
       </c>
       <c r="E297" s="1" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
     </row>
     <row r="298" spans="1:5" x14ac:dyDescent="0.3">
@@ -5540,10 +5528,10 @@
         <v>22</v>
       </c>
       <c r="B298" s="1" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="C298" s="1" t="s">
-        <v>14</v>
+        <v>6</v>
       </c>
       <c r="D298" s="1" t="s">
         <v>10</v>
@@ -5557,16 +5545,16 @@
         <v>22</v>
       </c>
       <c r="B299" s="1" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="C299" s="1" t="s">
-        <v>14</v>
+        <v>6</v>
       </c>
       <c r="D299" s="1" t="s">
         <v>11</v>
       </c>
       <c r="E299" s="1" t="s">
-        <v>28</v>
+        <v>24</v>
       </c>
     </row>
     <row r="300" spans="1:5" x14ac:dyDescent="0.3">
@@ -5574,16 +5562,16 @@
         <v>22</v>
       </c>
       <c r="B300" s="1" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="C300" s="1" t="s">
-        <v>14</v>
+        <v>6</v>
       </c>
       <c r="D300" s="1" t="s">
         <v>12</v>
       </c>
       <c r="E300" s="1" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
     </row>
     <row r="301" spans="1:5" x14ac:dyDescent="0.3">
@@ -5591,16 +5579,16 @@
         <v>22</v>
       </c>
       <c r="B301" s="1" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="C301" s="1" t="s">
-        <v>14</v>
+        <v>6</v>
       </c>
       <c r="D301" s="1" t="s">
         <v>13</v>
       </c>
       <c r="E301" s="1" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
     <row r="302" spans="1:5" x14ac:dyDescent="0.3">
@@ -5608,10 +5596,10 @@
         <v>22</v>
       </c>
       <c r="B302" s="1" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="C302" s="1" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="D302" s="1" t="s">
         <v>7</v>
@@ -5625,10 +5613,10 @@
         <v>22</v>
       </c>
       <c r="B303" s="1" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="C303" s="1" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="D303" s="1" t="s">
         <v>9</v>
@@ -5642,16 +5630,16 @@
         <v>22</v>
       </c>
       <c r="B304" s="1" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="C304" s="1" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="D304" s="1" t="s">
         <v>10</v>
       </c>
       <c r="E304" s="1" t="s">
-        <v>28</v>
+        <v>23</v>
       </c>
     </row>
     <row r="305" spans="1:5" x14ac:dyDescent="0.3">
@@ -5659,10 +5647,10 @@
         <v>22</v>
       </c>
       <c r="B305" s="1" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="C305" s="1" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="D305" s="1" t="s">
         <v>11</v>
@@ -5676,16 +5664,16 @@
         <v>22</v>
       </c>
       <c r="B306" s="1" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="C306" s="1" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="D306" s="1" t="s">
         <v>12</v>
       </c>
       <c r="E306" s="1" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
     </row>
     <row r="307" spans="1:5" x14ac:dyDescent="0.3">
@@ -5693,16 +5681,16 @@
         <v>22</v>
       </c>
       <c r="B307" s="1" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="C307" s="1" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="D307" s="1" t="s">
         <v>13</v>
       </c>
       <c r="E307" s="1" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
     </row>
     <row r="308" spans="1:5" x14ac:dyDescent="0.3">
@@ -5710,10 +5698,10 @@
         <v>22</v>
       </c>
       <c r="B308" s="1" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="C308" s="1" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D308" s="1" t="s">
         <v>7</v>
@@ -5727,16 +5715,16 @@
         <v>22</v>
       </c>
       <c r="B309" s="1" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="C309" s="1" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D309" s="1" t="s">
         <v>9</v>
       </c>
       <c r="E309" s="1" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
     </row>
     <row r="310" spans="1:5" x14ac:dyDescent="0.3">
@@ -5744,10 +5732,10 @@
         <v>22</v>
       </c>
       <c r="B310" s="1" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="C310" s="1" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D310" s="1" t="s">
         <v>10</v>
@@ -5761,16 +5749,16 @@
         <v>22</v>
       </c>
       <c r="B311" s="1" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="C311" s="1" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D311" s="1" t="s">
         <v>11</v>
       </c>
       <c r="E311" s="1" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
     </row>
     <row r="312" spans="1:5" x14ac:dyDescent="0.3">
@@ -5778,16 +5766,16 @@
         <v>22</v>
       </c>
       <c r="B312" s="1" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="C312" s="1" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D312" s="1" t="s">
         <v>12</v>
       </c>
       <c r="E312" s="1" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
     </row>
     <row r="313" spans="1:5" x14ac:dyDescent="0.3">
@@ -5795,10 +5783,10 @@
         <v>22</v>
       </c>
       <c r="B313" s="1" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="C313" s="1" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D313" s="1" t="s">
         <v>13</v>
@@ -5812,10 +5800,10 @@
         <v>22</v>
       </c>
       <c r="B314" s="1" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="C314" s="1" t="s">
-        <v>6</v>
+        <v>16</v>
       </c>
       <c r="D314" s="1" t="s">
         <v>7</v>
@@ -5829,16 +5817,16 @@
         <v>22</v>
       </c>
       <c r="B315" s="1" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="C315" s="1" t="s">
-        <v>6</v>
+        <v>16</v>
       </c>
       <c r="D315" s="1" t="s">
         <v>9</v>
       </c>
       <c r="E315" s="1" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
     </row>
     <row r="316" spans="1:5" x14ac:dyDescent="0.3">
@@ -5846,10 +5834,10 @@
         <v>22</v>
       </c>
       <c r="B316" s="1" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="C316" s="1" t="s">
-        <v>6</v>
+        <v>16</v>
       </c>
       <c r="D316" s="1" t="s">
         <v>10</v>
@@ -5863,16 +5851,16 @@
         <v>22</v>
       </c>
       <c r="B317" s="1" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="C317" s="1" t="s">
-        <v>6</v>
+        <v>16</v>
       </c>
       <c r="D317" s="1" t="s">
         <v>11</v>
       </c>
       <c r="E317" s="1" t="s">
-        <v>28</v>
+        <v>23</v>
       </c>
     </row>
     <row r="318" spans="1:5" x14ac:dyDescent="0.3">
@@ -5880,16 +5868,16 @@
         <v>22</v>
       </c>
       <c r="B318" s="1" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="C318" s="1" t="s">
-        <v>6</v>
+        <v>16</v>
       </c>
       <c r="D318" s="1" t="s">
         <v>12</v>
       </c>
       <c r="E318" s="1" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
     </row>
     <row r="319" spans="1:5" x14ac:dyDescent="0.3">
@@ -5897,41 +5885,41 @@
         <v>22</v>
       </c>
       <c r="B319" s="1" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="C319" s="1" t="s">
-        <v>6</v>
+        <v>16</v>
       </c>
       <c r="D319" s="1" t="s">
         <v>13</v>
       </c>
       <c r="E319" s="1" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
     <row r="320" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A320" s="1" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="B320" s="1" t="s">
-        <v>18</v>
+        <v>8</v>
       </c>
       <c r="C320" s="1" t="s">
-        <v>14</v>
+        <v>6</v>
       </c>
       <c r="D320" s="1" t="s">
-        <v>7</v>
+        <v>12</v>
       </c>
       <c r="E320" s="1" t="s">
-        <v>23</v>
+        <v>27</v>
       </c>
     </row>
     <row r="321" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A321" s="1" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="B321" s="1" t="s">
-        <v>18</v>
+        <v>8</v>
       </c>
       <c r="C321" s="1" t="s">
         <v>14</v>
@@ -5940,103 +5928,103 @@
         <v>9</v>
       </c>
       <c r="E321" s="1" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
     </row>
     <row r="322" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A322" s="1" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="B322" s="1" t="s">
-        <v>18</v>
+        <v>8</v>
       </c>
       <c r="C322" s="1" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="D322" s="1" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="E322" s="1" t="s">
-        <v>23</v>
+        <v>27</v>
       </c>
     </row>
     <row r="323" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A323" s="1" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="B323" s="1" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C323" s="1" t="s">
-        <v>14</v>
+        <v>6</v>
       </c>
       <c r="D323" s="1" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="E323" s="1" t="s">
-        <v>23</v>
+        <v>27</v>
       </c>
     </row>
     <row r="324" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A324" s="1" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="B324" s="1" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C324" s="1" t="s">
         <v>14</v>
       </c>
       <c r="D324" s="1" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="E324" s="1" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
     </row>
     <row r="325" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A325" s="1" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="B325" s="1" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C325" s="1" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="D325" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="E325" s="1" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
     </row>
     <row r="326" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A326" s="1" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B326" s="1" t="s">
-        <v>18</v>
+        <v>8</v>
       </c>
       <c r="C326" s="1" t="s">
-        <v>15</v>
+        <v>6</v>
       </c>
       <c r="D326" s="1" t="s">
-        <v>7</v>
+        <v>12</v>
       </c>
       <c r="E326" s="1" t="s">
-        <v>23</v>
+        <v>27</v>
       </c>
     </row>
     <row r="327" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A327" s="1" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B327" s="1" t="s">
-        <v>18</v>
+        <v>8</v>
       </c>
       <c r="C327" s="1" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="D327" s="1" t="s">
         <v>9</v>
@@ -6047,70 +6035,70 @@
     </row>
     <row r="328" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A328" s="1" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B328" s="1" t="s">
-        <v>18</v>
+        <v>8</v>
       </c>
       <c r="C328" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D328" s="1" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="E328" s="1" t="s">
-        <v>23</v>
+        <v>27</v>
       </c>
     </row>
     <row r="329" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A329" s="1" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B329" s="1" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C329" s="1" t="s">
-        <v>15</v>
+        <v>6</v>
       </c>
       <c r="D329" s="1" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="E329" s="1" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
     </row>
     <row r="330" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A330" s="1" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B330" s="1" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C330" s="1" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="D330" s="1" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="E330" s="1" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
     </row>
     <row r="331" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A331" s="1" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B331" s="1" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C331" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D331" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="E331" s="1" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
     </row>
     <row r="332" spans="1:5" x14ac:dyDescent="0.3">
@@ -6118,16 +6106,16 @@
         <v>22</v>
       </c>
       <c r="B332" s="1" t="s">
-        <v>18</v>
+        <v>8</v>
       </c>
       <c r="C332" s="1" t="s">
-        <v>16</v>
+        <v>6</v>
       </c>
       <c r="D332" s="1" t="s">
-        <v>7</v>
+        <v>12</v>
       </c>
       <c r="E332" s="1" t="s">
-        <v>23</v>
+        <v>27</v>
       </c>
     </row>
     <row r="333" spans="1:5" x14ac:dyDescent="0.3">
@@ -6135,16 +6123,16 @@
         <v>22</v>
       </c>
       <c r="B333" s="1" t="s">
-        <v>18</v>
+        <v>8</v>
       </c>
       <c r="C333" s="1" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="D333" s="1" t="s">
         <v>9</v>
       </c>
       <c r="E333" s="1" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
     </row>
     <row r="334" spans="1:5" x14ac:dyDescent="0.3">
@@ -6152,16 +6140,16 @@
         <v>22</v>
       </c>
       <c r="B334" s="1" t="s">
-        <v>18</v>
+        <v>8</v>
       </c>
       <c r="C334" s="1" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D334" s="1" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="E334" s="1" t="s">
-        <v>23</v>
+        <v>27</v>
       </c>
     </row>
     <row r="335" spans="1:5" x14ac:dyDescent="0.3">
@@ -6169,16 +6157,16 @@
         <v>22</v>
       </c>
       <c r="B335" s="1" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C335" s="1" t="s">
-        <v>16</v>
+        <v>6</v>
       </c>
       <c r="D335" s="1" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="E335" s="1" t="s">
-        <v>23</v>
+        <v>27</v>
       </c>
     </row>
     <row r="336" spans="1:5" x14ac:dyDescent="0.3">
@@ -6186,16 +6174,16 @@
         <v>22</v>
       </c>
       <c r="B336" s="1" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C336" s="1" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="D336" s="1" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="E336" s="1" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
     </row>
     <row r="337" spans="1:5" x14ac:dyDescent="0.3">
@@ -6203,194 +6191,194 @@
         <v>22</v>
       </c>
       <c r="B337" s="1" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C337" s="1" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D337" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="E337" s="1" t="s">
-        <v>23</v>
+        <v>27</v>
       </c>
     </row>
     <row r="338" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A338" s="1" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="B338" s="1" t="s">
-        <v>19</v>
+        <v>8</v>
       </c>
       <c r="C338" s="1" t="s">
         <v>6</v>
       </c>
       <c r="D338" s="1" t="s">
-        <v>7</v>
+        <v>13</v>
       </c>
       <c r="E338" s="1" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
     </row>
     <row r="339" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A339" s="1" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="B339" s="1" t="s">
-        <v>19</v>
+        <v>8</v>
       </c>
       <c r="C339" s="1" t="s">
-        <v>6</v>
+        <v>14</v>
       </c>
       <c r="D339" s="1" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="E339" s="1" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
     </row>
     <row r="340" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A340" s="1" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="B340" s="1" t="s">
-        <v>19</v>
+        <v>8</v>
       </c>
       <c r="C340" s="1" t="s">
-        <v>6</v>
+        <v>15</v>
       </c>
       <c r="D340" s="1" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="E340" s="1" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
     </row>
     <row r="341" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A341" s="1" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="B341" s="1" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="C341" s="1" t="s">
         <v>6</v>
       </c>
       <c r="D341" s="1" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="E341" s="1" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
     </row>
     <row r="342" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A342" s="1" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="B342" s="1" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="C342" s="1" t="s">
-        <v>6</v>
+        <v>14</v>
       </c>
       <c r="D342" s="1" t="s">
         <v>12</v>
       </c>
       <c r="E342" s="1" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
     </row>
     <row r="343" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A343" s="1" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="B343" s="1" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="C343" s="1" t="s">
-        <v>6</v>
+        <v>15</v>
       </c>
       <c r="D343" s="1" t="s">
         <v>13</v>
       </c>
       <c r="E343" s="1" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
     </row>
     <row r="344" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A344" s="1" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B344" s="1" t="s">
-        <v>19</v>
+        <v>8</v>
       </c>
       <c r="C344" s="1" t="s">
-        <v>14</v>
+        <v>6</v>
       </c>
       <c r="D344" s="1" t="s">
-        <v>7</v>
+        <v>13</v>
       </c>
       <c r="E344" s="1" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
     </row>
     <row r="345" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A345" s="1" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B345" s="1" t="s">
-        <v>19</v>
+        <v>8</v>
       </c>
       <c r="C345" s="1" t="s">
         <v>14</v>
       </c>
       <c r="D345" s="1" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="E345" s="1" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
     </row>
     <row r="346" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A346" s="1" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B346" s="1" t="s">
-        <v>19</v>
+        <v>8</v>
       </c>
       <c r="C346" s="1" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="D346" s="1" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="E346" s="1" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
     </row>
     <row r="347" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A347" s="1" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B347" s="1" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="C347" s="1" t="s">
-        <v>14</v>
+        <v>6</v>
       </c>
       <c r="D347" s="1" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="E347" s="1" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
     </row>
     <row r="348" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A348" s="1" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B348" s="1" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="C348" s="1" t="s">
         <v>14</v>
@@ -6399,24 +6387,24 @@
         <v>12</v>
       </c>
       <c r="E348" s="1" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
     </row>
     <row r="349" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A349" s="1" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B349" s="1" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="C349" s="1" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="D349" s="1" t="s">
         <v>13</v>
       </c>
       <c r="E349" s="1" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
     </row>
     <row r="350" spans="1:5" x14ac:dyDescent="0.3">
@@ -6424,16 +6412,16 @@
         <v>22</v>
       </c>
       <c r="B350" s="1" t="s">
-        <v>19</v>
+        <v>5</v>
       </c>
       <c r="C350" s="1" t="s">
-        <v>15</v>
+        <v>6</v>
       </c>
       <c r="D350" s="1" t="s">
-        <v>7</v>
+        <v>12</v>
       </c>
       <c r="E350" s="1" t="s">
-        <v>23</v>
+        <v>27</v>
       </c>
     </row>
     <row r="351" spans="1:5" x14ac:dyDescent="0.3">
@@ -6441,16 +6429,16 @@
         <v>22</v>
       </c>
       <c r="B351" s="1" t="s">
-        <v>19</v>
+        <v>5</v>
       </c>
       <c r="C351" s="1" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="D351" s="1" t="s">
         <v>9</v>
       </c>
       <c r="E351" s="1" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
     </row>
     <row r="352" spans="1:5" x14ac:dyDescent="0.3">
@@ -6458,16 +6446,16 @@
         <v>22</v>
       </c>
       <c r="B352" s="1" t="s">
-        <v>19</v>
+        <v>5</v>
       </c>
       <c r="C352" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D352" s="1" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="E352" s="1" t="s">
-        <v>23</v>
+        <v>27</v>
       </c>
     </row>
     <row r="353" spans="1:5" x14ac:dyDescent="0.3">
@@ -6475,16 +6463,16 @@
         <v>22</v>
       </c>
       <c r="B353" s="1" t="s">
-        <v>19</v>
+        <v>8</v>
       </c>
       <c r="C353" s="1" t="s">
-        <v>15</v>
+        <v>6</v>
       </c>
       <c r="D353" s="1" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="E353" s="1" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
     </row>
     <row r="354" spans="1:5" x14ac:dyDescent="0.3">
@@ -6492,16 +6480,16 @@
         <v>22</v>
       </c>
       <c r="B354" s="1" t="s">
-        <v>19</v>
+        <v>8</v>
       </c>
       <c r="C354" s="1" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="D354" s="1" t="s">
         <v>12</v>
       </c>
       <c r="E354" s="1" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
     </row>
     <row r="355" spans="1:5" x14ac:dyDescent="0.3">
@@ -6509,7 +6497,7 @@
         <v>22</v>
       </c>
       <c r="B355" s="1" t="s">
-        <v>19</v>
+        <v>8</v>
       </c>
       <c r="C355" s="1" t="s">
         <v>15</v>
@@ -6518,7 +6506,7 @@
         <v>13</v>
       </c>
       <c r="E355" s="1" t="s">
-        <v>23</v>
+        <v>27</v>
       </c>
     </row>
     <row r="356" spans="1:5" x14ac:dyDescent="0.3">
@@ -6526,16 +6514,16 @@
         <v>22</v>
       </c>
       <c r="B356" s="1" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="C356" s="1" t="s">
-        <v>16</v>
+        <v>6</v>
       </c>
       <c r="D356" s="1" t="s">
-        <v>7</v>
+        <v>13</v>
       </c>
       <c r="E356" s="1" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
     </row>
     <row r="357" spans="1:5" x14ac:dyDescent="0.3">
@@ -6543,16 +6531,16 @@
         <v>22</v>
       </c>
       <c r="B357" s="1" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="C357" s="1" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="D357" s="1" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="E357" s="1" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
     </row>
     <row r="358" spans="1:5" x14ac:dyDescent="0.3">
@@ -6560,16 +6548,16 @@
         <v>22</v>
       </c>
       <c r="B358" s="1" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="C358" s="1" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D358" s="1" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="E358" s="1" t="s">
-        <v>23</v>
+        <v>27</v>
       </c>
     </row>
     <row r="359" spans="1:5" x14ac:dyDescent="0.3">
@@ -6577,16 +6565,16 @@
         <v>22</v>
       </c>
       <c r="B359" s="1" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C359" s="1" t="s">
-        <v>16</v>
+        <v>6</v>
       </c>
       <c r="D359" s="1" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="E359" s="1" t="s">
-        <v>23</v>
+        <v>27</v>
       </c>
     </row>
     <row r="360" spans="1:5" x14ac:dyDescent="0.3">
@@ -6594,16 +6582,16 @@
         <v>22</v>
       </c>
       <c r="B360" s="1" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C360" s="1" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="D360" s="1" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="E360" s="1" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
     </row>
     <row r="361" spans="1:5" x14ac:dyDescent="0.3">
@@ -6611,37 +6599,33 @@
         <v>22</v>
       </c>
       <c r="B361" s="1" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C361" s="1" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D361" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="E361" s="1" t="s">
-        <v>23</v>
+        <v>27</v>
       </c>
     </row>
   </sheetData>
-  <dataValidations count="5">
-    <dataValidation type="list" allowBlank="1" showErrorMessage="1" sqref="B2:B361" xr:uid="{A9058AB4-2C24-4FF9-BA7D-269F082A9819}">
+  <dataValidations count="4">
+    <dataValidation type="list" allowBlank="1" showErrorMessage="1" sqref="D2:E361" xr:uid="{3F4C30A1-089C-486D-8036-BA3A85AE93A3}">
+      <formula1>#REF!</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showErrorMessage="1" sqref="A2:A361" xr:uid="{A7A3A2BD-0473-41A2-B561-4859DD7B3E48}">
+      <formula1>$C$2:$C$5</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showErrorMessage="1" sqref="C2:C361" xr:uid="{A0835C64-4BFB-4FC9-9F50-4DAD8853A1DA}">
+      <formula1>$E$2:$E$6</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showErrorMessage="1" sqref="B2:B361" xr:uid="{8B84825C-6534-475D-8347-3672C7167703}">
       <formula1>$D$2:$D$7</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showErrorMessage="1" sqref="D2:D361" xr:uid="{1A876DAC-5E01-4327-AE7E-BB01E335506A}">
-      <formula1>$F$2:$F$8</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showErrorMessage="1" sqref="C2:C361" xr:uid="{31FF69F3-9D2A-413F-B0A2-E4A0396A8C04}">
-      <formula1>$E$2:$E$6</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showErrorMessage="1" sqref="E2:E361" xr:uid="{54620D87-EB5F-4C60-BE55-3C1815A4E7EB}">
-      <formula1>$G$2:$G$8</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showErrorMessage="1" sqref="A2:A361" xr:uid="{B797CBE4-1741-42C0-BCB2-A1FFF05D2C4C}">
-      <formula1>$C$2:$C$5</formula1>
-    </dataValidation>
   </dataValidations>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
 </worksheet>
 </file>